--- a/notes.xlsx
+++ b/notes.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="281">
   <si>
     <t>Page</t>
   </si>
@@ -450,6 +450,24 @@
     <t>Virtual folios</t>
   </si>
   <si>
+    <t>iHMSProbs.html</t>
+  </si>
+  <si>
+    <t>Fixing iHMS server error</t>
+  </si>
+  <si>
+    <t>Groups.html</t>
+  </si>
+  <si>
+    <t>Groups &amp; what to do</t>
+  </si>
+  <si>
+    <t>Transactions.html</t>
+  </si>
+  <si>
+    <t>Posting transactions to folios</t>
+  </si>
+  <si>
     <t>Bond.html</t>
   </si>
   <si>
@@ -468,24 +486,12 @@
     <t>Need images of safe box slip</t>
   </si>
   <si>
-    <t>Transactions.html</t>
-  </si>
-  <si>
-    <t>Posting transactions to folios</t>
-  </si>
-  <si>
-    <t>Need images, spelling, grammar</t>
-  </si>
-  <si>
     <t>NA_Manual.html</t>
   </si>
   <si>
     <t>NA manual</t>
   </si>
   <si>
-    <t>Need images. Table formatting</t>
-  </si>
-  <si>
     <t>GSA_Manual.html</t>
   </si>
   <si>
@@ -495,6 +501,117 @@
     <t>Need to write content</t>
   </si>
   <si>
+    <t>checkroomready.html</t>
+  </si>
+  <si>
+    <t>Checking rooms ready by 2pm</t>
+  </si>
+  <si>
+    <t>DepartedRegCard.html</t>
+  </si>
+  <si>
+    <t>Collect all departed reg cards</t>
+  </si>
+  <si>
+    <t>vacantclean.html</t>
+  </si>
+  <si>
+    <t>Ensure all rooms are vacant clean ***check room status***</t>
+  </si>
+  <si>
+    <t>***ARCHIVE***</t>
+  </si>
+  <si>
+    <t>Functions.html</t>
+  </si>
+  <si>
+    <t>Functions &amp; what to do</t>
+  </si>
+  <si>
+    <t>checklist.html</t>
+  </si>
+  <si>
+    <t>GSA checklists</t>
+  </si>
+  <si>
+    <t>LCO_B2B_RM.html</t>
+  </si>
+  <si>
+    <t>Late check outs, back to backs &amp; room moves</t>
+  </si>
+  <si>
+    <t>MaintainX.html</t>
+  </si>
+  <si>
+    <t>MaintainX how to</t>
+  </si>
+  <si>
+    <t>mergeguest.html</t>
+  </si>
+  <si>
+    <t>Merging guest profiles</t>
+  </si>
+  <si>
+    <t>Reversals.html</t>
+  </si>
+  <si>
+    <t>Reversals &amp; corrections</t>
+  </si>
+  <si>
+    <t>RNR.html</t>
+  </si>
+  <si>
+    <t>Room not ready procedure</t>
+  </si>
+  <si>
+    <t>DBillProbs.html</t>
+  </si>
+  <si>
+    <t>Troubleshooting direct bill problems</t>
+  </si>
+  <si>
+    <t>Assistance.html</t>
+  </si>
+  <si>
+    <t>Emergency Assistance Procedure</t>
+  </si>
+  <si>
+    <t>Need updated images</t>
+  </si>
+  <si>
+    <t>Audit.html</t>
+  </si>
+  <si>
+    <t>The Audit</t>
+  </si>
+  <si>
+    <t>BinChecks.html</t>
+  </si>
+  <si>
+    <t>Bin checks</t>
+  </si>
+  <si>
+    <t>Need updated instructions as well as images</t>
+  </si>
+  <si>
+    <t>Wake.html</t>
+  </si>
+  <si>
+    <t>Wake up calls</t>
+  </si>
+  <si>
+    <t>Need wake up call sheet image</t>
+  </si>
+  <si>
+    <t>StartShift.html</t>
+  </si>
+  <si>
+    <t>Starting your shift</t>
+  </si>
+  <si>
+    <t>Update for iHMS</t>
+  </si>
+  <si>
     <t>Buffet.html</t>
   </si>
   <si>
@@ -502,135 +619,6 @@
   </si>
   <si>
     <t>YES</t>
-  </si>
-  <si>
-    <t>checkroomready.html</t>
-  </si>
-  <si>
-    <t>Checking rooms ready by 2pm</t>
-  </si>
-  <si>
-    <t>Need to write content, title</t>
-  </si>
-  <si>
-    <t>DepartedRegCard.html</t>
-  </si>
-  <si>
-    <t>Collect all departed reg cards</t>
-  </si>
-  <si>
-    <t>vacantclean.html</t>
-  </si>
-  <si>
-    <t>Ensure all rooms are vacant clean ***check room status***</t>
-  </si>
-  <si>
-    <t>iHMSProbs.html</t>
-  </si>
-  <si>
-    <t>Fixing iHMS server error</t>
-  </si>
-  <si>
-    <t>Functions.html</t>
-  </si>
-  <si>
-    <t>Functions &amp; what to do</t>
-  </si>
-  <si>
-    <t>Groups.html</t>
-  </si>
-  <si>
-    <t>Groups &amp; what to do</t>
-  </si>
-  <si>
-    <t>checklist.html</t>
-  </si>
-  <si>
-    <t>GSA checklists</t>
-  </si>
-  <si>
-    <t>shiftPrep.html</t>
-  </si>
-  <si>
-    <t>How to utilise down time by cleaning</t>
-  </si>
-  <si>
-    <t>LCO_B2B_RM.html</t>
-  </si>
-  <si>
-    <t>Late check outs, back to backs &amp; room moves</t>
-  </si>
-  <si>
-    <t>MaintainX.html</t>
-  </si>
-  <si>
-    <t>MaintainX how to</t>
-  </si>
-  <si>
-    <t>mergeguest.html</t>
-  </si>
-  <si>
-    <t>Merging guest profiles</t>
-  </si>
-  <si>
-    <t>Reversals.html</t>
-  </si>
-  <si>
-    <t>Reversals &amp; corrections</t>
-  </si>
-  <si>
-    <t>RNR.html</t>
-  </si>
-  <si>
-    <t>Room not ready procedure</t>
-  </si>
-  <si>
-    <t>DBillProbs.html</t>
-  </si>
-  <si>
-    <t>Troubleshooting direct bill problems</t>
-  </si>
-  <si>
-    <t>Assistance.html</t>
-  </si>
-  <si>
-    <t>Emergency Assistance Procedure</t>
-  </si>
-  <si>
-    <t>Need updated images</t>
-  </si>
-  <si>
-    <t>Audit.html</t>
-  </si>
-  <si>
-    <t>The Audit</t>
-  </si>
-  <si>
-    <t>BinChecks.html</t>
-  </si>
-  <si>
-    <t>Bin checks</t>
-  </si>
-  <si>
-    <t>Need updated instructions as well as images</t>
-  </si>
-  <si>
-    <t>Wake.html</t>
-  </si>
-  <si>
-    <t>Wake up calls</t>
-  </si>
-  <si>
-    <t>Need wake up call sheet image</t>
-  </si>
-  <si>
-    <t>StartShift.html</t>
-  </si>
-  <si>
-    <t>Starting your shift</t>
-  </si>
-  <si>
-    <t>Update for iHMS</t>
   </si>
   <si>
     <t>ShiftBalance.html</t>
@@ -1277,7 +1265,7 @@
   <sheetPr enableFormatConditionsCalculation="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D130"/>
+  <dimension ref="A1:D129"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="true"/>
   </sheetViews>
@@ -2181,802 +2169,788 @@
         <v>6</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>141</v>
+        <v>38</v>
       </c>
     </row>
     <row r="65" ht="15" customHeight="1">
       <c r="A65" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="C65" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>144</v>
+        <v>38</v>
       </c>
     </row>
     <row r="66" ht="15" customHeight="1">
       <c r="A66" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>147</v>
+        <v>38</v>
       </c>
     </row>
     <row r="67" ht="15" customHeight="1">
       <c r="A67" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="68" ht="15" customHeight="1">
       <c r="A68" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="69" ht="15" customHeight="1">
       <c r="A69" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D69" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="71" ht="15" customHeight="1">
       <c r="A71" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="72" ht="15" customHeight="1">
       <c r="A72" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="73" ht="15" customHeight="1">
       <c r="A73" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>38</v>
+        <v>162</v>
       </c>
     </row>
     <row r="74" ht="15" customHeight="1">
       <c r="A74" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="75" ht="15" customHeight="1">
       <c r="A75" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>38</v>
+        <v>155</v>
       </c>
     </row>
     <row r="76" ht="15" customHeight="1">
       <c r="A76" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
       <c r="A77" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
       <c r="A78" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
       <c r="A79" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
       <c r="A80" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
       <c r="A81" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
       <c r="A82" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
       <c r="A83" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
       <c r="A84" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
       <c r="A85" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
       <c r="A86" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="C86" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
       <c r="A87" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>195</v>
-      </c>
       <c r="C87" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>196</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="D87" s="2"/>
     </row>
     <row r="88" ht="15" customHeight="1">
       <c r="A88" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>198</v>
-      </c>
       <c r="C88" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
       <c r="A89" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="A90" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="A91" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="A92" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="A93" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="A94" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="A95" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="A96" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="A97" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="A98" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="A99" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="A100" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="A101" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="A102" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="A103" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="A104" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="A105" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="A106" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="A107" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="A108" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="A109" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="A110" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="A111" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="A112" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>246</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="A113" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>249</v>
-      </c>
       <c r="C113" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>250</v>
+        <v>195</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="A114" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="A115" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="A116" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="A117" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="A118" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="A119" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>262</v>
-      </c>
       <c r="C119" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>263</v>
+        <v>195</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="A120" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="A121" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="A122" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="A123" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="A124" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="A125" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="A126" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>156</v>
+        <v>274</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="A127" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="A128" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="A129" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>279</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="130" ht="15" customHeight="1">
-      <c r="A130" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D130"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D129"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/notes.xlsx
+++ b/notes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="437">
   <si>
     <t>Page</t>
   </si>
@@ -52,249 +52,252 @@
     <t>Actioning Tasks</t>
   </si>
   <si>
+    <t>https://www.andrewme89.github.io/HGCM_Learning/Tasks.html</t>
+  </si>
+  <si>
+    <t>addresspend.html</t>
+  </si>
+  <si>
+    <t>Address Pending Arrivals</t>
+  </si>
+  <si>
+    <t>https://www.andrewme89.github.io/HGCM_Learning/addresspend.html</t>
+  </si>
+  <si>
+    <t>emails.html</t>
+  </si>
+  <si>
+    <t>Addressing Emails</t>
+  </si>
+  <si>
+    <t>https://www.andrewme89.github.io/HGCM_Learning/emails.html</t>
+  </si>
+  <si>
+    <t>alarm.html</t>
+  </si>
+  <si>
+    <t>Alarm System Procedure</t>
+  </si>
+  <si>
+    <t>https://www.andrewme89.github.io/HGCM_Learning/alarm.html</t>
+  </si>
+  <si>
+    <t>General.html</t>
+  </si>
+  <si>
+    <t>All SOPs</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>More to be added</t>
+  </si>
+  <si>
+    <t>https://www.andrewme89.github.io/HGCM_Learning/General.html</t>
+  </si>
+  <si>
+    <t>allocating.html</t>
+  </si>
+  <si>
+    <t>Allocating Rooms</t>
+  </si>
+  <si>
+    <t>https://www.andrewme89.github.io/HGCM_Learning/allocating.html</t>
+  </si>
+  <si>
+    <t>ArrDepRM.html</t>
+  </si>
+  <si>
+    <t>Arrivals, Departures &amp; Room Moves</t>
+  </si>
+  <si>
+    <t>https://www.andrewme89.github.io/HGCM_Learning/ArrDepRM.html</t>
+  </si>
+  <si>
+    <t>ArrRegCard.html</t>
+  </si>
+  <si>
+    <t>Arriving Reg Cards</t>
+  </si>
+  <si>
+    <t>https://www.andrewme89.github.io/HGCM_Learning/ArrRegCard.html</t>
+  </si>
+  <si>
+    <t>B2B.html</t>
+  </si>
+  <si>
+    <t>Back To Back Bookings</t>
+  </si>
+  <si>
+    <t>***Can&amp;apos;t update due to iHMS not being complete*** Need updated instructions as well as images</t>
+  </si>
+  <si>
+    <t>https://www.andrewme89.github.io/HGCM_Learning/B2B.html</t>
+  </si>
+  <si>
+    <t>ShiftBalance.html</t>
+  </si>
+  <si>
+    <t>Balancing Your Shift</t>
+  </si>
+  <si>
+    <t>https://www.andrewme89.github.io/HGCM_Learning/ShiftBalance.html</t>
+  </si>
+  <si>
+    <t>BinChecks.html</t>
+  </si>
+  <si>
+    <t>Bin Checks</t>
+  </si>
+  <si>
+    <t>https://www.andrewme89.github.io/HGCM_Learning/BinChecks.html</t>
+  </si>
+  <si>
+    <t>boiler.html</t>
+  </si>
+  <si>
+    <t>Boiler Start Up Procedure</t>
+  </si>
+  <si>
+    <t>https://www.andrewme89.github.io/HGCM_Learning/boiler.html</t>
+  </si>
+  <si>
+    <t>Bond.html</t>
+  </si>
+  <si>
+    <t>Bonds &amp; Pre-Authorisations</t>
+  </si>
+  <si>
+    <t>https://www.andrewme89.github.io/HGCM_Learning/Bond.html</t>
+  </si>
+  <si>
+    <t>resconf.html</t>
+  </si>
+  <si>
+    <t>Booking Confirmations</t>
+  </si>
+  <si>
+    <t>https://www.andrewme89.github.io/HGCM_Learning/resconf.html</t>
+  </si>
+  <si>
+    <t>bumped_walked.html</t>
+  </si>
+  <si>
+    <t>Bumped / Walked Guests</t>
+  </si>
+  <si>
+    <t>https://www.andrewme89.github.io/HGCM_Learning/bumped_walked.html</t>
+  </si>
+  <si>
+    <t>resbtp.html</t>
+  </si>
+  <si>
+    <t>Business Travel Program</t>
+  </si>
+  <si>
+    <t>https://www.andrewme89.github.io/HGCM_Learning/resbtp.html</t>
+  </si>
+  <si>
+    <t>cxlres.html</t>
+  </si>
+  <si>
+    <t>Cancelling A Reservation</t>
+  </si>
+  <si>
+    <t>https://www.andrewme89.github.io/HGCM_Learning/cxlres.html</t>
+  </si>
+  <si>
+    <t>CashGuestList.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cash Guest Listing </t>
+  </si>
+  <si>
+    <t>https://www.andrewme89.github.io/HGCM_Learning/CashGuestList.html</t>
+  </si>
+  <si>
+    <t>rescbauth.html</t>
+  </si>
+  <si>
+    <t>Chargeback Authorisation</t>
+  </si>
+  <si>
+    <t>https://www.andrewme89.github.io/HGCM_Learning/rescbauth.html</t>
+  </si>
+  <si>
+    <t>CBReport.html</t>
+  </si>
+  <si>
+    <t>Chargeback Reports</t>
+  </si>
+  <si>
+    <t>https://www.andrewme89.github.io/HGCM_Learning/CBReport.html</t>
+  </si>
+  <si>
+    <t>Chargebacks.html</t>
+  </si>
+  <si>
+    <t>Chargebacks</t>
+  </si>
+  <si>
+    <t>Need DBill images from iHMS (no DBILL option in payment)</t>
+  </si>
+  <si>
+    <t>https://www.andrewme89.github.io/HGCM_Learning/Chargebacks.html</t>
+  </si>
+  <si>
+    <t>Check-in.html</t>
+  </si>
+  <si>
+    <t>Check In Procedure</t>
+  </si>
+  <si>
+    <t>Need reg card image</t>
+  </si>
+  <si>
+    <t>https://www.andrewme89.github.io/HGCM_Learning/Check-in.html</t>
+  </si>
+  <si>
+    <t>Check-out.html</t>
+  </si>
+  <si>
+    <t>Check Out Procedure</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>https://www.andrewme89.github.io/HGCM_Learning/Tasks.html</t>
-  </si>
-  <si>
-    <t>addresspend.html</t>
-  </si>
-  <si>
-    <t>Address Pending Arrivals</t>
-  </si>
-  <si>
-    <t>https://www.andrewme89.github.io/HGCM_Learning/addresspend.html</t>
-  </si>
-  <si>
-    <t>emails.html</t>
-  </si>
-  <si>
-    <t>Addressing Emails</t>
-  </si>
-  <si>
-    <t>https://www.andrewme89.github.io/HGCM_Learning/emails.html</t>
-  </si>
-  <si>
-    <t>alarm.html</t>
-  </si>
-  <si>
-    <t>Alarm System Procedure</t>
-  </si>
-  <si>
-    <t>https://www.andrewme89.github.io/HGCM_Learning/alarm.html</t>
-  </si>
-  <si>
-    <t>General.html</t>
-  </si>
-  <si>
-    <t>All SOPs</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>More to be added</t>
-  </si>
-  <si>
-    <t>https://www.andrewme89.github.io/HGCM_Learning/General.html</t>
-  </si>
-  <si>
-    <t>allocating.html</t>
-  </si>
-  <si>
-    <t>Allocating Rooms</t>
-  </si>
-  <si>
-    <t>https://www.andrewme89.github.io/HGCM_Learning/allocating.html</t>
-  </si>
-  <si>
-    <t>ArrDepRM.html</t>
-  </si>
-  <si>
-    <t>Arrivals, Departures &amp; Room Moves</t>
-  </si>
-  <si>
-    <t>https://www.andrewme89.github.io/HGCM_Learning/ArrDepRM.html</t>
-  </si>
-  <si>
-    <t>ArrRegCard.html</t>
-  </si>
-  <si>
-    <t>Arriving Reg Cards</t>
-  </si>
-  <si>
-    <t>https://www.andrewme89.github.io/HGCM_Learning/ArrRegCard.html</t>
-  </si>
-  <si>
-    <t>B2B.html</t>
-  </si>
-  <si>
-    <t>Back To Back Bookings</t>
-  </si>
-  <si>
-    <t>***Can&amp;apos;t update due to iHMS not being complete*** Need updated instructions as well as images</t>
-  </si>
-  <si>
-    <t>https://www.andrewme89.github.io/HGCM_Learning/B2B.html</t>
-  </si>
-  <si>
-    <t>ShiftBalance.html</t>
-  </si>
-  <si>
-    <t>Balancing Your Shift</t>
-  </si>
-  <si>
-    <t>https://www.andrewme89.github.io/HGCM_Learning/ShiftBalance.html</t>
-  </si>
-  <si>
-    <t>BinChecks.html</t>
-  </si>
-  <si>
-    <t>Bin Checks</t>
-  </si>
-  <si>
-    <t>https://www.andrewme89.github.io/HGCM_Learning/BinChecks.html</t>
-  </si>
-  <si>
-    <t>boiler.html</t>
-  </si>
-  <si>
-    <t>Boiler Start Up Procedure</t>
-  </si>
-  <si>
-    <t>https://www.andrewme89.github.io/HGCM_Learning/boiler.html</t>
-  </si>
-  <si>
-    <t>Bond.html</t>
-  </si>
-  <si>
-    <t>Bonds &amp; Pre-Authorisations</t>
-  </si>
-  <si>
-    <t>https://www.andrewme89.github.io/HGCM_Learning/Bond.html</t>
-  </si>
-  <si>
-    <t>resconf.html</t>
-  </si>
-  <si>
-    <t>Booking Confirmations</t>
-  </si>
-  <si>
-    <t>https://www.andrewme89.github.io/HGCM_Learning/resconf.html</t>
-  </si>
-  <si>
-    <t>bumped_walked.html</t>
-  </si>
-  <si>
-    <t>Bumped / Walked Guests</t>
-  </si>
-  <si>
-    <t>https://www.andrewme89.github.io/HGCM_Learning/bumped_walked.html</t>
-  </si>
-  <si>
-    <t>resbtp.html</t>
-  </si>
-  <si>
-    <t>Business Travel Program</t>
-  </si>
-  <si>
-    <t>https://www.andrewme89.github.io/HGCM_Learning/resbtp.html</t>
-  </si>
-  <si>
-    <t>cxlres.html</t>
-  </si>
-  <si>
-    <t>Cancelling A Reservation</t>
-  </si>
-  <si>
-    <t>https://www.andrewme89.github.io/HGCM_Learning/cxlres.html</t>
-  </si>
-  <si>
-    <t>CashGuestList.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cash Guest Listing </t>
-  </si>
-  <si>
-    <t>https://www.andrewme89.github.io/HGCM_Learning/CashGuestList.html</t>
-  </si>
-  <si>
-    <t>rescbauth.html</t>
-  </si>
-  <si>
-    <t>Chargeback Authorisation</t>
-  </si>
-  <si>
-    <t>https://www.andrewme89.github.io/HGCM_Learning/rescbauth.html</t>
-  </si>
-  <si>
-    <t>CBReport.html</t>
-  </si>
-  <si>
-    <t>Chargeback Reports</t>
-  </si>
-  <si>
-    <t>https://www.andrewme89.github.io/HGCM_Learning/CBReport.html</t>
-  </si>
-  <si>
-    <t>Chargebacks.html</t>
-  </si>
-  <si>
-    <t>Chargebacks</t>
-  </si>
-  <si>
-    <t>Need DBill images from iHMS (no DBILL option in payment</t>
-  </si>
-  <si>
-    <t>https://www.andrewme89.github.io/HGCM_Learning/Chargebacks.html</t>
-  </si>
-  <si>
-    <t>Check-in.html</t>
-  </si>
-  <si>
-    <t>Check In Procedure</t>
+    <t>https://www.andrewme89.github.io/HGCM_Learning/Check-out.html</t>
+  </si>
+  <si>
+    <t>checkpend.html</t>
+  </si>
+  <si>
+    <t>Check Pending Arrivals</t>
+  </si>
+  <si>
+    <t>https://www.andrewme89.github.io/HGCM_Learning/checkpend.html</t>
+  </si>
+  <si>
+    <t>dutylog.html</t>
+  </si>
+  <si>
+    <t>Checking &amp; Actioning The Duty Log</t>
+  </si>
+  <si>
+    <t>https://www.andrewme89.github.io/HGCM_Learning/dutylog.html</t>
+  </si>
+  <si>
+    <t>CorpRates.html</t>
+  </si>
+  <si>
+    <t>Checking Corporate Rates</t>
   </si>
   <si>
     <t>Need images</t>
   </si>
   <si>
-    <t>https://www.andrewme89.github.io/HGCM_Learning/Check-in.html</t>
-  </si>
-  <si>
-    <t>Check-out.html</t>
-  </si>
-  <si>
-    <t>Check Out Procedure</t>
-  </si>
-  <si>
-    <t>https://www.andrewme89.github.io/HGCM_Learning/Check-out.html</t>
-  </si>
-  <si>
-    <t>checkpend.html</t>
-  </si>
-  <si>
-    <t>Check Pending Arrivals</t>
-  </si>
-  <si>
-    <t>https://www.andrewme89.github.io/HGCM_Learning/checkpend.html</t>
-  </si>
-  <si>
-    <t>dutylog.html</t>
-  </si>
-  <si>
-    <t>Checking &amp; Actioning The Duty Log</t>
-  </si>
-  <si>
-    <t>https://www.andrewme89.github.io/HGCM_Learning/dutylog.html</t>
-  </si>
-  <si>
-    <t>CorpRates.html</t>
-  </si>
-  <si>
-    <t>Checking Corporate Rates</t>
-  </si>
-  <si>
     <t>https://www.andrewme89.github.io/HGCM_Learning/CorpRates.html</t>
   </si>
   <si>
@@ -644,6 +647,9 @@
   </si>
   <si>
     <t>iHMS Walkthrough</t>
+  </si>
+  <si>
+    <t>WORKING</t>
   </si>
   <si>
     <t>***working***</t>
@@ -1326,7 +1332,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1344,6 +1350,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1375,7 +1387,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1386,13 +1398,16 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -1709,15 +1724,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="22.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="57.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="8.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="83.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="63.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="138.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="8" width="22.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="57.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="10.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="83.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="63.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="8" width="138.86214285714286" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1737,7 +1752,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1755,7 +1770,7 @@
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A2, """&gt;", B2, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -1765,61 +1780,59 @@
       <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="F3" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A3, """&gt;", B3, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="4"/>
       <c r="E4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A4, """&gt;", B4, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A5, """&gt;", B5, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="4"/>
       <c r="E6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A6, """&gt;", B6, "&lt;/a&gt;&lt;/p&gt;")</f>
@@ -1827,69 +1840,69 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="C7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75" hidden="1">
-      <c r="A8" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="4"/>
       <c r="E8" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A8, """&gt;", B8, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F9" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A9, """&gt;", B9, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F10" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A10, """&gt;", B10, "&lt;/a&gt;&lt;/p&gt;")</f>
@@ -1897,205 +1910,195 @@
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="69">
       <c r="A11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="F11" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A11, """&gt;", B11, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F12" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A12, """&gt;", B12, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="F13" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A13, """&gt;", B13, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="4"/>
       <c r="E14" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F14" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A14, """&gt;", B14, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="F15" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A15, """&gt;", B15, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F16" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A16, """&gt;", B16, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="4"/>
       <c r="E17" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F17" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A17, """&gt;", B17, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F18" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A18, """&gt;", B18, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="F19" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A19, """&gt;", B19, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="F20" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A20, """&gt;", B20, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="F21" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A21, """&gt;", B21, "&lt;/a&gt;&lt;/p&gt;")</f>
@@ -2103,19 +2106,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="65.25">
       <c r="A22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="F22" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A22, """&gt;", B22, "&lt;/a&gt;&lt;/p&gt;")</f>
@@ -2123,19 +2124,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="65.25">
       <c r="A23" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="F23" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A23, """&gt;", B23, "&lt;/a&gt;&lt;/p&gt;")</f>
@@ -2143,19 +2144,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="65.25">
       <c r="A24" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="F24" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A24, """&gt;", B24, "&lt;/a&gt;&lt;/p&gt;")</f>
@@ -2163,16 +2164,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="65.25">
       <c r="A25" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>83</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>84</v>
@@ -2181,15 +2182,19 @@
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A25, """&gt;", B25, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="4"/>
+      <c r="C26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>83</v>
+      </c>
       <c r="E26" s="2" t="s">
         <v>87</v>
       </c>
@@ -2197,7 +2202,7 @@
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A26, """&gt;", B26, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="2" t="s">
         <v>88</v>
       </c>
@@ -2223,13 +2228,13 @@
         <v>92</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F28" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A28, """&gt;", B28, "&lt;/a&gt;&lt;/p&gt;")</f>
@@ -2237,19 +2242,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="65.25">
       <c r="A29" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F29" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A29, """&gt;", B29, "&lt;/a&gt;&lt;/p&gt;")</f>
@@ -2257,19 +2262,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="65.25">
       <c r="A30" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F30" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A30, """&gt;", B30, "&lt;/a&gt;&lt;/p&gt;")</f>
@@ -2277,35 +2282,35 @@
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="65.25">
       <c r="A31" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F31" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A31, """&gt;", B31, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="4"/>
       <c r="E32" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F32" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A32, """&gt;", B32, "&lt;/a&gt;&lt;/p&gt;")</f>
@@ -2313,73 +2318,73 @@
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="65.25">
       <c r="A33" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F33" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A33, """&gt;", B33, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F34" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A34, """&gt;", B34, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F35" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A35, """&gt;", B35, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F36" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A36, """&gt;", B36, "&lt;/a&gt;&lt;/p&gt;")</f>
@@ -2387,37 +2392,37 @@
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F37" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A37, """&gt;", B37, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F38" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A38, """&gt;", B38, "&lt;/a&gt;&lt;/p&gt;")</f>
@@ -2425,19 +2430,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F39" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A39, """&gt;", B39, "&lt;/a&gt;&lt;/p&gt;")</f>
@@ -2445,19 +2450,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F40" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A40, """&gt;", B40, "&lt;/a&gt;&lt;/p&gt;")</f>
@@ -2465,57 +2470,57 @@
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F41" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A41, """&gt;", B41, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F42" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A42, """&gt;", B42, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F43" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A43, """&gt;", B43, "&lt;/a&gt;&lt;/p&gt;")</f>
@@ -2523,791 +2528,791 @@
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F44" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A44, """&gt;", B44, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F45" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A45, """&gt;", B45, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="69">
       <c r="A46" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F46" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A46, """&gt;", B46, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="69">
       <c r="A47" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F47" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A47, """&gt;", B47, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="69">
       <c r="A48" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F48" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A48, """&gt;", B48, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="69">
       <c r="A49" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F49" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A49, """&gt;", B49, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="69">
       <c r="A50" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F50" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A50, """&gt;", B50, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="69">
       <c r="A51" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F51" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A51, """&gt;", B51, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="69">
       <c r="A52" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F52" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A52, """&gt;", B52, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="69">
       <c r="A53" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="4"/>
       <c r="E53" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F53" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A53, """&gt;", B53, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="69">
       <c r="A54" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F54" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A54, """&gt;", B54, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="69">
       <c r="A55" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F55" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A55, """&gt;", B55, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="69">
       <c r="A56" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F56" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A56, """&gt;", B56, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="69">
       <c r="A57" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F57" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A57, """&gt;", B57, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="69">
       <c r="A58" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F58" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A58, """&gt;", B58, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5">
       <c r="A59" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F59" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="69">
       <c r="A60" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F60" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A60, """&gt;", B60, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="19.5">
       <c r="A61" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F61" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="69">
       <c r="A62" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F62" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A62, """&gt;", B62, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="69">
       <c r="A63" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="4"/>
       <c r="E63" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F63" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A63, """&gt;", B63, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="69">
       <c r="A64" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F64" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A64, """&gt;", B64, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="69">
       <c r="A65" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>25</v>
+        <v>211</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F65" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A65, """&gt;", B65, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="69">
       <c r="A66" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F66" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A66, """&gt;", B66, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="69">
       <c r="A67" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F67" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A67, """&gt;", B67, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="69">
       <c r="A68" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F68" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A68, """&gt;", B68, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="69">
       <c r="A69" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F69" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A69, """&gt;", B69, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="69">
       <c r="A70" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F70" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A70, """&gt;", B70, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="69">
       <c r="A71" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F71" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A71, """&gt;", B71, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="69">
       <c r="A72" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="4"/>
       <c r="E72" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F72" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A72, """&gt;", B72, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="69">
       <c r="A73" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F73" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A73, """&gt;", B73, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="69">
       <c r="A74" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F74" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A74, """&gt;", B74, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="69">
       <c r="A75" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F75" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A75, """&gt;", B75, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="69">
       <c r="A76" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F76" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A76, """&gt;", B76, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="69">
       <c r="A77" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D77" s="4"/>
       <c r="E77" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F77" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A77, """&gt;", B77, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="69">
       <c r="A78" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F78" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A78, """&gt;", B78, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="69">
       <c r="A79" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F79" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A79, """&gt;", B79, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="69">
       <c r="A80" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="4"/>
       <c r="E80" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F80" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A80, """&gt;", B80, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
       <c r="A81" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D81" s="4"/>
       <c r="E81" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F81" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
       <c r="A82" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F82" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
       <c r="A83" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F83" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A83, """&gt;", B83, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
       <c r="A84" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D84" s="4"/>
       <c r="E84" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F84" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A84, """&gt;", B84, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
       <c r="A85" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D85" s="4"/>
       <c r="E85" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F85" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A85, """&gt;", B85, "&lt;/a&gt;&lt;/p&gt;")</f>
@@ -3315,19 +3320,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
       <c r="A86" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F86" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A86, """&gt;", B86, "&lt;/a&gt;&lt;/p&gt;")</f>
@@ -3335,65 +3340,65 @@
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
       <c r="A87" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F87" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A87, """&gt;", B87, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
       <c r="A88" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C88" s="3"/>
       <c r="D88" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
       <c r="A89" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="4"/>
       <c r="E89" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F89" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A89, """&gt;", B89, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
       <c r="A90" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="4"/>
       <c r="E90" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F90" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A90, """&gt;", B90, "&lt;/a&gt;&lt;/p&gt;")</f>
@@ -3401,19 +3406,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
       <c r="A91" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F91" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A91, """&gt;", B91, "&lt;/a&gt;&lt;/p&gt;")</f>
@@ -3421,19 +3426,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
       <c r="A92" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F92" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A92, """&gt;", B92, "&lt;/a&gt;&lt;/p&gt;")</f>
@@ -3441,19 +3446,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
       <c r="A93" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F93" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A93, """&gt;", B93, "&lt;/a&gt;&lt;/p&gt;")</f>
@@ -3461,19 +3466,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
       <c r="A94" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F94" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A94, """&gt;", B94, "&lt;/a&gt;&lt;/p&gt;")</f>
@@ -3481,37 +3486,37 @@
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
       <c r="A95" s="2" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F95" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A95, """&gt;", B95, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
       <c r="A96" s="2" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D96" s="4"/>
       <c r="E96" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F96" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A96, """&gt;", B96, "&lt;/a&gt;&lt;/p&gt;")</f>
@@ -3519,19 +3524,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
       <c r="A97" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F97" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A97, """&gt;", B97, "&lt;/a&gt;&lt;/p&gt;")</f>
@@ -3539,19 +3544,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
       <c r="A98" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F98" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A98, """&gt;", B98, "&lt;/a&gt;&lt;/p&gt;")</f>
@@ -3559,19 +3564,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
       <c r="A99" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F99" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A99, """&gt;", B99, "&lt;/a&gt;&lt;/p&gt;")</f>
@@ -3579,109 +3584,109 @@
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
       <c r="A100" s="2" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F100" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A100, """&gt;", B100, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
       <c r="A101" s="2" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F101" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A101, """&gt;", B101, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
       <c r="A102" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D102" s="4"/>
       <c r="E102" s="2" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="F102" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A102, """&gt;", B102, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
       <c r="A103" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D103" s="4"/>
       <c r="E103" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F103" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
       <c r="A104" s="2" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D104" s="4"/>
       <c r="E104" s="2" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F104" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
       <c r="A105" s="2" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F105" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A105, """&gt;", B105, "&lt;/a&gt;&lt;/p&gt;")</f>
@@ -3689,75 +3694,75 @@
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
       <c r="A106" s="2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="F106" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A106, """&gt;", B106, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
       <c r="A107" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F107" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A107, """&gt;", B107, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
       <c r="A108" s="2" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D108" s="4"/>
       <c r="E108" s="2" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="F108" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A108, """&gt;", B108, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
       <c r="A109" s="2" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D109" s="4"/>
       <c r="E109" s="2" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F109" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A109, """&gt;", B109, "&lt;/a&gt;&lt;/p&gt;")</f>
@@ -3765,19 +3770,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
       <c r="A110" s="2" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F110" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A110, """&gt;", B110, "&lt;/a&gt;&lt;/p&gt;")</f>
@@ -3785,19 +3790,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
       <c r="A111" s="2" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F111" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A111, """&gt;", B111, "&lt;/a&gt;&lt;/p&gt;")</f>
@@ -3805,37 +3810,37 @@
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
       <c r="A112" s="2" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F112" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A112, """&gt;", B112, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
       <c r="A113" s="2" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D113" s="4"/>
       <c r="E113" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F113" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A113, """&gt;", B113, "&lt;/a&gt;&lt;/p&gt;")</f>
@@ -3843,37 +3848,37 @@
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
       <c r="A114" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F114" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A114, """&gt;", B114, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
       <c r="A115" s="2" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D115" s="4"/>
       <c r="E115" s="2" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="F115" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A115, """&gt;", B115, "&lt;/a&gt;&lt;/p&gt;")</f>
@@ -3881,19 +3886,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
       <c r="A116" s="2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F116" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A116, """&gt;", B116, "&lt;/a&gt;&lt;/p&gt;")</f>
@@ -3901,19 +3906,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
       <c r="A117" s="2" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F117" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A117, """&gt;", B117, "&lt;/a&gt;&lt;/p&gt;")</f>
@@ -3921,19 +3926,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
       <c r="A118" s="2" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F118" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A118, """&gt;", B118, "&lt;/a&gt;&lt;/p&gt;")</f>
@@ -3941,55 +3946,55 @@
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
       <c r="A119" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F119" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A119, """&gt;", B119, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
       <c r="A120" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D120" s="4"/>
       <c r="E120" s="2" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="F120" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A120, """&gt;", B120, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
       <c r="A121" s="2" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D121" s="4"/>
       <c r="E121" s="2" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="F121" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A121, """&gt;", B121, "&lt;/a&gt;&lt;/p&gt;")</f>
@@ -3997,37 +4002,37 @@
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
       <c r="A122" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="F122" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A122, """&gt;", B122, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
       <c r="A123" s="2" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D123" s="4"/>
       <c r="E123" s="2" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F123" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A123, """&gt;", B123, "&lt;/a&gt;&lt;/p&gt;")</f>
@@ -4035,19 +4040,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
       <c r="A124" s="2" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="F124" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A124, """&gt;", B124, "&lt;/a&gt;&lt;/p&gt;")</f>
@@ -4055,19 +4060,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
       <c r="A125" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="F125" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A125, """&gt;", B125, "&lt;/a&gt;&lt;/p&gt;")</f>
@@ -4075,105 +4080,105 @@
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
       <c r="A126" s="2" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F126" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A126, """&gt;", B126, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
       <c r="A127" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" s="4"/>
       <c r="E127" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="F127" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A127, """&gt;", B127, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
       <c r="A128" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D128" s="4"/>
       <c r="E128" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="F128" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A128, """&gt;", B128, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
       <c r="A129" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D129" s="4"/>
       <c r="E129" s="2" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="F129" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A129, """&gt;", B129, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
       <c r="A130" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D130" s="4"/>
       <c r="E130" s="2" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F130" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A130, """&gt;", B130, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
       <c r="A131" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" s="4"/>
       <c r="E131" s="2" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="F131" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A131, """&gt;", B131, "&lt;/a&gt;&lt;/p&gt;")</f>
@@ -4181,19 +4186,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
       <c r="A132" s="2" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="F132" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A132, """&gt;", B132, "&lt;/a&gt;&lt;/p&gt;")</f>
@@ -4201,37 +4206,37 @@
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
       <c r="A133" s="2" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="F133" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A133, """&gt;", B133, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
       <c r="A134" s="2" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D134" s="4"/>
       <c r="E134" s="2" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F134" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A134, """&gt;", B134, "&lt;/a&gt;&lt;/p&gt;")</f>
@@ -4239,19 +4244,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
       <c r="A135" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="F135" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A135, """&gt;", B135, "&lt;/a&gt;&lt;/p&gt;")</f>
@@ -4259,39 +4264,39 @@
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
       <c r="A136" s="2" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="F136" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A136, """&gt;", B136, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75" hidden="1">
+    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
       <c r="A137" s="2" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="F137" s="5">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A137, """&gt;", B137, "&lt;/a&gt;&lt;/p&gt;")</f>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="437">
   <si>
     <t>Page</t>
   </si>
@@ -265,147 +265,144 @@
     <t>Check Out Procedure</t>
   </si>
   <si>
+    <t>https://www.andrewme89.github.io/HGCM_Learning/Check-out.html</t>
+  </si>
+  <si>
+    <t>checkpend.html</t>
+  </si>
+  <si>
+    <t>Check Pending Arrivals</t>
+  </si>
+  <si>
+    <t>https://www.andrewme89.github.io/HGCM_Learning/checkpend.html</t>
+  </si>
+  <si>
+    <t>dutylog.html</t>
+  </si>
+  <si>
+    <t>Checking &amp; Actioning The Duty Log</t>
+  </si>
+  <si>
+    <t>https://www.andrewme89.github.io/HGCM_Learning/dutylog.html</t>
+  </si>
+  <si>
+    <t>CorpRates.html</t>
+  </si>
+  <si>
+    <t>Checking Corporate Rates</t>
+  </si>
+  <si>
+    <t>Need images</t>
+  </si>
+  <si>
+    <t>https://www.andrewme89.github.io/HGCM_Learning/CorpRates.html</t>
+  </si>
+  <si>
+    <t>CheckB2B.html</t>
+  </si>
+  <si>
+    <t>Checking For Back To Back (B2B) Bookings</t>
+  </si>
+  <si>
+    <t>https://www.andrewme89.github.io/HGCM_Learning/CheckB2B.html</t>
+  </si>
+  <si>
+    <t>checkroomready.html</t>
+  </si>
+  <si>
+    <t>Checking Rooms Ready By 2 PM</t>
+  </si>
+  <si>
+    <t>Need to write content</t>
+  </si>
+  <si>
+    <t>https://www.andrewme89.github.io/HGCM_Learning/checkroomready.html</t>
+  </si>
+  <si>
+    <t>RoomStatus.html</t>
+  </si>
+  <si>
+    <t>Checking The Status Of A Room</t>
+  </si>
+  <si>
+    <t>https://www.andrewme89.github.io/HGCM_Learning/RoomStatus.html</t>
+  </si>
+  <si>
+    <t>chiller.html</t>
+  </si>
+  <si>
+    <t>Chiller Procedure</t>
+  </si>
+  <si>
+    <t>https://www.andrewme89.github.io/HGCM_Learning/chiller.html</t>
+  </si>
+  <si>
+    <t>DepartedRegCard.html</t>
+  </si>
+  <si>
+    <t>Collect All Departed Reg Cards</t>
+  </si>
+  <si>
+    <t>https://www.andrewme89.github.io/HGCM_Learning/DepartedRegCard.html</t>
+  </si>
+  <si>
+    <t>commis.html</t>
+  </si>
+  <si>
+    <t>Commissions (Res)</t>
+  </si>
+  <si>
+    <t>https://www.andrewme89.github.io/HGCM_Learning/commis.html</t>
+  </si>
+  <si>
+    <t>compprofile.html</t>
+  </si>
+  <si>
+    <t>Company Profiles (Res)</t>
+  </si>
+  <si>
+    <t>https://www.andrewme89.github.io/HGCM_Learning/compprofile.html</t>
+  </si>
+  <si>
+    <t>checkingcheckouts.html</t>
+  </si>
+  <si>
+    <t>Confirming Departing Rooms Have Checked Out</t>
+  </si>
+  <si>
+    <t>https://www.andrewme89.github.io/HGCM_Learning/checkingcheckouts.html</t>
+  </si>
+  <si>
+    <t>ContractorContacts.html</t>
+  </si>
+  <si>
+    <t>Contractor Contact Details</t>
+  </si>
+  <si>
+    <t>Get contractor details for table</t>
+  </si>
+  <si>
+    <t>https://www.andrewme89.github.io/HGCM_Learning/ContractorContacts.html</t>
+  </si>
+  <si>
+    <t>contractor.html</t>
+  </si>
+  <si>
+    <t>Contractor Sign In Procedure</t>
+  </si>
+  <si>
+    <t>https://www.andrewme89.github.io/HGCM_Learning/contractor.html</t>
+  </si>
+  <si>
+    <t>Tills.html</t>
+  </si>
+  <si>
+    <t>Counting Your Till</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>https://www.andrewme89.github.io/HGCM_Learning/Check-out.html</t>
-  </si>
-  <si>
-    <t>checkpend.html</t>
-  </si>
-  <si>
-    <t>Check Pending Arrivals</t>
-  </si>
-  <si>
-    <t>https://www.andrewme89.github.io/HGCM_Learning/checkpend.html</t>
-  </si>
-  <si>
-    <t>dutylog.html</t>
-  </si>
-  <si>
-    <t>Checking &amp; Actioning The Duty Log</t>
-  </si>
-  <si>
-    <t>https://www.andrewme89.github.io/HGCM_Learning/dutylog.html</t>
-  </si>
-  <si>
-    <t>CorpRates.html</t>
-  </si>
-  <si>
-    <t>Checking Corporate Rates</t>
-  </si>
-  <si>
-    <t>Need images</t>
-  </si>
-  <si>
-    <t>https://www.andrewme89.github.io/HGCM_Learning/CorpRates.html</t>
-  </si>
-  <si>
-    <t>CheckB2B.html</t>
-  </si>
-  <si>
-    <t>Checking For Back To Back (B2B) Bookings</t>
-  </si>
-  <si>
-    <t>https://www.andrewme89.github.io/HGCM_Learning/CheckB2B.html</t>
-  </si>
-  <si>
-    <t>checkroomready.html</t>
-  </si>
-  <si>
-    <t>Checking Rooms Ready By 2 PM</t>
-  </si>
-  <si>
-    <t>Need to write content</t>
-  </si>
-  <si>
-    <t>https://www.andrewme89.github.io/HGCM_Learning/checkroomready.html</t>
-  </si>
-  <si>
-    <t>RoomStatus.html</t>
-  </si>
-  <si>
-    <t>Checking The Status Of A Room</t>
-  </si>
-  <si>
-    <t>https://www.andrewme89.github.io/HGCM_Learning/RoomStatus.html</t>
-  </si>
-  <si>
-    <t>chiller.html</t>
-  </si>
-  <si>
-    <t>Chiller Procedure</t>
-  </si>
-  <si>
-    <t>https://www.andrewme89.github.io/HGCM_Learning/chiller.html</t>
-  </si>
-  <si>
-    <t>DepartedRegCard.html</t>
-  </si>
-  <si>
-    <t>Collect All Departed Reg Cards</t>
-  </si>
-  <si>
-    <t>https://www.andrewme89.github.io/HGCM_Learning/DepartedRegCard.html</t>
-  </si>
-  <si>
-    <t>commis.html</t>
-  </si>
-  <si>
-    <t>Commissions (Res)</t>
-  </si>
-  <si>
-    <t>https://www.andrewme89.github.io/HGCM_Learning/commis.html</t>
-  </si>
-  <si>
-    <t>compprofile.html</t>
-  </si>
-  <si>
-    <t>Company Profiles (Res)</t>
-  </si>
-  <si>
-    <t>https://www.andrewme89.github.io/HGCM_Learning/compprofile.html</t>
-  </si>
-  <si>
-    <t>checkingcheckouts.html</t>
-  </si>
-  <si>
-    <t>Confirming Departing Rooms Have Checked Out</t>
-  </si>
-  <si>
-    <t>https://www.andrewme89.github.io/HGCM_Learning/checkingcheckouts.html</t>
-  </si>
-  <si>
-    <t>ContractorContacts.html</t>
-  </si>
-  <si>
-    <t>Contractor Contact Details</t>
-  </si>
-  <si>
-    <t>Get contractor details for table</t>
-  </si>
-  <si>
-    <t>https://www.andrewme89.github.io/HGCM_Learning/ContractorContacts.html</t>
-  </si>
-  <si>
-    <t>contractor.html</t>
-  </si>
-  <si>
-    <t>Contractor Sign In Procedure</t>
-  </si>
-  <si>
-    <t>https://www.andrewme89.github.io/HGCM_Learning/contractor.html</t>
-  </si>
-  <si>
-    <t>Tills.html</t>
-  </si>
-  <si>
-    <t>Counting Your Till</t>
-  </si>
-  <si>
-    <t>Formatting</t>
-  </si>
-  <si>
     <t>https://www.andrewme89.github.io/HGCM_Learning/Tills.html</t>
   </si>
   <si>
@@ -413,6 +410,9 @@
   </si>
   <si>
     <t>Creating A Reservation (Res)</t>
+  </si>
+  <si>
+    <t>***WORKING***</t>
   </si>
   <si>
     <t>https://www.andrewme89.github.io/HGCM_Learning/CreateRes.html</t>
@@ -1332,7 +1332,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1350,12 +1350,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1387,7 +1381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1398,16 +1392,10 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -1724,15 +1712,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="22.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="57.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="10.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="83.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="63.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="138.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="22.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="57.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="10.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="83.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="63.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="138.86214285714286" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1752,7 +1740,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="69">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1762,15 +1750,15 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A2, """&gt;", B2, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="69">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -1784,11 +1772,11 @@
       <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A3, """&gt;", B3, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="69">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -1796,15 +1784,15 @@
         <v>14</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="4"/>
+      <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A4, """&gt;", B4, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="69">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -1814,15 +1802,15 @@
       <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A5, """&gt;", B5, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="69">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -1830,11 +1818,11 @@
         <v>20</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="4"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A6, """&gt;", B6, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -1856,7 +1844,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="69">
       <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
@@ -1864,15 +1852,15 @@
         <v>28</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="4"/>
+      <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A8, """&gt;", B8, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="69">
       <c r="A9" s="2" t="s">
         <v>30</v>
       </c>
@@ -1882,15 +1870,15 @@
       <c r="C9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A9, """&gt;", B9, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="69">
       <c r="A10" s="2" t="s">
         <v>33</v>
       </c>
@@ -1900,11 +1888,11 @@
       <c r="C10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A10, """&gt;", B10, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -1924,11 +1912,11 @@
       <c r="E11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A11, """&gt;", B11, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="69">
       <c r="A12" s="2" t="s">
         <v>40</v>
       </c>
@@ -1938,15 +1926,15 @@
       <c r="C12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A12, """&gt;", B12, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="69">
       <c r="A13" s="2" t="s">
         <v>43</v>
       </c>
@@ -1960,11 +1948,11 @@
       <c r="E13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A13, """&gt;", B13, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="69">
       <c r="A14" s="2" t="s">
         <v>46</v>
       </c>
@@ -1972,15 +1960,15 @@
         <v>47</v>
       </c>
       <c r="C14" s="2"/>
-      <c r="D14" s="4"/>
+      <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A14, """&gt;", B14, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="69">
       <c r="A15" s="2" t="s">
         <v>49</v>
       </c>
@@ -1994,11 +1982,11 @@
       <c r="E15" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A15, """&gt;", B15, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="69">
       <c r="A16" s="2" t="s">
         <v>52</v>
       </c>
@@ -2008,15 +1996,15 @@
       <c r="C16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="4"/>
+      <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A16, """&gt;", B16, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="69">
       <c r="A17" s="2" t="s">
         <v>55</v>
       </c>
@@ -2024,15 +2012,15 @@
         <v>56</v>
       </c>
       <c r="C17" s="2"/>
-      <c r="D17" s="4"/>
+      <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A17, """&gt;", B17, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="69">
       <c r="A18" s="2" t="s">
         <v>58</v>
       </c>
@@ -2042,15 +2030,15 @@
       <c r="C18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="4"/>
+      <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A18, """&gt;", B18, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="69">
       <c r="A19" s="2" t="s">
         <v>61</v>
       </c>
@@ -2064,11 +2052,11 @@
       <c r="E19" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A19, """&gt;", B19, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="69">
       <c r="A20" s="2" t="s">
         <v>64</v>
       </c>
@@ -2082,11 +2070,11 @@
       <c r="E20" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A20, """&gt;", B20, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="69">
       <c r="A21" s="2" t="s">
         <v>67</v>
       </c>
@@ -2100,11 +2088,11 @@
       <c r="E21" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A21, """&gt;", B21, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="65.25">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="69">
       <c r="A22" s="2" t="s">
         <v>70</v>
       </c>
@@ -2118,11 +2106,11 @@
       <c r="E22" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A22, """&gt;", B22, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="65.25">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="69">
       <c r="A23" s="2" t="s">
         <v>73</v>
       </c>
@@ -2138,11 +2126,11 @@
       <c r="E23" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A23, """&gt;", B23, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="65.25">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="69">
       <c r="A24" s="2" t="s">
         <v>77</v>
       </c>
@@ -2158,7 +2146,7 @@
       <c r="E24" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A24, """&gt;", B24, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -2172,299 +2160,297 @@
       <c r="C25" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="2"/>
+      <c r="E25" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F25" s="5">
+      <c r="F25" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A25, """&gt;", B25, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F26" s="5">
+      <c r="F26" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A26, """&gt;", B26, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F27" s="5">
+      <c r="F27" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A27, """&gt;", B27, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="65.25">
       <c r="A28" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F28" s="5">
+      <c r="F28" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A28, """&gt;", B28, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="65.25">
       <c r="A29" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="C29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F29" s="5">
+      <c r="F29" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A29, """&gt;", B29, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="65.25">
       <c r="A30" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="C30" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F30" s="5">
+      <c r="F30" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A30, """&gt;", B30, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="65.25">
       <c r="A31" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="C31" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F31" s="5">
+      <c r="F31" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A31, """&gt;", B31, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="C32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F32" s="5">
+      <c r="F32" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A32, """&gt;", B32, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="65.25">
       <c r="A33" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="C33" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F33" s="5">
+      <c r="F33" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A33, """&gt;", B33, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="C34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F34" s="5">
+      <c r="F34" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A34, """&gt;", B34, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="C35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F35" s="5">
+      <c r="F35" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A35, """&gt;", B35, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="C36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="4"/>
-      <c r="E36" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F36" s="5">
+      <c r="F36" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A36, """&gt;", B36, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="C37" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D37" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F37" s="5">
+      <c r="F37" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A37, """&gt;", B37, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="C38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" s="4"/>
-      <c r="E38" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F38" s="5">
+      <c r="F38" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A38, """&gt;", B38, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="C39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D39" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F39" s="5">
+      <c r="F39" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A39, """&gt;", B39, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F40" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A40, """&gt;", B40, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -2484,7 +2470,7 @@
       <c r="E41" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F41" s="5">
+      <c r="F41" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A41, """&gt;", B41, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -2498,11 +2484,11 @@
       <c r="C42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="4"/>
+      <c r="D42" s="2"/>
       <c r="E42" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F42" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A42, """&gt;", B42, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -2522,7 +2508,7 @@
       <c r="E43" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="F43" s="5">
+      <c r="F43" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A43, """&gt;", B43, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -2537,12 +2523,12 @@
         <v>24</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="F44" s="5">
+      <c r="F44" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A44, """&gt;", B44, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -2556,11 +2542,11 @@
       <c r="C45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D45" s="4"/>
+      <c r="D45" s="2"/>
       <c r="E45" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="F45" s="5">
+      <c r="F45" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A45, """&gt;", B45, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -2574,11 +2560,11 @@
       <c r="C46" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D46" s="4"/>
+      <c r="D46" s="2"/>
       <c r="E46" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="F46" s="5">
+      <c r="F46" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A46, """&gt;", B46, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -2593,12 +2579,12 @@
         <v>24</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F47" s="5">
+      <c r="F47" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A47, """&gt;", B47, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -2613,12 +2599,12 @@
         <v>24</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="F48" s="5">
+      <c r="F48" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A48, """&gt;", B48, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -2633,12 +2619,12 @@
         <v>24</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F49" s="5">
+      <c r="F49" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A49, """&gt;", B49, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -2652,11 +2638,11 @@
       <c r="C50" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D50" s="4"/>
+      <c r="D50" s="2"/>
       <c r="E50" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F50" s="5">
+      <c r="F50" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A50, """&gt;", B50, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -2671,12 +2657,12 @@
         <v>24</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="F51" s="5">
+      <c r="F51" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A51, """&gt;", B51, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -2690,11 +2676,11 @@
       <c r="C52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D52" s="4"/>
+      <c r="D52" s="2"/>
       <c r="E52" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="F52" s="5">
+      <c r="F52" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A52, """&gt;", B52, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -2706,11 +2692,11 @@
         <v>173</v>
       </c>
       <c r="C53" s="2"/>
-      <c r="D53" s="4"/>
+      <c r="D53" s="2"/>
       <c r="E53" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="F53" s="5">
+      <c r="F53" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A53, """&gt;", B53, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -2725,12 +2711,12 @@
         <v>24</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="F54" s="5">
+      <c r="F54" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A54, """&gt;", B54, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -2745,12 +2731,12 @@
         <v>24</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="F55" s="5">
+      <c r="F55" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A55, """&gt;", B55, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -2765,12 +2751,12 @@
         <v>24</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="F56" s="5">
+      <c r="F56" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A56, """&gt;", B56, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -2785,12 +2771,12 @@
         <v>24</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="F57" s="5">
+      <c r="F57" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A57, """&gt;", B57, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -2805,12 +2791,12 @@
         <v>24</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="F58" s="5">
+      <c r="F58" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A58, """&gt;", B58, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -2824,7 +2810,7 @@
       <c r="C59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D59" s="4"/>
+      <c r="D59" s="2"/>
       <c r="E59" s="2" t="s">
         <v>192</v>
       </c>
@@ -2846,7 +2832,7 @@
       <c r="E60" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="F60" s="5">
+      <c r="F60" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A60, """&gt;", B60, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -2861,7 +2847,7 @@
         <v>24</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>199</v>
@@ -2878,11 +2864,11 @@
       <c r="C62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D62" s="4"/>
+      <c r="D62" s="2"/>
       <c r="E62" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="F62" s="5">
+      <c r="F62" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A62, """&gt;", B62, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -2894,11 +2880,11 @@
         <v>204</v>
       </c>
       <c r="C63" s="2"/>
-      <c r="D63" s="4"/>
+      <c r="D63" s="2"/>
       <c r="E63" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="F63" s="5">
+      <c r="F63" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A63, """&gt;", B63, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -2912,11 +2898,11 @@
       <c r="C64" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D64" s="4"/>
+      <c r="D64" s="2"/>
       <c r="E64" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="F64" s="5">
+      <c r="F64" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A64, """&gt;", B64, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -2936,7 +2922,7 @@
       <c r="E65" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="F65" s="5">
+      <c r="F65" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A65, """&gt;", B65, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -2951,12 +2937,12 @@
         <v>24</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="F66" s="5">
+      <c r="F66" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A66, """&gt;", B66, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -2971,12 +2957,12 @@
         <v>24</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="F67" s="5">
+      <c r="F67" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A67, """&gt;", B67, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -2991,12 +2977,12 @@
         <v>24</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="F68" s="5">
+      <c r="F68" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A68, """&gt;", B68, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -3010,11 +2996,11 @@
       <c r="C69" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D69" s="4"/>
+      <c r="D69" s="2"/>
       <c r="E69" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="F69" s="5">
+      <c r="F69" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A69, """&gt;", B69, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -3029,12 +3015,12 @@
         <v>24</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="F70" s="5">
+      <c r="F70" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A70, """&gt;", B70, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -3049,12 +3035,12 @@
         <v>24</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="F71" s="5">
+      <c r="F71" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A71, """&gt;", B71, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -3066,11 +3052,11 @@
         <v>233</v>
       </c>
       <c r="C72" s="2"/>
-      <c r="D72" s="4"/>
+      <c r="D72" s="2"/>
       <c r="E72" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="F72" s="5">
+      <c r="F72" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A72, """&gt;", B72, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -3085,12 +3071,12 @@
         <v>24</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="F73" s="5">
+      <c r="F73" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A73, """&gt;", B73, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -3105,12 +3091,12 @@
         <v>24</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="F74" s="5">
+      <c r="F74" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A74, """&gt;", B74, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -3130,7 +3116,7 @@
       <c r="E75" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="F75" s="5">
+      <c r="F75" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A75, """&gt;", B75, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -3145,12 +3131,12 @@
         <v>24</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="F76" s="5">
+      <c r="F76" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A76, """&gt;", B76, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -3164,11 +3150,11 @@
       <c r="C77" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D77" s="4"/>
+      <c r="D77" s="2"/>
       <c r="E77" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="F77" s="5">
+      <c r="F77" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A77, """&gt;", B77, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -3183,12 +3169,12 @@
         <v>24</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="F78" s="5">
+      <c r="F78" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A78, """&gt;", B78, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -3203,12 +3189,12 @@
         <v>24</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="F79" s="5">
+      <c r="F79" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A79, """&gt;", B79, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -3220,11 +3206,11 @@
         <v>258</v>
       </c>
       <c r="C80" s="2"/>
-      <c r="D80" s="4"/>
+      <c r="D80" s="2"/>
       <c r="E80" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="F80" s="5">
+      <c r="F80" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A80, """&gt;", B80, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -3238,7 +3224,7 @@
       <c r="C81" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D81" s="4"/>
+      <c r="D81" s="2"/>
       <c r="E81" s="2" t="s">
         <v>262</v>
       </c>
@@ -3255,7 +3241,7 @@
         <v>24</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>265</v>
@@ -3273,12 +3259,12 @@
         <v>24</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="F83" s="5">
+      <c r="F83" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A83, """&gt;", B83, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -3292,11 +3278,11 @@
       <c r="C84" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D84" s="4"/>
+      <c r="D84" s="2"/>
       <c r="E84" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="F84" s="5">
+      <c r="F84" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A84, """&gt;", B84, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -3310,11 +3296,11 @@
       <c r="C85" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D85" s="4"/>
+      <c r="D85" s="2"/>
       <c r="E85" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="F85" s="5">
+      <c r="F85" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A85, """&gt;", B85, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -3329,12 +3315,12 @@
         <v>24</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="F86" s="5">
+      <c r="F86" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A86, """&gt;", B86, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -3349,12 +3335,12 @@
         <v>24</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="F87" s="5">
+      <c r="F87" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A87, """&gt;", B87, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -3380,11 +3366,11 @@
         <v>285</v>
       </c>
       <c r="C89" s="2"/>
-      <c r="D89" s="4"/>
+      <c r="D89" s="2"/>
       <c r="E89" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="F89" s="5">
+      <c r="F89" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A89, """&gt;", B89, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -3396,11 +3382,11 @@
         <v>288</v>
       </c>
       <c r="C90" s="2"/>
-      <c r="D90" s="4"/>
+      <c r="D90" s="2"/>
       <c r="E90" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="F90" s="5">
+      <c r="F90" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A90, """&gt;", B90, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -3415,12 +3401,12 @@
         <v>24</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="F91" s="5">
+      <c r="F91" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A91, """&gt;", B91, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -3435,12 +3421,12 @@
         <v>24</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="F92" s="5">
+      <c r="F92" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A92, """&gt;", B92, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -3455,12 +3441,12 @@
         <v>24</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="F93" s="5">
+      <c r="F93" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A93, """&gt;", B93, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -3475,12 +3461,12 @@
         <v>24</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="F94" s="5">
+      <c r="F94" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A94, """&gt;", B94, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -3495,12 +3481,12 @@
         <v>24</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="F95" s="5">
+      <c r="F95" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A95, """&gt;", B95, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -3514,11 +3500,11 @@
       <c r="C96" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D96" s="4"/>
+      <c r="D96" s="2"/>
       <c r="E96" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="F96" s="5">
+      <c r="F96" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A96, """&gt;", B96, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -3533,12 +3519,12 @@
         <v>24</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="F97" s="5">
+      <c r="F97" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A97, """&gt;", B97, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -3553,12 +3539,12 @@
         <v>24</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="F98" s="5">
+      <c r="F98" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A98, """&gt;", B98, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -3573,12 +3559,12 @@
         <v>24</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="F99" s="5">
+      <c r="F99" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A99, """&gt;", B99, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -3593,12 +3579,12 @@
         <v>24</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="F100" s="5">
+      <c r="F100" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A100, """&gt;", B100, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -3618,7 +3604,7 @@
       <c r="E101" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="F101" s="5">
+      <c r="F101" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A101, """&gt;", B101, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -3632,11 +3618,11 @@
       <c r="C102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D102" s="4"/>
+      <c r="D102" s="2"/>
       <c r="E102" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="F102" s="5">
+      <c r="F102" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A102, """&gt;", B102, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -3650,7 +3636,7 @@
       <c r="C103" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D103" s="4"/>
+      <c r="D103" s="2"/>
       <c r="E103" s="2" t="s">
         <v>329</v>
       </c>
@@ -3666,7 +3652,7 @@
       <c r="C104" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D104" s="4"/>
+      <c r="D104" s="2"/>
       <c r="E104" s="2" t="s">
         <v>332</v>
       </c>
@@ -3683,12 +3669,12 @@
         <v>24</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="F105" s="5">
+      <c r="F105" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A105, """&gt;", B105, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -3703,12 +3689,12 @@
         <v>24</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="F106" s="5">
+      <c r="F106" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A106, """&gt;", B106, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -3728,7 +3714,7 @@
       <c r="E107" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="F107" s="5">
+      <c r="F107" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A107, """&gt;", B107, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -3742,11 +3728,11 @@
       <c r="C108" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D108" s="4"/>
+      <c r="D108" s="2"/>
       <c r="E108" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="F108" s="5">
+      <c r="F108" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A108, """&gt;", B108, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -3760,11 +3746,11 @@
       <c r="C109" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D109" s="4"/>
+      <c r="D109" s="2"/>
       <c r="E109" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="F109" s="5">
+      <c r="F109" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A109, """&gt;", B109, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -3779,12 +3765,12 @@
         <v>24</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="F110" s="5">
+      <c r="F110" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A110, """&gt;", B110, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -3804,7 +3790,7 @@
       <c r="E111" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="F111" s="5">
+      <c r="F111" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A111, """&gt;", B111, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -3819,12 +3805,12 @@
         <v>24</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="F112" s="5">
+      <c r="F112" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A112, """&gt;", B112, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -3838,11 +3824,11 @@
       <c r="C113" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D113" s="4"/>
+      <c r="D113" s="2"/>
       <c r="E113" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="F113" s="5">
+      <c r="F113" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A113, """&gt;", B113, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -3857,12 +3843,12 @@
         <v>24</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="F114" s="5">
+      <c r="F114" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A114, """&gt;", B114, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -3876,11 +3862,11 @@
       <c r="C115" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D115" s="4"/>
+      <c r="D115" s="2"/>
       <c r="E115" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="F115" s="5">
+      <c r="F115" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A115, """&gt;", B115, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -3895,12 +3881,12 @@
         <v>24</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="F116" s="5">
+      <c r="F116" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A116, """&gt;", B116, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -3915,12 +3901,12 @@
         <v>24</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="F117" s="5">
+      <c r="F117" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A117, """&gt;", B117, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -3940,7 +3926,7 @@
       <c r="E118" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="F118" s="5">
+      <c r="F118" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A118, """&gt;", B118, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -3960,7 +3946,7 @@
       <c r="E119" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="F119" s="5">
+      <c r="F119" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A119, """&gt;", B119, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -3974,11 +3960,11 @@
       <c r="C120" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D120" s="4"/>
+      <c r="D120" s="2"/>
       <c r="E120" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="F120" s="5">
+      <c r="F120" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A120, """&gt;", B120, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -3992,11 +3978,11 @@
       <c r="C121" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D121" s="4"/>
+      <c r="D121" s="2"/>
       <c r="E121" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="F121" s="5">
+      <c r="F121" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A121, """&gt;", B121, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -4011,12 +3997,12 @@
         <v>24</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="F122" s="5">
+      <c r="F122" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A122, """&gt;", B122, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -4030,11 +4016,11 @@
       <c r="C123" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D123" s="4"/>
+      <c r="D123" s="2"/>
       <c r="E123" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="F123" s="5">
+      <c r="F123" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A123, """&gt;", B123, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -4049,12 +4035,12 @@
         <v>24</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="F124" s="5">
+      <c r="F124" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A124, """&gt;", B124, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -4069,12 +4055,12 @@
         <v>24</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="F125" s="5">
+      <c r="F125" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A125, """&gt;", B125, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -4089,12 +4075,12 @@
         <v>24</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="F126" s="5">
+      <c r="F126" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A126, """&gt;", B126, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -4106,11 +4092,11 @@
         <v>404</v>
       </c>
       <c r="C127" s="2"/>
-      <c r="D127" s="4"/>
+      <c r="D127" s="2"/>
       <c r="E127" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="F127" s="5">
+      <c r="F127" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A127, """&gt;", B127, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -4124,11 +4110,11 @@
       <c r="C128" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D128" s="4"/>
+      <c r="D128" s="2"/>
       <c r="E128" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="F128" s="5">
+      <c r="F128" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A128, """&gt;", B128, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -4142,11 +4128,11 @@
       <c r="C129" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D129" s="4"/>
+      <c r="D129" s="2"/>
       <c r="E129" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="F129" s="5">
+      <c r="F129" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A129, """&gt;", B129, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -4160,11 +4146,11 @@
       <c r="C130" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D130" s="4"/>
+      <c r="D130" s="2"/>
       <c r="E130" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="F130" s="5">
+      <c r="F130" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A130, """&gt;", B130, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -4176,11 +4162,11 @@
         <v>416</v>
       </c>
       <c r="C131" s="2"/>
-      <c r="D131" s="4"/>
+      <c r="D131" s="2"/>
       <c r="E131" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="F131" s="5">
+      <c r="F131" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A131, """&gt;", B131, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -4195,12 +4181,12 @@
         <v>24</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="F132" s="5">
+      <c r="F132" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A132, """&gt;", B132, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -4220,7 +4206,7 @@
       <c r="E133" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="F133" s="5">
+      <c r="F133" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A133, """&gt;", B133, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -4234,11 +4220,11 @@
       <c r="C134" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D134" s="4"/>
+      <c r="D134" s="2"/>
       <c r="E134" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="F134" s="5">
+      <c r="F134" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A134, """&gt;", B134, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -4253,12 +4239,12 @@
         <v>24</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="F135" s="5">
+      <c r="F135" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A135, """&gt;", B135, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -4273,12 +4259,12 @@
         <v>24</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="F136" s="5">
+      <c r="F136" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A136, """&gt;", B136, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>
@@ -4298,7 +4284,7 @@
       <c r="E137" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="F137" s="5">
+      <c r="F137" s="4">
         <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A137, """&gt;", B137, "&lt;/a&gt;&lt;/p&gt;")</f>
       </c>
     </row>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -1,20 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F361072E-F569-47EF-9A35-1E3B4E044001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="sitemap"/>
+    <sheet name="sitemap" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="430">
   <si>
     <t>Page</t>
   </si>
@@ -61,6 +83,9 @@
     <t>Address Pending Arrivals</t>
   </si>
   <si>
+    <t>NO</t>
+  </si>
+  <si>
     <t>https://www.andrewme89.github.io/HGCM_Learning/addresspend.html</t>
   </si>
   <si>
@@ -88,9 +113,6 @@
     <t>All SOPs</t>
   </si>
   <si>
-    <t>NO</t>
-  </si>
-  <si>
     <t>More to be added</t>
   </si>
   <si>
@@ -130,7 +152,16 @@
     <t>Back To Back Bookings</t>
   </si>
   <si>
-    <t>***Can&amp;apos;t update due to iHMS not being complete*** Need updated instructions as well as images</t>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <sz val="11.00"/>
+        <color rgb="FF000000"/>
+        <family val="2"/>
+      </rPr>
+      <t>***Can't update due to iHMS not being complete*** 
+Need updated instructions as well as images</t>
+    </r>
   </si>
   <si>
     <t>https://www.andrewme89.github.io/HGCM_Learning/B2B.html</t>
@@ -211,7 +242,7 @@
     <t>CashGuestList.html</t>
   </si>
   <si>
-    <t xml:space="preserve">Cash Guest Listing </t>
+    <t>Cash Guest Listing </t>
   </si>
   <si>
     <t>https://www.andrewme89.github.io/HGCM_Learning/CashGuestList.html</t>
@@ -400,9 +431,6 @@
     <t>Counting Your Till</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>https://www.andrewme89.github.io/HGCM_Learning/Tills.html</t>
   </si>
   <si>
@@ -412,6 +440,9 @@
     <t>Creating A Reservation (Res)</t>
   </si>
   <si>
+    <t>WORKING</t>
+  </si>
+  <si>
     <t>***WORKING***</t>
   </si>
   <si>
@@ -571,7 +602,7 @@
     <t>Incidentals.html</t>
   </si>
   <si>
-    <t xml:space="preserve">Guest Incidentals </t>
+    <t>Guest Incidentals </t>
   </si>
   <si>
     <t>https://www.andrewme89.github.io/HGCM_Learning/Incidentals.html</t>
@@ -649,9 +680,6 @@
     <t>iHMS Walkthrough</t>
   </si>
   <si>
-    <t>WORKING</t>
-  </si>
-  <si>
     <t>***working***</t>
   </si>
   <si>
@@ -745,9 +773,6 @@
     <t>Maintainx How To Log Maintenance Jobs</t>
   </si>
   <si>
-    <t>Need images ***Copy TO M:\ Drive***</t>
-  </si>
-  <si>
     <t>https://www.andrewme89.github.io/HGCM_Learning/MaintainX.html</t>
   </si>
   <si>
@@ -859,15 +884,6 @@
     <t>https://www.andrewme89.github.io/HGCM_Learning/packages.html</t>
   </si>
   <si>
-    <t>Template.html</t>
-  </si>
-  <si>
-    <t>Page Template</t>
-  </si>
-  <si>
-    <t>Template</t>
-  </si>
-  <si>
     <t>passport.html</t>
   </si>
   <si>
@@ -1039,9 +1055,6 @@
     <t>Room Not Ready Procedure</t>
   </si>
   <si>
-    <t>***Copy TO M:\ Drive***</t>
-  </si>
-  <si>
     <t>https://www.andrewme89.github.io/HGCM_Learning/RNR.html</t>
   </si>
   <si>
@@ -1076,9 +1089,6 @@
   </si>
   <si>
     <t>Safety Deposit Box Procedure</t>
-  </si>
-  <si>
-    <t>***Copy FROM M:\ Drive***</t>
   </si>
   <si>
     <t>https://www.andrewme89.github.io/HGCM_Learning/Boxes.html</t>
@@ -1330,27 +1340,27 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
+      <name val="Calibri"/>
+      <sz val="11.00"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="12.00"/>
+      <b/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1362,14 +1372,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1378,41 +1381,65 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf fontId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" horizontal="left" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="bottom" horizontal="center" wrapText="0"/>
+    </xf>
+    <xf fontId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" horizontal="center" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="bottom" horizontal="center" wrapText="0"/>
+    </xf>
+    <xf fontId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="bottom" horizontal="left" wrapText="0"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf xfId="6" quotePrefix="0" pivotButton="0" fontId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="bottom" horizontal="center" wrapText="0"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf xfId="7" quotePrefix="0" pivotButton="0" fontId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="bottom" horizontal="left" wrapText="0"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf xfId="3" quotePrefix="0" pivotButton="0" fontId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="bottom" horizontal="center" wrapText="0"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf xfId="1" quotePrefix="0" pivotButton="0" fontId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" horizontal="left" wrapText="0"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf xfId="4" quotePrefix="0" pivotButton="0" fontId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" horizontal="center" wrapText="0"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf xfId="2" quotePrefix="0" pivotButton="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="5" quotePrefix="0" pivotButton="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1423,112 +1450,112 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="ffffff" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1f497d"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="eeece1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4f81bd"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="c0504d"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9bbb59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064a2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4bacc6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="f79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1540,187 +1567,165 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="51000"/>
-                <a:satMod val="130000"/>
+                <a:lumMod val="102000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="130000"/>
+                <a:lumMod val="100000"/>
+                <a:satMod val="110000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="9500"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
-            </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:satMod val="170000"/>
+            <a:tint val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="102000"/>
+                <a:satMod val="150000"/>
+                <a:tint val="93000"/>
+                <a:shade val="98000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="103000"/>
+                <a:satMod val="130000"/>
+                <a:tint val="98000"/>
+                <a:shade val="90000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="20000"/>
-                <a:satMod val="255000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="63000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:F137"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <sheetPr/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView showGridLines="1" tabSelected="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.00" customHeight="1" defaultColWidth="11.53"/>
   <cols>
-    <col min="1" max="1" style="6" width="22.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="57.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="10.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="83.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="63.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="138.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="22.81" customWidth="1" hidden="0"/>
+    <col min="2" max="2" width="44.03" customWidth="1" hidden="0"/>
+    <col min="3" max="3" width="10.18" customWidth="1" hidden="0"/>
+    <col min="4" max="4" width="55.81" customWidth="1" hidden="0"/>
+    <col min="5" max="5" width="69.18" customWidth="1" hidden="0"/>
+    <col min="6" max="6" width="119.22" customWidth="1" hidden="0"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row r="1" ht="15.00" customHeight="true">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1740,7 +1745,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="69">
+    <row r="2" ht="15.00" customHeight="true">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1754,11 +1759,11 @@
       <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A2, """&gt;", B2, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="69">
+      <c r="F2" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A2, """&gt;", B2, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="3" ht="15.00" customHeight="true">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -1772,69 +1777,73 @@
       <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A3, """&gt;", B3, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="69">
+      <c r="F3" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A3, """&gt;", B3, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="4" ht="15.00" customHeight="true">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A4, """&gt;", B4, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="69">
+        <v>16</v>
+      </c>
+      <c r="F4" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A4, """&gt;", B4, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="5" ht="15.00" customHeight="true">
       <c r="A5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A5, """&gt;", B5, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="69">
+        <v>19</v>
+      </c>
+      <c r="F5" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A5, """&gt;", B5, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="6" ht="15.00" customHeight="true">
       <c r="A6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A6, """&gt;", B6, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+        <v>22</v>
+      </c>
+      <c r="F6" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A6, """&gt;", B6, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="7" ht="15.00" customHeight="true">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>25</v>
@@ -1844,23 +1853,25 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="69">
+    <row r="8" ht="15.00" customHeight="true">
       <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A8, """&gt;", B8, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="69">
+      <c r="F8" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A8, """&gt;", B8, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="9" ht="15.00" customHeight="true">
       <c r="A9" s="2" t="s">
         <v>30</v>
       </c>
@@ -1874,11 +1885,11 @@
       <c r="E9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A9, """&gt;", B9, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="69">
+      <c r="F9" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A9, """&gt;", B9, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="10" ht="15.00" customHeight="true">
       <c r="A10" s="2" t="s">
         <v>33</v>
       </c>
@@ -1892,31 +1903,61 @@
       <c r="E10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A10, """&gt;", B10, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="69">
-      <c r="A11" s="2" t="s">
+      <c r="F10" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A10, """&gt;", B10, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="11" ht="27.75" customHeight="true">
+      <c r="A11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="C11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="4" t="s">
         <v>39</v>
       </c>
       <c r="F11" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A11, """&gt;", B11, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="69">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A11, """&gt;", B11, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="6"/>
+      <c r="AC11" s="6"/>
+      <c r="AD11" s="6"/>
+      <c r="AE11" s="6"/>
+      <c r="AF11" s="6"/>
+      <c r="AG11" s="6"/>
+      <c r="AH11" s="6"/>
+      <c r="AI11" s="6"/>
+      <c r="AJ11" s="6"/>
+    </row>
+    <row r="12" ht="15.00" customHeight="true">
       <c r="A12" s="2" t="s">
         <v>40</v>
       </c>
@@ -1930,11 +1971,11 @@
       <c r="E12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A12, """&gt;", B12, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="69">
+      <c r="F12" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A12, """&gt;", B12, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="13" ht="15.00" customHeight="true">
       <c r="A13" s="2" t="s">
         <v>43</v>
       </c>
@@ -1948,27 +1989,29 @@
       <c r="E13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A13, """&gt;", B13, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="69">
+      <c r="F13" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A13, """&gt;", B13, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="14" ht="15.00" customHeight="true">
       <c r="A14" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A14, """&gt;", B14, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="69">
+      <c r="F14" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A14, """&gt;", B14, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="15" ht="15.00" customHeight="true">
       <c r="A15" s="2" t="s">
         <v>49</v>
       </c>
@@ -1982,11 +2025,11 @@
       <c r="E15" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A15, """&gt;", B15, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="69">
+      <c r="F15" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A15, """&gt;", B15, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="16" ht="15.00" customHeight="true">
       <c r="A16" s="2" t="s">
         <v>52</v>
       </c>
@@ -2000,27 +2043,29 @@
       <c r="E16" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A16, """&gt;", B16, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="69">
+      <c r="F16" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A16, """&gt;", B16, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="17" ht="15.00" customHeight="true">
       <c r="A17" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="2"/>
+      <c r="C17" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F17" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A17, """&gt;", B17, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="69">
+      <c r="F17" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A17, """&gt;", B17, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="18" ht="15.00" customHeight="true">
       <c r="A18" s="2" t="s">
         <v>58</v>
       </c>
@@ -2034,11 +2079,11 @@
       <c r="E18" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F18" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A18, """&gt;", B18, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="69">
+      <c r="F18" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A18, """&gt;", B18, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="19" ht="15.00" customHeight="true">
       <c r="A19" s="2" t="s">
         <v>61</v>
       </c>
@@ -2052,11 +2097,11 @@
       <c r="E19" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A19, """&gt;", B19, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="69">
+      <c r="F19" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A19, """&gt;", B19, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="20" ht="15.00" customHeight="true">
       <c r="A20" s="2" t="s">
         <v>64</v>
       </c>
@@ -2070,11 +2115,11 @@
       <c r="E20" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F20" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A20, """&gt;", B20, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="69">
+      <c r="F20" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A20, """&gt;", B20, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="21" ht="15.00" customHeight="true">
       <c r="A21" s="2" t="s">
         <v>67</v>
       </c>
@@ -2088,11 +2133,11 @@
       <c r="E21" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F21" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A21, """&gt;", B21, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="69">
+      <c r="F21" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A21, """&gt;", B21, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="22" ht="15.00" customHeight="true">
       <c r="A22" s="2" t="s">
         <v>70</v>
       </c>
@@ -2106,11 +2151,11 @@
       <c r="E22" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F22" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A22, """&gt;", B22, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="69">
+      <c r="F22" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A22, """&gt;", B22, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="23" ht="15.00" customHeight="true">
       <c r="A23" s="2" t="s">
         <v>73</v>
       </c>
@@ -2118,7 +2163,7 @@
         <v>74</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>75</v>
@@ -2126,11 +2171,11 @@
       <c r="E23" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F23" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A23, """&gt;", B23, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="69">
+      <c r="F23" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A23, """&gt;", B23, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="24" ht="15.00" customHeight="true">
       <c r="A24" s="2" t="s">
         <v>77</v>
       </c>
@@ -2138,7 +2183,7 @@
         <v>78</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>79</v>
@@ -2146,11 +2191,11 @@
       <c r="E24" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F24" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A24, """&gt;", B24, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="65.25">
+      <c r="F24" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A24, """&gt;", B24, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="25" ht="15.00" customHeight="true">
       <c r="A25" s="2" t="s">
         <v>81</v>
       </c>
@@ -2164,29 +2209,29 @@
       <c r="E25" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F25" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A25, """&gt;", B25, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="F25" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A25, """&gt;", B25, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="26" ht="15.00" customHeight="true">
       <c r="A26" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F26" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A26, """&gt;", B26, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+      <c r="F26" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A26, """&gt;", B26, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="27" ht="15.00" customHeight="true">
       <c r="A27" s="2" t="s">
         <v>87</v>
       </c>
@@ -2200,11 +2245,11 @@
       <c r="E27" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F27" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A27, """&gt;", B27, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="65.25">
+      <c r="F27" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A27, """&gt;", B27, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="28" ht="15.00" customHeight="true">
       <c r="A28" s="2" t="s">
         <v>90</v>
       </c>
@@ -2212,7 +2257,7 @@
         <v>91</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>92</v>
@@ -2220,11 +2265,11 @@
       <c r="E28" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F28" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A28, """&gt;", B28, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="65.25">
+      <c r="F28" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A28, """&gt;", B28, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="29" ht="15.00" customHeight="true">
       <c r="A29" s="2" t="s">
         <v>94</v>
       </c>
@@ -2232,7 +2277,7 @@
         <v>95</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>92</v>
@@ -2240,11 +2285,11 @@
       <c r="E29" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F29" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A29, """&gt;", B29, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="65.25">
+      <c r="F29" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A29, """&gt;", B29, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="30" ht="15.00" customHeight="true">
       <c r="A30" s="2" t="s">
         <v>97</v>
       </c>
@@ -2252,7 +2297,7 @@
         <v>98</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>99</v>
@@ -2260,11 +2305,11 @@
       <c r="E30" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F30" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A30, """&gt;", B30, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="65.25">
+      <c r="F30" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A30, """&gt;", B30, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="31" ht="15.00" customHeight="true">
       <c r="A31" s="2" t="s">
         <v>101</v>
       </c>
@@ -2272,7 +2317,7 @@
         <v>102</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>92</v>
@@ -2280,29 +2325,29 @@
       <c r="E31" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F31" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A31, """&gt;", B31, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+      <c r="F31" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A31, """&gt;", B31, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="32" ht="15.00" customHeight="true">
       <c r="A32" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="F32" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A32, """&gt;", B32, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="65.25">
+      <c r="F32" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A32, """&gt;", B32, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="33" ht="15.00" customHeight="true">
       <c r="A33" s="2" t="s">
         <v>107</v>
       </c>
@@ -2310,7 +2355,7 @@
         <v>108</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>99</v>
@@ -2318,11 +2363,11 @@
       <c r="E33" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F33" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A33, """&gt;", B33, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+      <c r="F33" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A33, """&gt;", B33, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="34" ht="15.00" customHeight="true">
       <c r="A34" s="2" t="s">
         <v>110</v>
       </c>
@@ -2336,11 +2381,11 @@
       <c r="E34" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F34" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A34, """&gt;", B34, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+      <c r="F34" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A34, """&gt;", B34, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="35" ht="15.00" customHeight="true">
       <c r="A35" s="2" t="s">
         <v>113</v>
       </c>
@@ -2354,11 +2399,11 @@
       <c r="E35" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F35" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A35, """&gt;", B35, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+      <c r="F35" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A35, """&gt;", B35, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="36" ht="15.00" customHeight="true">
       <c r="A36" s="2" t="s">
         <v>116</v>
       </c>
@@ -2372,11 +2417,11 @@
       <c r="E36" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F36" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A36, """&gt;", B36, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+      <c r="F36" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A36, """&gt;", B36, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="37" ht="15.00" customHeight="true">
       <c r="A37" s="2" t="s">
         <v>119</v>
       </c>
@@ -2384,7 +2429,7 @@
         <v>120</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>121</v>
@@ -2392,11 +2437,11 @@
       <c r="E37" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F37" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A37, """&gt;", B37, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+      <c r="F37" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A37, """&gt;", B37, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="38" ht="15.00" customHeight="true">
       <c r="A38" s="2" t="s">
         <v>123</v>
       </c>
@@ -2410,11 +2455,11 @@
       <c r="E38" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F38" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A38, """&gt;", B38, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+      <c r="F38" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A38, """&gt;", B38, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="39" ht="15.00" customHeight="true">
       <c r="A39" s="2" t="s">
         <v>126</v>
       </c>
@@ -2424,25 +2469,23 @@
       <c r="C39" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="2"/>
+      <c r="E39" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="F39" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A39, """&gt;", B39, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="40" ht="15.00" customHeight="true">
+      <c r="A40" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="F39" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A39, """&gt;", B39, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>132</v>
@@ -2450,11 +2493,11 @@
       <c r="E40" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="F40" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A40, """&gt;", B40, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+      <c r="F40" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A40, """&gt;", B40, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="41" ht="15.00" customHeight="true">
       <c r="A41" s="2" t="s">
         <v>134</v>
       </c>
@@ -2462,7 +2505,7 @@
         <v>135</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>136</v>
@@ -2470,11 +2513,11 @@
       <c r="E41" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F41" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A41, """&gt;", B41, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+      <c r="F41" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A41, """&gt;", B41, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="42" ht="15.00" customHeight="true">
       <c r="A42" s="2" t="s">
         <v>138</v>
       </c>
@@ -2488,11 +2531,11 @@
       <c r="E42" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="F42" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A42, """&gt;", B42, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+      <c r="F42" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A42, """&gt;", B42, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="43" ht="15.00" customHeight="true">
       <c r="A43" s="2" t="s">
         <v>141</v>
       </c>
@@ -2508,11 +2551,11 @@
       <c r="E43" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="F43" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A43, """&gt;", B43, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+      <c r="F43" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A43, """&gt;", B43, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="44" ht="15.00" customHeight="true">
       <c r="A44" s="2" t="s">
         <v>145</v>
       </c>
@@ -2520,7 +2563,7 @@
         <v>146</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>92</v>
@@ -2528,11 +2571,11 @@
       <c r="E44" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="F44" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A44, """&gt;", B44, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+      <c r="F44" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A44, """&gt;", B44, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="45" ht="15.00" customHeight="true">
       <c r="A45" s="2" t="s">
         <v>148</v>
       </c>
@@ -2546,11 +2589,11 @@
       <c r="E45" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="F45" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A45, """&gt;", B45, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="69">
+      <c r="F45" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A45, """&gt;", B45, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="46" ht="15.00" customHeight="true">
       <c r="A46" s="2" t="s">
         <v>151</v>
       </c>
@@ -2564,11 +2607,11 @@
       <c r="E46" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="F46" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A46, """&gt;", B46, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="69">
+      <c r="F46" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A46, """&gt;", B46, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="47" ht="15.00" customHeight="true">
       <c r="A47" s="2" t="s">
         <v>154</v>
       </c>
@@ -2576,7 +2619,7 @@
         <v>155</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>92</v>
@@ -2584,11 +2627,11 @@
       <c r="E47" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F47" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A47, """&gt;", B47, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="69">
+      <c r="F47" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A47, """&gt;", B47, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="48" ht="15.00" customHeight="true">
       <c r="A48" s="2" t="s">
         <v>157</v>
       </c>
@@ -2596,7 +2639,7 @@
         <v>158</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>92</v>
@@ -2604,11 +2647,11 @@
       <c r="E48" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="F48" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A48, """&gt;", B48, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="69">
+      <c r="F48" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A48, """&gt;", B48, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="49" ht="15.00" customHeight="true">
       <c r="A49" s="2" t="s">
         <v>160</v>
       </c>
@@ -2616,7 +2659,7 @@
         <v>161</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>92</v>
@@ -2624,11 +2667,11 @@
       <c r="E49" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F49" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A49, """&gt;", B49, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="69">
+      <c r="F49" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A49, """&gt;", B49, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="50" ht="15.00" customHeight="true">
       <c r="A50" s="2" t="s">
         <v>163</v>
       </c>
@@ -2642,11 +2685,11 @@
       <c r="E50" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F50" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A50, """&gt;", B50, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="69">
+      <c r="F50" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A50, """&gt;", B50, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="51" ht="15.00" customHeight="true">
       <c r="A51" s="2" t="s">
         <v>166</v>
       </c>
@@ -2654,7 +2697,7 @@
         <v>167</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>92</v>
@@ -2662,11 +2705,11 @@
       <c r="E51" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="F51" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A51, """&gt;", B51, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="69">
+      <c r="F51" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A51, """&gt;", B51, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="52" ht="15.00" customHeight="true">
       <c r="A52" s="2" t="s">
         <v>169</v>
       </c>
@@ -2680,27 +2723,29 @@
       <c r="E52" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="F52" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A52, """&gt;", B52, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="69">
+      <c r="F52" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A52, """&gt;", B52, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="53" ht="15.00" customHeight="true">
       <c r="A53" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C53" s="2"/>
+      <c r="C53" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="F53" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A53, """&gt;", B53, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="69">
+      <c r="F53" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A53, """&gt;", B53, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="54" ht="15.00" customHeight="true">
       <c r="A54" s="2" t="s">
         <v>175</v>
       </c>
@@ -2708,7 +2753,7 @@
         <v>176</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>99</v>
@@ -2716,11 +2761,11 @@
       <c r="E54" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="F54" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A54, """&gt;", B54, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="69">
+      <c r="F54" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A54, """&gt;", B54, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="55" ht="15.00" customHeight="true">
       <c r="A55" s="2" t="s">
         <v>178</v>
       </c>
@@ -2728,7 +2773,7 @@
         <v>179</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>92</v>
@@ -2736,11 +2781,11 @@
       <c r="E55" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="F55" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A55, """&gt;", B55, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="69">
+      <c r="F55" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A55, """&gt;", B55, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="56" ht="15.00" customHeight="true">
       <c r="A56" s="2" t="s">
         <v>181</v>
       </c>
@@ -2748,7 +2793,7 @@
         <v>182</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>99</v>
@@ -2756,11 +2801,11 @@
       <c r="E56" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="F56" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A56, """&gt;", B56, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="69">
+      <c r="F56" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A56, """&gt;", B56, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="57" ht="15.00" customHeight="true">
       <c r="A57" s="2" t="s">
         <v>184</v>
       </c>
@@ -2768,7 +2813,7 @@
         <v>185</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>92</v>
@@ -2776,11 +2821,11 @@
       <c r="E57" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="F57" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A57, """&gt;", B57, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="69">
+      <c r="F57" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A57, """&gt;", B57, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="58" ht="15.00" customHeight="true">
       <c r="A58" s="2" t="s">
         <v>187</v>
       </c>
@@ -2788,7 +2833,7 @@
         <v>188</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>92</v>
@@ -2796,11 +2841,11 @@
       <c r="E58" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="F58" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A58, """&gt;", B58, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5">
+      <c r="F58" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A58, """&gt;", B58, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="59" ht="15.00" customHeight="true">
       <c r="A59" s="2" t="s">
         <v>190</v>
       </c>
@@ -2816,7 +2861,7 @@
       </c>
       <c r="F59" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="69">
+    <row r="60" ht="15.00" customHeight="true">
       <c r="A60" s="2" t="s">
         <v>193</v>
       </c>
@@ -2824,7 +2869,7 @@
         <v>194</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>195</v>
@@ -2832,11 +2877,11 @@
       <c r="E60" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="F60" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A60, """&gt;", B60, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="19.5">
+      <c r="F60" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A60, """&gt;", B60, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="61" ht="15.00" customHeight="true">
       <c r="A61" s="2" t="s">
         <v>197</v>
       </c>
@@ -2844,7 +2889,7 @@
         <v>198</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>99</v>
@@ -2854,7 +2899,7 @@
       </c>
       <c r="F61" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="69">
+    <row r="62" ht="15.00" customHeight="true">
       <c r="A62" s="2" t="s">
         <v>200</v>
       </c>
@@ -2868,27 +2913,29 @@
       <c r="E62" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="F62" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A62, """&gt;", B62, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="69">
+      <c r="F62" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A62, """&gt;", B62, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="63" ht="15.00" customHeight="true">
       <c r="A63" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C63" s="2"/>
+      <c r="C63" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="D63" s="2"/>
       <c r="E63" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="F63" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A63, """&gt;", B63, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="69">
+      <c r="F63" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A63, """&gt;", B63, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="64" ht="15.00" customHeight="true">
       <c r="A64" s="2" t="s">
         <v>206</v>
       </c>
@@ -2902,11 +2949,11 @@
       <c r="E64" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="F64" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A64, """&gt;", B64, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="69">
+      <c r="F64" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A64, """&gt;", B64, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="65" ht="15.00" customHeight="true">
       <c r="A65" s="2" t="s">
         <v>209</v>
       </c>
@@ -2914,1381 +2961,1379 @@
         <v>210</v>
       </c>
       <c r="C65" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="E65" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="F65" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A65, """&gt;", B65, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="66" ht="15.00" customHeight="true">
+      <c r="A66" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="F65" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A65, """&gt;", B65, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="69">
-      <c r="A66" s="2" t="s">
+      <c r="B66" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>215</v>
-      </c>
       <c r="C66" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>92</v>
       </c>
       <c r="E66" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F66" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A66, """&gt;", B66, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="67" ht="15.00" customHeight="true">
+      <c r="A67" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="F66" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A66, """&gt;", B66, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="69">
-      <c r="A67" s="2" t="s">
+      <c r="B67" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>218</v>
-      </c>
       <c r="C67" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>92</v>
       </c>
       <c r="E67" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F67" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A67, """&gt;", B67, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="68" ht="15.00" customHeight="true">
+      <c r="A68" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="F67" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A67, """&gt;", B67, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="69">
-      <c r="A68" s="2" t="s">
+      <c r="B68" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>221</v>
-      </c>
       <c r="C68" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>92</v>
       </c>
       <c r="E68" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F68" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A68, """&gt;", B68, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="69" ht="15.00" customHeight="true">
+      <c r="A69" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="F68" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A68, """&gt;", B68, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="69">
-      <c r="A69" s="2" t="s">
+      <c r="B69" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>224</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F69" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A69, """&gt;", B69, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="70" ht="15.00" customHeight="true">
+      <c r="A70" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="F69" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A69, """&gt;", B69, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="69">
-      <c r="A70" s="2" t="s">
+      <c r="B70" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>227</v>
-      </c>
       <c r="C70" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>92</v>
       </c>
       <c r="E70" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F70" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A70, """&gt;", B70, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="71" ht="15.00" customHeight="true">
+      <c r="A71" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="F70" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A70, """&gt;", B70, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="69">
-      <c r="A71" s="2" t="s">
+      <c r="B71" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>230</v>
-      </c>
       <c r="C71" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E71" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F71" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A71, """&gt;", B71, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="72" ht="15.00" customHeight="true">
+      <c r="A72" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="F71" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A71, """&gt;", B71, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="69">
-      <c r="A72" s="2" t="s">
+      <c r="B72" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C72" s="2"/>
+      <c r="C72" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F72" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A72, """&gt;", B72, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="73" ht="15.00" customHeight="true">
+      <c r="A73" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="F72" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A72, """&gt;", B72, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="69">
-      <c r="A73" s="2" t="s">
+      <c r="B73" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>236</v>
-      </c>
       <c r="C73" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>92</v>
       </c>
       <c r="E73" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F73" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A73, """&gt;", B73, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="74" ht="15.00" customHeight="true">
+      <c r="A74" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="F73" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A73, """&gt;", B73, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="69">
-      <c r="A74" s="2" t="s">
+      <c r="B74" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>239</v>
-      </c>
       <c r="C74" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>92</v>
       </c>
       <c r="E74" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F74" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A74, """&gt;", B74, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="75" ht="15.00" customHeight="true">
+      <c r="A75" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="F74" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A74, """&gt;", B74, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="69">
-      <c r="A75" s="2" t="s">
+      <c r="B75" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="C75" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C75" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D75" s="2" t="s">
+      <c r="F75" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A75, """&gt;", B75, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="76" ht="15.00" customHeight="true">
+      <c r="A76" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="B76" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="F75" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A75, """&gt;", B75, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="69">
-      <c r="A76" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>246</v>
-      </c>
       <c r="C76" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>92</v>
       </c>
       <c r="E76" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="F76" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A76, """&gt;", B76, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="77" ht="15.00" customHeight="true">
+      <c r="A77" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="F76" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A76, """&gt;", B76, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="69">
-      <c r="A77" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>249</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="F77" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A77, """&gt;", B77, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="78" ht="15.00" customHeight="true">
+      <c r="A78" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="F77" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A77, """&gt;", B77, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="69">
-      <c r="A78" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>252</v>
-      </c>
       <c r="C78" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E78" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F78" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A78, """&gt;", B78, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="79" ht="15.00" customHeight="true">
+      <c r="A79" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="F78" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A78, """&gt;", B78, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="69">
-      <c r="A79" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>255</v>
-      </c>
       <c r="C79" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>92</v>
       </c>
       <c r="E79" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F79" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A79, """&gt;", B79, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="80" ht="15.00" customHeight="true">
+      <c r="A80" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="F79" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A79, """&gt;", B79, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="69">
-      <c r="A80" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="C80" s="2"/>
+      <c r="C80" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F80" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A80, """&gt;", B80, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="81" ht="15.00" customHeight="true">
+      <c r="A81" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="F80" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A80, """&gt;", B80, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
-      <c r="A81" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>261</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F81" s="2"/>
+    </row>
+    <row r="82" ht="15.00" customHeight="true">
+      <c r="A82" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="F81" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
-      <c r="A82" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>264</v>
-      </c>
       <c r="C82" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>92</v>
       </c>
       <c r="E82" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F82" s="2"/>
+    </row>
+    <row r="83" ht="15.00" customHeight="true">
+      <c r="A83" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="F82" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
-      <c r="A83" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>267</v>
-      </c>
       <c r="C83" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>92</v>
       </c>
       <c r="E83" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F83" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A83, """&gt;", B83, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="84" ht="15.00" customHeight="true">
+      <c r="A84" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>268</v>
-      </c>
-      <c r="F83" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A83, """&gt;", B83, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
-      <c r="A84" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>270</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="F84" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A84, """&gt;", B84, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="85" ht="15.00" customHeight="true">
+      <c r="A85" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>271</v>
-      </c>
-      <c r="F84" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A84, """&gt;", B84, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
-      <c r="A85" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>273</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="F85" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A85, """&gt;", B85, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="86" ht="15.00" customHeight="true">
+      <c r="A86" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="F85" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A85, """&gt;", B85, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
-      <c r="A86" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>276</v>
-      </c>
       <c r="C86" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>92</v>
       </c>
       <c r="E86" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="F86" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A86, """&gt;", B86, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="87" ht="15.00" customHeight="true">
+      <c r="A87" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="F86" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A86, """&gt;", B86, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
-      <c r="A87" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>279</v>
-      </c>
       <c r="C87" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>92</v>
       </c>
       <c r="E87" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="F87" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A87, """&gt;", B87, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="88" ht="15.00" customHeight="true">
+      <c r="A88" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="F87" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A87, """&gt;", B87, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
-      <c r="A88" s="2" t="s">
+      <c r="C88" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="F88" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A88, """&gt;", B88, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="89" ht="15.00" customHeight="true">
+      <c r="A89" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C88" s="3"/>
-      <c r="D88" s="2" t="s">
+      <c r="B89" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
-      <c r="A89" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="C89" s="2"/>
+      <c r="C89" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="D89" s="2"/>
       <c r="E89" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F89" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A89, """&gt;", B89, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="90" ht="15.00" customHeight="true">
+      <c r="A90" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="F89" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A89, """&gt;", B89, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
-      <c r="A90" s="2" t="s">
+      <c r="C90" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="F90" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A90, """&gt;", B90, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="91" ht="15.00" customHeight="true">
+      <c r="A91" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2" t="s">
+      <c r="B91" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="F90" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A90, """&gt;", B90, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
-      <c r="A91" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>291</v>
-      </c>
       <c r="C91" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>92</v>
       </c>
       <c r="E91" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F91" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A91, """&gt;", B91, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="92" ht="15.00" customHeight="true">
+      <c r="A92" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="F91" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A91, """&gt;", B91, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
-      <c r="A92" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>294</v>
-      </c>
       <c r="C92" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>92</v>
       </c>
       <c r="E92" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="F92" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A92, """&gt;", B92, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="93" ht="15.00" customHeight="true">
+      <c r="A93" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="F92" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A92, """&gt;", B92, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
-      <c r="A93" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>297</v>
-      </c>
       <c r="C93" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>92</v>
       </c>
       <c r="E93" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="F93" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A93, """&gt;", B93, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="94" ht="15.00" customHeight="true">
+      <c r="A94" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="F93" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A93, """&gt;", B93, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
-      <c r="A94" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>300</v>
-      </c>
       <c r="C94" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>92</v>
       </c>
       <c r="E94" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="F94" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A94, """&gt;", B94, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="95" ht="15.00" customHeight="true">
+      <c r="A95" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="F94" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A94, """&gt;", B94, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
-      <c r="A95" s="2" t="s">
+      <c r="C95" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="F95" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A95, """&gt;", B95, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="96" ht="15.00" customHeight="true">
+      <c r="A96" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="C95" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D95" s="2" t="s">
+      <c r="B96" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E95" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="F95" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A95, """&gt;", B95, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
-      <c r="A96" s="2" t="s">
+      <c r="E96" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="F96" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A96, """&gt;", B96, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="97" ht="15.00" customHeight="true">
+      <c r="A97" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="C96" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2" t="s">
+      <c r="B97" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="F96" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A96, """&gt;", B96, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
-      <c r="A97" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>309</v>
-      </c>
       <c r="C97" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>92</v>
       </c>
       <c r="E97" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="F97" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A97, """&gt;", B97, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="98" ht="15.00" customHeight="true">
+      <c r="A98" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="F97" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A97, """&gt;", B97, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
-      <c r="A98" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>312</v>
-      </c>
       <c r="C98" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>92</v>
       </c>
       <c r="E98" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="F98" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A98, """&gt;", B98, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="99" ht="15.00" customHeight="true">
+      <c r="A99" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="F98" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A98, """&gt;", B98, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
-      <c r="A99" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>315</v>
-      </c>
       <c r="C99" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>92</v>
       </c>
       <c r="E99" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="F99" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A99, """&gt;", B99, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="100" ht="15.00" customHeight="true">
+      <c r="A100" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="F99" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A99, """&gt;", B99, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
-      <c r="A100" s="2" t="s">
+      <c r="C100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="E100" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="C100" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E100" s="2" t="s">
+      <c r="F100" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A100, """&gt;", B100, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="101" ht="15.00" customHeight="true">
+      <c r="A101" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="F100" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A100, """&gt;", B100, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
-      <c r="A101" s="2" t="s">
+      <c r="B101" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="C101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="C101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D101" s="2" t="s">
+      <c r="F101" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A101, """&gt;", B101, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="102" ht="15.00" customHeight="true">
+      <c r="A102" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="E101" s="2" t="s">
+      <c r="B102" s="2" t="s">
         <v>323</v>
-      </c>
-      <c r="F101" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A101, """&gt;", B101, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
-      <c r="A102" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>325</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="F102" s="2"/>
+    </row>
+    <row r="103" ht="15.00" customHeight="true">
+      <c r="A103" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>326</v>
-      </c>
-      <c r="F102" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A102, """&gt;", B102, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
-      <c r="A103" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>328</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="F103" s="2"/>
+    </row>
+    <row r="104" ht="15.00" customHeight="true">
+      <c r="A104" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="F103" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
-      <c r="A104" s="2" t="s">
+      <c r="C104" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="F104" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A104, """&gt;", B104, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="105" ht="15.00" customHeight="true">
+      <c r="A105" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="C104" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D104" s="2"/>
-      <c r="E104" s="2" t="s">
+      <c r="B105" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="F104" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
-      <c r="A105" s="2" t="s">
+      <c r="C105" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="F105" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A105, """&gt;", B105, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="106" ht="15.00" customHeight="true">
+      <c r="A106" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="C105" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E105" s="2" t="s">
+      <c r="B106" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="F105" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A105, """&gt;", B105, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
-      <c r="A106" s="2" t="s">
+      <c r="C106" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="F106" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A106, """&gt;", B106, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="107" ht="15.00" customHeight="true">
+      <c r="A107" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="C106" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E106" s="2" t="s">
+      <c r="B107" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="F106" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A106, """&gt;", B106, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
-      <c r="A107" s="2" t="s">
+      <c r="C107" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="F107" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A107, """&gt;", B107, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="108" ht="15.00" customHeight="true">
+      <c r="A108" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="C107" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D107" s="2" t="s">
+      <c r="B108" s="2" t="s">
         <v>341</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="F107" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A107, """&gt;", B107, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
-      <c r="A108" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>344</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="F108" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A108, """&gt;", B108, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="109" ht="15.00" customHeight="true">
+      <c r="A109" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="F108" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A108, """&gt;", B108, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
-      <c r="A109" s="2" t="s">
+      <c r="F109" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A109, """&gt;", B109, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="110" ht="15.00" customHeight="true">
+      <c r="A110" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="B110" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="C109" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D109" s="2"/>
-      <c r="E109" s="2" t="s">
+      <c r="C110" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="F109" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A109, """&gt;", B109, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
-      <c r="A110" s="2" t="s">
+      <c r="F110" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A110, """&gt;", B110, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="111" ht="15.00" customHeight="true">
+      <c r="A111" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="B111" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="C110" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D110" s="2" t="s">
+      <c r="C111" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D111" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E110" s="2" t="s">
+      <c r="E111" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="F110" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A110, """&gt;", B110, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
-      <c r="A111" s="2" t="s">
+      <c r="F111" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A111, """&gt;", B111, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="112" ht="15.00" customHeight="true">
+      <c r="A112" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="B112" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="C111" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D111" s="2" t="s">
+      <c r="C112" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="E111" s="2" t="s">
+      <c r="F112" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A112, """&gt;", B112, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="113" ht="15.00" customHeight="true">
+      <c r="A113" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="F111" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A111, """&gt;", B111, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
-      <c r="A112" s="2" t="s">
+      <c r="B113" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="C113" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="C112" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D112" s="2" t="s">
+      <c r="F113" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A113, """&gt;", B113, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="114" ht="15.00" customHeight="true">
+      <c r="A114" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="F114" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A114, """&gt;", B114, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="115" ht="15.00" customHeight="true">
+      <c r="A115" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E112" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="F112" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A112, """&gt;", B112, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
-      <c r="A113" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D113" s="2"/>
-      <c r="E113" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="F113" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A113, """&gt;", B113, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
-      <c r="A114" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="B114" s="2" t="s">
+      <c r="E115" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="C114" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E114" s="2" t="s">
+      <c r="F115" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A115, """&gt;", B115, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="116" ht="15.00" customHeight="true">
+      <c r="A116" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="F114" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A114, """&gt;", B114, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
-      <c r="A115" s="2" t="s">
+      <c r="B116" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="B115" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D115" s="2"/>
-      <c r="E115" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="F115" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A115, """&gt;", B115, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
-      <c r="A116" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>369</v>
-      </c>
       <c r="C116" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>92</v>
       </c>
       <c r="E116" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F116" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A116, """&gt;", B116, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="117" ht="15.00" customHeight="true">
+      <c r="A117" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="F116" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A116, """&gt;", B116, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
-      <c r="A117" s="2" t="s">
+      <c r="F117" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A117, """&gt;", B117, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="118" ht="15.00" customHeight="true">
+      <c r="A118" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="B118" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="C117" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E117" s="2" t="s">
+      <c r="C118" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="F117" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A117, """&gt;", B117, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
-      <c r="A118" s="2" t="s">
+      <c r="E118" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="F118" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A118, """&gt;", B118, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="119" ht="15.00" customHeight="true">
+      <c r="A119" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="C118" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D118" s="2" t="s">
+      <c r="B119" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="E118" s="2" t="s">
+      <c r="C119" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="F118" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A118, """&gt;", B118, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
-      <c r="A119" s="2" t="s">
+      <c r="F119" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A119, """&gt;", B119, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="120" ht="15.00" customHeight="true">
+      <c r="A120" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B120" s="2" t="s">
         <v>379</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="F119" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A119, """&gt;", B119, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
-      <c r="A120" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>383</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="F120" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A120, """&gt;", B120, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="121" ht="15.00" customHeight="true">
+      <c r="A121" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="F121" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A121, """&gt;", B121, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="122" ht="15.00" customHeight="true">
+      <c r="A122" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="F120" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A120, """&gt;", B120, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
-      <c r="A121" s="2" t="s">
+      <c r="B122" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="C122" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D122" s="2"/>
+      <c r="E122" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="C121" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D121" s="2"/>
-      <c r="E121" s="2" t="s">
+      <c r="F122" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A122, """&gt;", B122, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="123" ht="15.00" customHeight="true">
+      <c r="A123" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="F121" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A121, """&gt;", B121, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
-      <c r="A122" s="2" t="s">
+      <c r="B123" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="C123" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="C122" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E122" s="2" t="s">
+      <c r="F123" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A123, """&gt;", B123, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="124" ht="15.00" customHeight="true">
+      <c r="A124" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="F122" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A122, """&gt;", B122, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
-      <c r="A123" s="2" t="s">
+      <c r="B124" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D123" s="2"/>
-      <c r="E123" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="F123" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A123, """&gt;", B123, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
-      <c r="A124" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>395</v>
-      </c>
       <c r="C124" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E124" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="F124" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A124, """&gt;", B124, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="125" ht="15.00" customHeight="true">
+      <c r="A125" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="F125" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A125, """&gt;", B125, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="126" ht="15.00" customHeight="true">
+      <c r="A126" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="F124" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A124, """&gt;", B124, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
-      <c r="A125" s="2" t="s">
+      <c r="B126" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="C126" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D126" s="2"/>
+      <c r="E126" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="C125" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E125" s="2" t="s">
+      <c r="F126" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A126, """&gt;", B126, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="127" ht="15.00" customHeight="true">
+      <c r="A127" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="F125" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A125, """&gt;", B125, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
-      <c r="A126" s="2" t="s">
+      <c r="B127" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="B126" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="F126" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A126, """&gt;", B126, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
-      <c r="A127" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="C127" s="2"/>
+      <c r="C127" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="D127" s="2"/>
       <c r="E127" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="F127" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A127, """&gt;", B127, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
+        <v>401</v>
+      </c>
+      <c r="F127" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A127, """&gt;", B127, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="128" ht="15.00" customHeight="true">
       <c r="A128" s="2" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="F128" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A128, """&gt;", B128, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
+        <v>404</v>
+      </c>
+      <c r="F128" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A128, """&gt;", B128, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="129" ht="15.00" customHeight="true">
       <c r="A129" s="2" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="F129" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A129, """&gt;", B129, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
+        <v>407</v>
+      </c>
+      <c r="F129" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A129, """&gt;", B129, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="130" ht="15.00" customHeight="true">
       <c r="A130" s="2" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="F130" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A130, """&gt;", B130, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="131" ht="15.00" customHeight="true">
+      <c r="A131" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="F131" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A131, """&gt;", B131, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="132" ht="15.00" customHeight="true">
+      <c r="A132" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="F130" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A130, """&gt;", B130, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
-      <c r="A131" s="2" t="s">
+      <c r="B132" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="C132" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D132" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="C131" s="2"/>
-      <c r="D131" s="2"/>
-      <c r="E131" s="2" t="s">
+      <c r="E132" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="F131" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A131, """&gt;", B131, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
-      <c r="A132" s="2" t="s">
+      <c r="F132" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A132, """&gt;", B132, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="133" ht="15.00" customHeight="true">
+      <c r="A133" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="B133" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="C132" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D132" s="2" t="s">
+      <c r="C133" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D133" s="2"/>
+      <c r="E133" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="F133" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A133, """&gt;", B133, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="134" ht="15.00" customHeight="true">
+      <c r="A134" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D134" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E132" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="F132" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A132, """&gt;", B132, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
-      <c r="A133" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D133" s="2" t="s">
+      <c r="E134" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="E133" s="2" t="s">
+      <c r="F134" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A134, """&gt;", B134, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="135" ht="15.00" customHeight="true">
+      <c r="A135" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="F133" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A133, """&gt;", B133, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
-      <c r="A134" s="2" t="s">
+      <c r="B135" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="B134" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D134" s="2"/>
-      <c r="E134" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="F134" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A134, """&gt;", B134, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
-      <c r="A135" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>429</v>
-      </c>
       <c r="C135" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>92</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="F135" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A135, """&gt;", B135, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
+        <v>426</v>
+      </c>
+      <c r="F135" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A135, """&gt;", B135, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="136" ht="15.00" customHeight="true">
       <c r="A136" s="2" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>92</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D136" s="2"/>
       <c r="E136" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="F136" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A136, """&gt;", B136, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
-      <c r="A137" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="F137" s="4">
-        <f>CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A137, """&gt;", B137, "&lt;/a&gt;&lt;/p&gt;")</f>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="F136" s="2">
+        <f>=CONCATENATE("&lt;p class=""mb-4""&gt;&lt;i class=""fa fa-arrow-right text-primary me-2""&gt;&lt;/i&gt;&lt;a href=""", A136, """&gt;", B136, "&lt;/a&gt;&lt;/p&gt;")</f>
+      </c>
+    </row>
+    <row r="137" ht="15.00" customHeight="true">
+      <c r="C137" s="7"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.75" header="0.25" footer="0.25"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100"/>
+  <headerFooter alignWithMargins="1"/>
 </worksheet>
 </file>
--- a/notes.xlsx
+++ b/notes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="436">
   <si>
     <t xml:space="preserve">Page</t>
   </si>
@@ -218,9 +218,6 @@
     <t xml:space="preserve">Bumped / Walked Guests</t>
   </si>
   <si>
-    <t xml:space="preserve">Make it less obviously AI generated</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/bumped_walked.html</t>
   </si>
   <si>
@@ -572,6 +569,9 @@
     <t xml:space="preserve">Functions &amp; What To Do</t>
   </si>
   <si>
+    <t xml:space="preserve">Need further clarification</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/Functions.html</t>
   </si>
   <si>
@@ -605,7 +605,7 @@
     <t xml:space="preserve">gstprofile.html</t>
   </si>
   <si>
-    <t xml:space="preserve">Guest Profiles</t>
+    <t xml:space="preserve">Creating a Guest Profile</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/gstprofile.html</t>
@@ -1269,9 +1269,6 @@
   </si>
   <si>
     <t xml:space="preserve">Updating Function Signage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Update with small signage procedure</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/function_signs.html</t>
@@ -1717,8 +1714,8 @@
   </sheetPr>
   <dimension ref="A1:AK297"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B58" activeCellId="0" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2741,13 +2738,11 @@
         <v>64</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>15</v>
@@ -2799,17 +2794,17 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>15</v>
@@ -2861,17 +2856,17 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>15</v>
@@ -2923,17 +2918,17 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>15</v>
@@ -2985,17 +2980,17 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>15</v>
@@ -3047,17 +3042,17 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>15</v>
@@ -3109,19 +3104,19 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D23" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>15</v>
@@ -3173,17 +3168,17 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>15</v>
@@ -3235,17 +3230,17 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>15</v>
@@ -3297,17 +3292,17 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>15</v>
@@ -3359,17 +3354,17 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>15</v>
@@ -3421,17 +3416,17 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>15</v>
@@ -3483,19 +3478,19 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D29" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E29" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>15</v>
@@ -3547,19 +3542,19 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D30" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E30" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>15</v>
@@ -3611,17 +3606,17 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B31" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>15</v>
@@ -3673,17 +3668,17 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>15</v>
@@ -3735,19 +3730,19 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B33" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>15</v>
@@ -3799,17 +3794,17 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B34" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>15</v>
@@ -3861,17 +3856,17 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>15</v>
@@ -3923,17 +3918,17 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>15</v>
@@ -3985,19 +3980,19 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B37" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D37" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E37" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>15</v>
@@ -4049,17 +4044,17 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B38" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>15</v>
@@ -4111,17 +4106,17 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B39" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>15</v>
@@ -4173,17 +4168,17 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B40" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>15</v>
@@ -4235,19 +4230,19 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B41" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D41" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E41" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>15</v>
@@ -4299,17 +4294,17 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B42" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>15</v>
@@ -4361,19 +4356,19 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B43" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D43" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E43" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>15</v>
@@ -4425,19 +4420,19 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B44" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>15</v>
@@ -4489,17 +4484,17 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B45" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>15</v>
@@ -4551,17 +4546,17 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B46" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>15</v>
@@ -4613,19 +4608,19 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B47" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>15</v>
@@ -4677,19 +4672,19 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B48" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>15</v>
@@ -4741,19 +4736,19 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B49" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>15</v>
@@ -4805,17 +4800,17 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B50" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D50" s="7"/>
       <c r="E50" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>15</v>
@@ -4867,19 +4862,19 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B51" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>15</v>
@@ -4931,17 +4926,17 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B52" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D52" s="7"/>
       <c r="E52" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F52" s="7" t="s">
         <v>15</v>
@@ -4993,19 +4988,19 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B53" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>15</v>
@@ -5057,16 +5052,16 @@
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B54" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>107</v>
+        <v>182</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>183</v>
@@ -5130,7 +5125,7 @@
         <v>32</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>186</v>
@@ -5191,11 +5186,9 @@
         <v>188</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>107</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D56" s="7"/>
       <c r="E56" s="7" t="s">
         <v>189</v>
       </c>
@@ -5258,7 +5251,7 @@
         <v>32</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>192</v>
@@ -5322,7 +5315,7 @@
         <v>32</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E58" s="7" t="s">
         <v>195</v>
@@ -5339,14 +5332,14 @@
       </c>
       <c r="I58" s="7" t="str">
         <f aca="false">B58</f>
-        <v>Guest Profiles</v>
+        <v>Creating a Guest Profile</v>
       </c>
       <c r="J58" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K58" s="7" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="gstprofile.html"&gt;Guest Profiles&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="gstprofile.html"&gt;Creating a Guest Profile&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="L58" s="9"/>
       <c r="M58" s="9"/>
@@ -5510,7 +5503,7 @@
         <v>32</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E61" s="7" t="s">
         <v>204</v>
@@ -5636,7 +5629,7 @@
         <v>32</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E63" s="7" t="s">
         <v>210</v>
@@ -5826,7 +5819,7 @@
         <v>32</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E66" s="7" t="s">
         <v>221</v>
@@ -5890,7 +5883,7 @@
         <v>32</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E67" s="7" t="s">
         <v>224</v>
@@ -5954,7 +5947,7 @@
         <v>32</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E68" s="7" t="s">
         <v>227</v>
@@ -6080,7 +6073,7 @@
         <v>32</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E70" s="7" t="s">
         <v>233</v>
@@ -6144,7 +6137,7 @@
         <v>32</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E71" s="11" t="s">
         <v>236</v>
@@ -6208,7 +6201,7 @@
         <v>32</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E72" s="7" t="s">
         <v>239</v>
@@ -6272,7 +6265,7 @@
         <v>32</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E73" s="7" t="s">
         <v>242</v>
@@ -6336,7 +6329,7 @@
         <v>32</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E74" s="7" t="s">
         <v>245</v>
@@ -6400,7 +6393,7 @@
         <v>32</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E75" s="7" t="s">
         <v>248</v>
@@ -6464,7 +6457,7 @@
         <v>32</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E76" s="7" t="s">
         <v>251</v>
@@ -6590,7 +6583,7 @@
         <v>32</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E78" s="7" t="s">
         <v>257</v>
@@ -6654,7 +6647,7 @@
         <v>32</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E79" s="7" t="s">
         <v>260</v>
@@ -6718,7 +6711,7 @@
         <v>32</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E80" s="7" t="s">
         <v>263</v>
@@ -6844,7 +6837,7 @@
         <v>32</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E82" s="7" t="s">
         <v>269</v>
@@ -6908,7 +6901,7 @@
         <v>32</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E83" s="7" t="s">
         <v>272</v>
@@ -7096,7 +7089,7 @@
         <v>32</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E86" s="7" t="s">
         <v>281</v>
@@ -7160,7 +7153,7 @@
         <v>32</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E87" s="7" t="s">
         <v>284</v>
@@ -7224,7 +7217,7 @@
         <v>32</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E88" s="7" t="s">
         <v>287</v>
@@ -7350,7 +7343,7 @@
         <v>32</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E90" s="7" t="s">
         <v>293</v>
@@ -7414,7 +7407,7 @@
         <v>32</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E91" s="7" t="s">
         <v>296</v>
@@ -7478,7 +7471,7 @@
         <v>32</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E92" s="7" t="s">
         <v>299</v>
@@ -7542,7 +7535,7 @@
         <v>32</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E93" s="7" t="s">
         <v>302</v>
@@ -7606,7 +7599,7 @@
         <v>32</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E94" s="7" t="s">
         <v>305</v>
@@ -7732,7 +7725,7 @@
         <v>32</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E96" s="7" t="s">
         <v>311</v>
@@ -7796,7 +7789,7 @@
         <v>32</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E97" s="7" t="s">
         <v>314</v>
@@ -7860,7 +7853,7 @@
         <v>32</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E98" s="7" t="s">
         <v>317</v>
@@ -7924,7 +7917,7 @@
         <v>32</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E99" s="7" t="s">
         <v>320</v>
@@ -8238,7 +8231,7 @@
         <v>32</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E104" s="7" t="s">
         <v>336</v>
@@ -8302,7 +8295,7 @@
         <v>32</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E105" s="7" t="s">
         <v>339</v>
@@ -8552,7 +8545,7 @@
         <v>32</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E109" s="7" t="s">
         <v>351</v>
@@ -8678,7 +8671,7 @@
         <v>32</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E111" s="7" t="s">
         <v>357</v>
@@ -8804,7 +8797,7 @@
         <v>32</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E113" s="7" t="s">
         <v>363</v>
@@ -8930,7 +8923,7 @@
         <v>32</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E115" s="7" t="s">
         <v>369</v>
@@ -8994,7 +8987,7 @@
         <v>32</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E116" s="7" t="s">
         <v>372</v>
@@ -9310,7 +9303,7 @@
         <v>32</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E121" s="7" t="s">
         <v>389</v>
@@ -9436,7 +9429,7 @@
         <v>32</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E123" s="7" t="s">
         <v>395</v>
@@ -9500,7 +9493,7 @@
         <v>32</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E124" s="7" t="s">
         <v>398</v>
@@ -9564,7 +9557,7 @@
         <v>32</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E125" s="7" t="s">
         <v>401</v>
@@ -9628,7 +9621,7 @@
         <v>32</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E126" s="7" t="s">
         <v>404</v>
@@ -9875,13 +9868,11 @@
         <v>415</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D130" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D130" s="7"/>
+      <c r="E130" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="E130" s="7" t="s">
-        <v>417</v>
       </c>
       <c r="F130" s="7" t="s">
         <v>15</v>
@@ -9933,19 +9924,19 @@
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="B131" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="B131" s="7" t="s">
-        <v>419</v>
       </c>
       <c r="C131" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E131" s="7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F131" s="7" t="s">
         <v>15</v>
@@ -9997,19 +9988,19 @@
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="B132" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="B132" s="7" t="s">
-        <v>422</v>
       </c>
       <c r="C132" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D132" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="E132" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="E132" s="7" t="s">
-        <v>424</v>
       </c>
       <c r="F132" s="7" t="s">
         <v>15</v>
@@ -10061,17 +10052,17 @@
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="B133" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="B133" s="7" t="s">
-        <v>426</v>
       </c>
       <c r="C133" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D133" s="7"/>
       <c r="E133" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F133" s="7" t="s">
         <v>15</v>
@@ -10123,19 +10114,19 @@
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="B134" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="B134" s="7" t="s">
-        <v>429</v>
       </c>
       <c r="C134" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E134" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F134" s="7" t="s">
         <v>15</v>
@@ -10187,19 +10178,19 @@
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="B135" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="B135" s="7" t="s">
-        <v>432</v>
       </c>
       <c r="C135" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F135" s="7" t="s">
         <v>15</v>
@@ -10251,17 +10242,17 @@
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="B136" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="B136" s="7" t="s">
-        <v>435</v>
       </c>
       <c r="C136" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D136" s="7"/>
       <c r="E136" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F136" s="7" t="s">
         <v>15</v>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -1714,8 +1714,8 @@
   </sheetPr>
   <dimension ref="A1:AK297"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B58" activeCellId="0" sqref="B58"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -91,6 +91,15 @@
     <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/RoomService.html</t>
   </si>
   <si>
+    <t xml:space="preserve">actiontasks.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actioning Tasks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/actiontasks.html</t>
+  </si>
+  <si>
     <t xml:space="preserve">dutylog.html</t>
   </si>
   <si>
@@ -146,18 +155,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/allocating.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ArrRegCard.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preparing Arriving Guest Reg Cards</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/ArrRegCard.html</t>
   </si>
   <si>
     <t xml:space="preserve">Audit.html</t>
@@ -251,6 +248,18 @@
     <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/cxlres.html</t>
   </si>
   <si>
+    <t xml:space="preserve">Chargebacks.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chargebacks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Need DBill images from iHMS (no DBILL option in payment)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/Chargebacks.html</t>
+  </si>
+  <si>
     <t xml:space="preserve">rescbauth.html</t>
   </si>
   <si>
@@ -260,16 +269,43 @@
     <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/rescbauth.html</t>
   </si>
   <si>
-    <t xml:space="preserve">Chargebacks.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chargebacks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Need DBill images from iHMS (no DBILL option in payment)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/Chargebacks.html</t>
+    <t xml:space="preserve">Check-in.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check-In Procedure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/Check-in.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check-out.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check-Out Procedure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/Check-out.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CorpRates.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checking Corporate Rates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/CorpRates.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CheckB2B.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checking For Back To Back (B2B) Bookings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Need images | awaiting iHMS update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/CheckB2B.html</t>
   </si>
   <si>
     <t xml:space="preserve">checkpend.html</t>
@@ -281,45 +317,6 @@
     <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/checkpend.html</t>
   </si>
   <si>
-    <t xml:space="preserve">Check-in.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check-In Procedure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/Check-in.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check-out.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check-Out Procedure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/Check-out.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CorpRates.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checking Corporate Rates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/CorpRates.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CheckB2B.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checking For Back To Back (B2B) Bookings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Need images | awaiting iHMS update</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/CheckB2B.html</t>
-  </si>
-  <si>
     <t xml:space="preserve">ArrDepRM.html</t>
   </si>
   <si>
@@ -344,9 +341,21 @@
     <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/chiller.html</t>
   </si>
   <si>
+    <t xml:space="preserve">Roubler.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clocking In / Out Of Roubler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/Roubler.html</t>
+  </si>
+  <si>
     <t xml:space="preserve">DepartedRegCard.html</t>
   </si>
   <si>
+    <t xml:space="preserve">PM</t>
+  </si>
+  <si>
     <t xml:space="preserve">Collecting All Departed Reg Cards</t>
   </si>
   <si>
@@ -362,6 +371,45 @@
     <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/commis.html</t>
   </si>
   <si>
+    <t xml:space="preserve">BinChecks.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Completing Bin Checks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/BinChecks.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ContractorContacts.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contractor Contact Details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get contractor details for table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/ContractorContacts.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contractor.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contractor Sign-in Procedure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/contractor.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tills.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Counting Your Till</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/Tills.html</t>
+  </si>
+  <si>
     <t xml:space="preserve">compprofile.html</t>
   </si>
   <si>
@@ -371,45 +419,6 @@
     <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/compprofile.html</t>
   </si>
   <si>
-    <t xml:space="preserve">BinChecks.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Completing Bin Checks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/BinChecks.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ContractorContacts.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contractor Contact Details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get contractor details for table</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/ContractorContacts.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contractor.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contractor Sign-in Procedure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/contractor.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tills.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Counting Your Till</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/Tills.html</t>
-  </si>
-  <si>
     <t xml:space="preserve">gstprofile.html</t>
   </si>
   <si>
@@ -428,6 +437,15 @@
     <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/CreateRes.html</t>
   </si>
   <si>
+    <t xml:space="preserve">makeres.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Need images ***CHECK IF SAME AS CREATERES***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/makeres.html</t>
+  </si>
+  <si>
     <t xml:space="preserve">CCAuthAndTransfer.html</t>
   </si>
   <si>
@@ -473,6 +491,18 @@
     <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/DBill.html</t>
   </si>
   <si>
+    <t xml:space="preserve">dryclean.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dry Cleaning Procedure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Need images | What company are we actually with???</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/dryclean.html</t>
+  </si>
+  <si>
     <t xml:space="preserve">ea.html</t>
   </si>
   <si>
@@ -578,6 +608,639 @@
     <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/Fire.html</t>
   </si>
   <si>
+    <t xml:space="preserve">Walk.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Floor Walk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/Walk.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">foxtel_reboot.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foxtel Reboot Procedure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/foxtel_reboot.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resgrp.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group Reservations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/resgrp.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bumped_walked.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guest Relocation Procedure (Overbooking)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/bumped_walked.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSA.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guest Services Agent  SOPs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/GSA.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">checklist.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guest Services Agent (GSA) Checklists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/checklist.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSA_Manual.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guest Services Agent Manual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/GSA_Manual.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handover.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handover &amp; What To Pass On To The Next Shift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/Handover.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">holdup_button.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hold Up Button Procedure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/holdup_button.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">accessibility.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hotel Accessibility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/accessibility.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iHMS.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iHMS Walkthrough</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WORKING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">***WORKING***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/iHMS.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resinb.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inbound Reservations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/resinb.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">introom.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interconnecting Rooms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/introom.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LCO.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Late Check-outs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/LCO.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MaintainX.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logging Maintenance Jobs in MaintainX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/MaintainX.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lost.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lost Property Procedure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/Lost.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Storage.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luggage Storage Procedure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/Storage.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">checkroomready.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Making Sure Rooms Are Ready By 2:00pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/checkroomready.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segments.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Market Segments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/Segments.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mergeguest.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merging Guest Profiles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/mergeguest.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modres.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modifying A Reservation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/modres.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">movielink.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Movielink Procedure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/movielink.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Night Audit GSA SOPs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/NA.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA_Manual.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Night Audit Manual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Need images | ensure everything is updated for iHMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/NA_Manual.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noise.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noise &amp; Party Policy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/Noise.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BlackFolder.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organising The Black Folder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/BlackFolder.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DepRegCard.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organising The Departed Reg Cards For Night Audit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/DepRegCard.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">packages.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Package Logging Procedure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/packages.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">passport.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Passport Bonds For Shipping Companies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/passport.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phoneetiquette.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phone Etiquette</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/phoneetiquette.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transactions.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Posting Charges To Folios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/Transactions.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PreAuth.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pre-Authorisations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/PreAuth.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bfast.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pre-Order Breakfast Procedure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/Bfast.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArrRegCard.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preparing Arriving Guest Reg Cards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/ArrRegCard.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NextShift.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preparing For The Next Shift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/NextShift.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check12.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Printing In House Checklist 1 &amp; 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/Check12.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prepregcard.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Printing Registration Cards For the Next Day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/prepregcard.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reqpaperwork.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Printing Required Paperwork For Arriving Reg Cards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/reqpaperwork.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARPendRep.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Printing The AR Pending Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/ARPendRep.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CashGuestList.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Printing the Cash Guest Listing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/CashGuestList.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CBReport.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Printing The Chargeback Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/CBReport.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DepSummRep.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Printing The Expected Departure Summary Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/DepSummRep.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOCWater.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Printing The FOC Water Sheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/FOCWater.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpexInstRep.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Printing The Folio Special Instructions by Check Out Date Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/SpexInstRep.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GstList.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Printing The In House Guest Listing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/GstList.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RateCode.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rate Codes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/RateCode.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refund.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refund Procedure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/Refund.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResAbb.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reservation Abbreviations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">***correct formatting for tables***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/ResAbb.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">respromo.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reservation Promotions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/respromo.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Res_Manual.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reservations Manual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/Res_Manual.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Res.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reservations SOPs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/Res.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reversals.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reversals &amp; Error Corrections</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/Reversals.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moves.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room Moves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/Moves.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNR.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room Not Ready (RNR) Procedure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/RNR.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boxes.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Safety Deposit Box Procedure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/Boxes.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invoices.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saving, Printing &amp; Sending Invoices To Guests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/Invoices.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">secondEff.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Second Effort Program</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/secondEff.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tasks.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setting Tasks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/Tasks.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shipping.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shipping Companies Procedure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/Shipping.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silent.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silent Guest Procedure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/Silent.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">smoking.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smoking Policy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/smoking.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpexGuide.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Special Instructions Guide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Need updated images</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/SpexGuide.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StaffContacts.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Staff Contact Details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get updated staff contact details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/StaffContacts.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StartShift.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Starting Your Shift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update for iHMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/StartShift.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taxis.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taxi Procedure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/Taxis.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NATips.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tips for Night Auditors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/NATips.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TopUp.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Top Ups</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/TopUp.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBillProbs.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Troubleshooting Direct Bill Problems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/DBillProbs.html</t>
+  </si>
+  <si>
     <t xml:space="preserve">iHMSProbs.html</t>
   </si>
   <si>
@@ -587,448 +1250,13 @@
     <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/iHMSProbs.html</t>
   </si>
   <si>
-    <t xml:space="preserve">Walk.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Floor Walk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/Walk.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">foxtel_reboot.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Foxtel Reboot Procedure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/foxtel_reboot.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resgrp.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group Reservations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/resgrp.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bumped_walked.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guest Relocation Procedure (Overbooking)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/bumped_walked.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSA.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guest Services Agent  SOPs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/GSA.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">checklist.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guest Services Agent (GSA) Checklists</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/checklist.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSA_Manual.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guest Services Agent Manual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/GSA_Manual.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Handover.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Handover &amp; What To Pass On To The Next Shift</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/Handover.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">holdup_button.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hold Up Button Procedure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/holdup_button.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">accessibility.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hotel Accessibility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/accessibility.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">actiontasks.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actioning Tasks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/actiontasks.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iHMS.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iHMS Walkthrough</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WORKING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">***WORKING***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/iHMS.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resinb.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inbound Reservations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/resinb.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">introom.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interconnecting Rooms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/introom.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LCO.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Late Check-outs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/LCO.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dryclean.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dry Cleaning Procedure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Need images | What company are we actually with???</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/dryclean.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MaintainX.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Logging Maintenance Jobs in MaintainX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/MaintainX.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lost.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lost Property Procedure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/Lost.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Storage.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luggage Storage Procedure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/Storage.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">makeres.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Need images ***CHECK IF SAME AS CREATERES***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/makeres.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">checkroomready.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Making Sure Rooms Are Ready By 2:00pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/checkroomready.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Segments.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Market Segments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/Segments.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mergeguest.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merging Guest Profiles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/mergeguest.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modres.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modifying A Reservation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/modres.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">movielink.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Movielink Procedure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/movielink.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Night Audit GSA SOPs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/NA.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA_Manual.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Night Audit Manual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Need images | ensure everything is updated for iHMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/NA_Manual.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NATips.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tips for Night Auditors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/NATips.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Noise.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Noise &amp; Party Policy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/Noise.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BlackFolder.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Organising The Black Folder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/BlackFolder.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DepRegCard.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Organising The Departed Reg Cards For Night Audit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/DepRegCard.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">packages.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Package Logging Procedure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/packages.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">passport.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Passport Bonds For Shipping Companies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/passport.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phoneetiquette.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phone Etiquette</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/phoneetiquette.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transactions.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Posting Charges To Folios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/Transactions.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PreAuth.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pre-Authorisations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/PreAuth.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bfast.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pre-Order Breakfast Procedure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/Bfast.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NextShift.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preparing For The Next Shift</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/NextShift.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check12.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Printing In House Checklist 1 &amp; 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/Check12.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prepregcard.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Printing Registration Cards For the Next Day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/prepregcard.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reqpaperwork.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Printing Required Paperwork For Arriving Reg Cards</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/reqpaperwork.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARPendRep.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Printing The AR Pending Report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/ARPendRep.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CashGuestList.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Printing the Cash Guest Listing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/CashGuestList.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CBReport.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Printing The Chargeback Report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/CBReport.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DepSummRep.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Printing The Expected Departure Summary Report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/DepSummRep.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FOCWater.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Printing The FOC Water Sheet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/FOCWater.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpexInstRep.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Printing The Folio Special Instructions by Check Out Date Report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/SpexInstRep.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GstList.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Printing The In House Guest Listing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/GstList.html</t>
+    <t xml:space="preserve">Maintenance.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Troubleshooting Maintenance Issues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/Maintenance.html</t>
   </si>
   <si>
     <t xml:space="preserve">raptor.html</t>
@@ -1040,234 +1268,6 @@
     <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/raptor.html</t>
   </si>
   <si>
-    <t xml:space="preserve">Refund.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Refund Procedure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/Refund.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ResAbb.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reservation Abbreviations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">***correct formatting for tables***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/ResAbb.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">respromo.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reservation Promotions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/respromo.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Res_Manual.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reservations Manual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/Res_Manual.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Res.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reservations SOPs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/Res.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reversals.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reversals &amp; Error Corrections</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/Reversals.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moves.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Room Moves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/Moves.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNR.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Room Not Ready (RNR) Procedure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/RNR.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RateCode.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rate Codes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/RateCode.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roubler.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clocking In / Out Of Roubler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/Roubler.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boxes.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Safety Deposit Box Procedure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/Boxes.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Invoices.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saving, Printing &amp; Sending Invoices To Guests</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/Invoices.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tasks.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Setting Tasks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/Tasks.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shipping.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shipping Companies Procedure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/Shipping.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Silent.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Silent Guest Procedure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/Silent.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">smoking.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smoking Policy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/smoking.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpexGuide.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Special Instructions Guide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Need updated images</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/SpexGuide.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StaffContacts.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Staff Contact Details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get updated staff contact details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/StaffContacts.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StartShift.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Starting Your Shift</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Update for iHMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/StartShift.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taxis.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taxi Procedure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/Taxis.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">secondEff.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Second Effort Program</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/secondEff.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TopUp.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Top Ups</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/TopUp.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DBillProbs.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Troubleshooting Direct Bill Problems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/DBillProbs.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maintenance.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Troubleshooting Maintenance Issues</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/Maintenance.html</t>
-  </si>
-  <si>
     <t xml:space="preserve">saflokprobs.html</t>
   </si>
   <si>
@@ -1289,7 +1289,7 @@
     <t xml:space="preserve">restype.html</t>
   </si>
   <si>
-    <t xml:space="preserve">Types Of Bookings</t>
+    <t xml:space="preserve">Types Of Reservation</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/restype.html</t>
@@ -1316,7 +1316,7 @@
     <t xml:space="preserve">UpdRegCard.html</t>
   </si>
   <si>
-    <t xml:space="preserve">Updating Registration Cards</t>
+    <t xml:space="preserve">Updating Guest Registration Cards</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/UpdRegCard.html</t>
@@ -1337,7 +1337,7 @@
     <t xml:space="preserve">vip.html</t>
   </si>
   <si>
-    <t xml:space="preserve">VIP Codes</t>
+    <t xml:space="preserve">VIP Status Codes</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/vip.html</t>
@@ -1355,7 +1355,7 @@
     <t xml:space="preserve">Wake.html</t>
   </si>
   <si>
-    <t xml:space="preserve">Wake Up Calls</t>
+    <t xml:space="preserve">Wake Up Call Procedure</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/Wake.html</t>
@@ -1753,8 +1753,8 @@
   </sheetPr>
   <dimension ref="A1:AL297"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A106" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C127" activeCellId="0" sqref="C127"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1990,21 +1990,21 @@
       </c>
       <c r="H4" s="6" t="str">
         <f aca="false">A4</f>
-        <v>dutylog.html</v>
+        <v>actiontasks.html</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J4" s="6" t="str">
         <f aca="false">C4</f>
-        <v>Actioning The Duty Log</v>
+        <v>Actioning Tasks</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L4" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="dutylog.html"&gt;Actioning The Duty Log&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="actiontasks.html"&gt;Actioning Tasks&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
@@ -2038,38 +2038,38 @@
         <v>26</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H5" s="6" t="str">
         <f aca="false">A5</f>
-        <v>addresspend.html</v>
+        <v>dutylog.html</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J5" s="6" t="str">
         <f aca="false">C5</f>
-        <v>Addressing Pending Arrivals</v>
+        <v>Actioning The Duty Log</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L5" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="addresspend.html"&gt;Addressing Pending Arrivals&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="dutylog.html"&gt;Actioning The Duty Log&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
@@ -2100,41 +2100,41 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H6" s="6" t="str">
         <f aca="false">A6</f>
-        <v>alarm.html</v>
+        <v>addresspend.html</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J6" s="6" t="str">
         <f aca="false">C6</f>
-        <v>Alarm System Procedure</v>
+        <v>Addressing Pending Arrivals</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L6" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="alarm.html"&gt;Alarm System Procedure&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="addresspend.html"&gt;Addressing Pending Arrivals&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
@@ -2165,41 +2165,42 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H7" s="6" t="str">
         <f aca="false">A7</f>
-        <v>General.html</v>
+        <v>alarm.html</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J7" s="6" t="str">
         <f aca="false">C7</f>
-        <v>All SOPs</v>
+        <v>Alarm System Procedure</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="6"/>
+      <c r="L7" s="6" t="str">
+        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="alarm.html"&gt;Alarm System Procedure&lt;/a&gt;&lt;/p&gt;</v>
+      </c>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
@@ -2229,18 +2230,20 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="E8" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="6"/>
       <c r="F8" s="6" t="s">
         <v>41</v>
       </c>
@@ -2249,22 +2252,19 @@
       </c>
       <c r="H8" s="6" t="str">
         <f aca="false">A8</f>
-        <v>allocating.html</v>
+        <v>General.html</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J8" s="6" t="str">
         <f aca="false">C8</f>
-        <v>Allocating Rooms</v>
+        <v>All SOPs</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="allocating.html"&gt;Allocating Rooms&lt;/a&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="L8" s="6"/>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
@@ -2297,38 +2297,38 @@
         <v>42</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>44</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H9" s="6" t="str">
         <f aca="false">A9</f>
-        <v>ArrRegCard.html</v>
+        <v>allocating.html</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J9" s="6" t="str">
         <f aca="false">C9</f>
-        <v>Preparing Arriving Guest Reg Cards</v>
+        <v>Allocating Rooms</v>
       </c>
       <c r="K9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L9" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="ArrRegCard.html"&gt;Preparing Arriving Guest Reg Cards&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="allocating.html"&gt;Allocating Rooms&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
@@ -2359,20 +2359,20 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>47</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>17</v>
@@ -2424,22 +2424,22 @@
     </row>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="D11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="11" t="s">
+      <c r="F11" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>52</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>17</v>
@@ -2491,22 +2491,22 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="D12" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="6" t="s">
+      <c r="F12" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>56</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>17</v>
@@ -2558,20 +2558,20 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>17</v>
@@ -2623,20 +2623,20 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>61</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>17</v>
@@ -2688,20 +2688,20 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>17</v>
@@ -2753,20 +2753,20 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>68</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>17</v>
@@ -2818,20 +2818,20 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>71</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>17</v>
@@ -2883,20 +2883,20 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>74</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>17</v>
@@ -2948,18 +2948,20 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="6" t="s">
+      <c r="D19" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="6"/>
       <c r="F19" s="6" t="s">
         <v>78</v>
       </c>
@@ -2968,21 +2970,21 @@
       </c>
       <c r="H19" s="6" t="str">
         <f aca="false">A19</f>
-        <v>rescbauth.html</v>
+        <v>Chargebacks.html</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J19" s="6" t="str">
         <f aca="false">C19</f>
-        <v>Chargebacks &amp; Payment Authorisation Forms</v>
+        <v>Chargebacks</v>
       </c>
       <c r="K19" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L19" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="rescbauth.html"&gt;Chargebacks &amp; Payment Authorisation Forms&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Chargebacks.html"&gt;Chargebacks&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
@@ -3016,40 +3018,38 @@
         <v>79</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>80</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6" t="s">
         <v>81</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>82</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H20" s="6" t="str">
         <f aca="false">A20</f>
-        <v>Chargebacks.html</v>
+        <v>rescbauth.html</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J20" s="6" t="str">
         <f aca="false">C20</f>
-        <v>Chargebacks</v>
+        <v>Chargebacks &amp; Payment Authorisation Forms</v>
       </c>
       <c r="K20" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L20" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Chargebacks.html"&gt;Chargebacks&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="rescbauth.html"&gt;Chargebacks &amp; Payment Authorisation Forms&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
@@ -3080,41 +3080,41 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>83</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>84</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H21" s="6" t="str">
         <f aca="false">A21</f>
-        <v>checkpend.html</v>
+        <v>Check-in.html</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J21" s="6" t="str">
         <f aca="false">C21</f>
-        <v>Checking Pending Arrivals, Departures &amp; Room Moves</v>
+        <v>Check-In Procedure</v>
       </c>
       <c r="K21" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L21" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="checkpend.html"&gt;Checking Pending Arrivals, Departures &amp; Room Moves&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Check-in.html"&gt;Check-In Procedure&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
@@ -3145,41 +3145,41 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H22" s="6" t="str">
         <f aca="false">A22</f>
-        <v>Check-in.html</v>
+        <v>Check-out.html</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J22" s="6" t="str">
         <f aca="false">C22</f>
-        <v>Check-In Procedure</v>
+        <v>Check-Out Procedure</v>
       </c>
       <c r="K22" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L22" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Check-in.html"&gt;Check-In Procedure&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Check-out.html"&gt;Check-Out Procedure&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
@@ -3210,41 +3210,41 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>89</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>90</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H23" s="6" t="str">
         <f aca="false">A23</f>
-        <v>Check-out.html</v>
+        <v>CorpRates.html</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J23" s="6" t="str">
         <f aca="false">C23</f>
-        <v>Check-Out Procedure</v>
+        <v>Checking Corporate Rates</v>
       </c>
       <c r="K23" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L23" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Check-out.html"&gt;Check-Out Procedure&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="CorpRates.html"&gt;Checking Corporate Rates&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
@@ -3275,18 +3275,20 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" s="6" t="s">
+      <c r="D24" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="6"/>
       <c r="F24" s="6" t="s">
         <v>94</v>
       </c>
@@ -3295,21 +3297,21 @@
       </c>
       <c r="H24" s="6" t="str">
         <f aca="false">A24</f>
-        <v>CorpRates.html</v>
+        <v>CheckB2B.html</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J24" s="6" t="str">
         <f aca="false">C24</f>
-        <v>Checking Corporate Rates</v>
+        <v>Checking For Back To Back (B2B) Bookings</v>
       </c>
       <c r="K24" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L24" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="CorpRates.html"&gt;Checking Corporate Rates&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="CheckB2B.html"&gt;Checking For Back To Back (B2B) Bookings&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
@@ -3343,40 +3345,38 @@
         <v>95</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>96</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>98</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H25" s="6" t="str">
         <f aca="false">A25</f>
-        <v>CheckB2B.html</v>
+        <v>checkpend.html</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J25" s="6" t="str">
         <f aca="false">C25</f>
-        <v>Checking For Back To Back (B2B) Bookings</v>
+        <v>Checking Pending Arrivals, Departures &amp; Room Moves</v>
       </c>
       <c r="K25" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L25" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="CheckB2B.html"&gt;Checking For Back To Back (B2B) Bookings&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="checkpend.html"&gt;Checking Pending Arrivals, Departures &amp; Room Moves&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
@@ -3407,20 +3407,20 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>17</v>
@@ -3472,20 +3472,20 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>17</v>
@@ -3537,20 +3537,20 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>104</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>105</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>17</v>
@@ -3602,41 +3602,43 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="6" t="s">
+      <c r="D29" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" s="6" t="s">
         <v>108</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6" t="s">
-        <v>109</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H29" s="6" t="str">
         <f aca="false">A29</f>
-        <v>DepartedRegCard.html</v>
+        <v>Roubler.html</v>
       </c>
       <c r="I29" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J29" s="6" t="str">
         <f aca="false">C29</f>
-        <v>Collecting All Departed Reg Cards</v>
+        <v>Clocking In / Out Of Roubler</v>
       </c>
       <c r="K29" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L29" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="DepartedRegCard.html"&gt;Collecting All Departed Reg Cards&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Roubler.html"&gt;Clocking In / Out Of Roubler&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
@@ -3667,10 +3669,10 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>111</v>
@@ -3687,21 +3689,21 @@
       </c>
       <c r="H30" s="6" t="str">
         <f aca="false">A30</f>
-        <v>commis.html</v>
+        <v>DepartedRegCard.html</v>
       </c>
       <c r="I30" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J30" s="6" t="str">
         <f aca="false">C30</f>
-        <v>Commissions</v>
+        <v>Collecting All Departed Reg Cards</v>
       </c>
       <c r="K30" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L30" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="commis.html"&gt;Commissions&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="DepartedRegCard.html"&gt;Collecting All Departed Reg Cards&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
@@ -3735,7 +3737,7 @@
         <v>113</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>114</v>
@@ -3752,21 +3754,21 @@
       </c>
       <c r="H31" s="6" t="str">
         <f aca="false">A31</f>
-        <v>compprofile.html</v>
+        <v>commis.html</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J31" s="6" t="str">
         <f aca="false">C31</f>
-        <v>Creating a Company Profile</v>
+        <v>Commissions</v>
       </c>
       <c r="K31" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L31" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="compprofile.html"&gt;Creating a Company Profile&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="commis.html"&gt;Commissions&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
@@ -3800,7 +3802,7 @@
         <v>116</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>117</v>
@@ -3865,13 +3867,13 @@
         <v>119</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>120</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>121</v>
@@ -4062,7 +4064,7 @@
         <v>129</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>130</v>
@@ -4079,21 +4081,21 @@
       </c>
       <c r="H36" s="6" t="str">
         <f aca="false">A36</f>
-        <v>gstprofile.html</v>
+        <v>compprofile.html</v>
       </c>
       <c r="I36" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J36" s="6" t="str">
         <f aca="false">C36</f>
-        <v>Creating a Guest Profile</v>
+        <v>Creating a Company Profile</v>
       </c>
       <c r="K36" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L36" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="gstprofile.html"&gt;Creating a Guest Profile&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="compprofile.html"&gt;Creating a Company Profile&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
@@ -4127,7 +4129,7 @@
         <v>132</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>133</v>
@@ -4144,21 +4146,21 @@
       </c>
       <c r="H37" s="6" t="str">
         <f aca="false">A37</f>
-        <v>CreateRes.html</v>
+        <v>gstprofile.html</v>
       </c>
       <c r="I37" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J37" s="6" t="str">
         <f aca="false">C37</f>
-        <v>Creating A Reservation</v>
+        <v>Creating a Guest Profile</v>
       </c>
       <c r="K37" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L37" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="CreateRes.html"&gt;Creating A Reservation&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="gstprofile.html"&gt;Creating a Guest Profile&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
@@ -4192,40 +4194,38 @@
         <v>135</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>136</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E38" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6" t="s">
         <v>137</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>138</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H38" s="6" t="str">
         <f aca="false">A38</f>
-        <v>CCAuthAndTransfer.html</v>
+        <v>CreateRes.html</v>
       </c>
       <c r="I38" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J38" s="6" t="str">
         <f aca="false">C38</f>
-        <v>Credit Card Authorisations &amp; Bank Transfers</v>
+        <v>Creating A Reservation</v>
       </c>
       <c r="K38" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L38" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="CCAuthAndTransfer.html"&gt;Credit Card Authorisations &amp; Bank Transfers&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="CreateRes.html"&gt;Creating A Reservation&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M38" s="9"/>
       <c r="N38" s="9"/>
@@ -4256,41 +4256,43 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E39" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="F39" s="6" t="s">
         <v>140</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6" t="s">
-        <v>142</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H39" s="6" t="str">
         <f aca="false">A39</f>
-        <v>checkreg.html</v>
+        <v>makeres.html</v>
       </c>
       <c r="I39" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J39" s="6" t="str">
         <f aca="false">C39</f>
-        <v>Cross-Check Departing Reg Cards Against Expected Departure Summary</v>
+        <v>Creating A Reservation</v>
       </c>
       <c r="K39" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L39" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="checkreg.html"&gt;Cross-Check Departing Reg Cards Against Expected Departure Summary&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="makeres.html"&gt;Creating A Reservation&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M39" s="9"/>
       <c r="N39" s="9"/>
@@ -4321,43 +4323,43 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="B40" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C40" s="6" t="s">
+      <c r="F40" s="6" t="s">
         <v>144</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>146</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H40" s="6" t="str">
         <f aca="false">A40</f>
-        <v>CutKey.html</v>
+        <v>CCAuthAndTransfer.html</v>
       </c>
       <c r="I40" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J40" s="6" t="str">
         <f aca="false">C40</f>
-        <v>Cutting A Room Key</v>
+        <v>Credit Card Authorisations &amp; Bank Transfers</v>
       </c>
       <c r="K40" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L40" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="CutKey.html"&gt;Cutting A Room Key&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="CCAuthAndTransfer.html"&gt;Credit Card Authorisations &amp; Bank Transfers&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M40" s="9"/>
       <c r="N40" s="9"/>
@@ -4388,43 +4390,41 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="B41" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C41" s="6" t="s">
+      <c r="D41" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6" t="s">
         <v>148</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>149</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H41" s="6" t="str">
         <f aca="false">A41</f>
-        <v>DBill.html</v>
+        <v>checkreg.html</v>
       </c>
       <c r="I41" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J41" s="6" t="str">
         <f aca="false">C41</f>
-        <v>Direct Billing</v>
+        <v>Cross-Check Departing Reg Cards Against Expected Departure Summary</v>
       </c>
       <c r="K41" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L41" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="DBill.html"&gt;Direct Billing&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="checkreg.html"&gt;Cross-Check Departing Reg Cards Against Expected Departure Summary&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M41" s="9"/>
       <c r="N41" s="9"/>
@@ -4455,18 +4455,20 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E42" s="6"/>
+      <c r="E42" s="6" t="s">
+        <v>151</v>
+      </c>
       <c r="F42" s="6" t="s">
         <v>152</v>
       </c>
@@ -4475,21 +4477,21 @@
       </c>
       <c r="H42" s="6" t="str">
         <f aca="false">A42</f>
-        <v>ea.html</v>
+        <v>CutKey.html</v>
       </c>
       <c r="I42" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J42" s="6" t="str">
         <f aca="false">C42</f>
-        <v>Early Arrival Procedure</v>
+        <v>Cutting A Room Key</v>
       </c>
       <c r="K42" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L42" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="ea.html"&gt;Early Arrival Procedure&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="CutKey.html"&gt;Cutting A Room Key&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M42" s="9"/>
       <c r="N42" s="9"/>
@@ -4529,9 +4531,11 @@
         <v>154</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E43" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>93</v>
+      </c>
       <c r="F43" s="6" t="s">
         <v>155</v>
       </c>
@@ -4540,21 +4544,21 @@
       </c>
       <c r="H43" s="6" t="str">
         <f aca="false">A43</f>
-        <v>Assistance.html</v>
+        <v>DBill.html</v>
       </c>
       <c r="I43" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J43" s="6" t="str">
         <f aca="false">C43</f>
-        <v>Emergency Assistance Procedure</v>
+        <v>Direct Billing</v>
       </c>
       <c r="K43" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L43" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Assistance.html"&gt;Emergency Assistance Procedure&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="DBill.html"&gt;Direct Billing&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M43" s="9"/>
       <c r="N43" s="9"/>
@@ -4594,32 +4598,34 @@
         <v>157</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E44" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>158</v>
+      </c>
       <c r="F44" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H44" s="6" t="str">
         <f aca="false">A44</f>
-        <v>EndShift.html</v>
+        <v>dryclean.html</v>
       </c>
       <c r="I44" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J44" s="6" t="str">
         <f aca="false">C44</f>
-        <v>Ending Your Shift</v>
+        <v>Dry Cleaning Procedure</v>
       </c>
       <c r="K44" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L44" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="EndShift.html"&gt;Ending Your Shift&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="dryclean.html"&gt;Dry Cleaning Procedure&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M44" s="9"/>
       <c r="N44" s="9"/>
@@ -4650,41 +4656,41 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E45" s="6"/>
       <c r="F45" s="6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H45" s="6" t="str">
         <f aca="false">A45</f>
-        <v>checkingcheckouts.html</v>
+        <v>ea.html</v>
       </c>
       <c r="I45" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J45" s="6" t="str">
         <f aca="false">C45</f>
-        <v>Ensure All Guests Due to Depart Have Checked Out</v>
+        <v>Early Arrival Procedure</v>
       </c>
       <c r="K45" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L45" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="checkingcheckouts.html"&gt;Ensure All Guests Due to Depart Have Checked Out&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="ea.html"&gt;Early Arrival Procedure&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M45" s="9"/>
       <c r="N45" s="9"/>
@@ -4715,41 +4721,41 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E46" s="6"/>
       <c r="F46" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G46" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H46" s="6" t="str">
         <f aca="false">A46</f>
-        <v>extres.html</v>
+        <v>Assistance.html</v>
       </c>
       <c r="I46" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J46" s="6" t="str">
         <f aca="false">C46</f>
-        <v>Extending A Reservation</v>
+        <v>Emergency Assistance Procedure</v>
       </c>
       <c r="K46" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L46" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="extres.html"&gt;Extending A Reservation&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Assistance.html"&gt;Emergency Assistance Procedure&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M46" s="9"/>
       <c r="N46" s="9"/>
@@ -4780,20 +4786,18 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>167</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E47" s="6"/>
       <c r="F47" s="6" t="s">
         <v>168</v>
       </c>
@@ -4802,21 +4806,21 @@
       </c>
       <c r="H47" s="6" t="str">
         <f aca="false">A47</f>
-        <v>Functions.html</v>
+        <v>EndShift.html</v>
       </c>
       <c r="I47" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J47" s="6" t="str">
         <f aca="false">C47</f>
-        <v>Familiarise Yourself With Functions</v>
+        <v>Ending Your Shift</v>
       </c>
       <c r="K47" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L47" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Functions.html"&gt;Familiarise Yourself With Functions&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="EndShift.html"&gt;Ending Your Shift&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M47" s="9"/>
       <c r="N47" s="9"/>
@@ -4850,7 +4854,7 @@
         <v>169</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>13</v>
+        <v>146</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>170</v>
@@ -4867,21 +4871,21 @@
       </c>
       <c r="H48" s="6" t="str">
         <f aca="false">A48</f>
-        <v>Groups.html</v>
+        <v>checkingcheckouts.html</v>
       </c>
       <c r="I48" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J48" s="6" t="str">
         <f aca="false">C48</f>
-        <v>Familiarise Yourself With Group Arrivals/Departures</v>
+        <v>Ensure All Guests Due to Depart Have Checked Out</v>
       </c>
       <c r="K48" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L48" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Groups.html"&gt;Familiarise Yourself With Group Arrivals/Departures&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="checkingcheckouts.html"&gt;Ensure All Guests Due to Depart Have Checked Out&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M48" s="9"/>
       <c r="N48" s="9"/>
@@ -4915,7 +4919,7 @@
         <v>172</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>173</v>
@@ -4932,21 +4936,21 @@
       </c>
       <c r="H49" s="6" t="str">
         <f aca="false">A49</f>
-        <v>Incidentals.html</v>
+        <v>extres.html</v>
       </c>
       <c r="I49" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J49" s="6" t="str">
         <f aca="false">C49</f>
-        <v>Familiarise Yourself With Guest Incidentals</v>
+        <v>Extending A Reservation</v>
       </c>
       <c r="K49" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L49" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Incidentals.html"&gt;Familiarise Yourself With Guest Incidentals&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="extres.html"&gt;Extending A Reservation&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M49" s="9"/>
       <c r="N49" s="9"/>
@@ -4980,18 +4984,18 @@
         <v>175</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>176</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="F50" s="12" t="s">
+      <c r="F50" s="6" t="s">
         <v>178</v>
       </c>
       <c r="G50" s="6" t="s">
@@ -4999,21 +5003,21 @@
       </c>
       <c r="H50" s="6" t="str">
         <f aca="false">A50</f>
-        <v>LCO_B2B_RM.html</v>
+        <v>Functions.html</v>
       </c>
       <c r="I50" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J50" s="6" t="str">
         <f aca="false">C50</f>
-        <v>Familiarise Yourself With Late Check Outs, Back To Backs &amp; Room Moves</v>
+        <v>Familiarise Yourself With Functions</v>
       </c>
       <c r="K50" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L50" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="LCO_B2B_RM.html"&gt;Familiarise Yourself With Late Check Outs, Back To Backs &amp; Room Moves&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Functions.html"&gt;Familiarise Yourself With Functions&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M50" s="9"/>
       <c r="N50" s="9"/>
@@ -5064,21 +5068,21 @@
       </c>
       <c r="H51" s="6" t="str">
         <f aca="false">A51</f>
-        <v>findCB.html</v>
+        <v>Groups.html</v>
       </c>
       <c r="I51" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J51" s="6" t="str">
         <f aca="false">C51</f>
-        <v>Finding Chargebacks</v>
+        <v>Familiarise Yourself With Group Arrivals/Departures</v>
       </c>
       <c r="K51" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L51" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="findCB.html"&gt;Finding Chargebacks&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Groups.html"&gt;Familiarise Yourself With Group Arrivals/Departures&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M51" s="9"/>
       <c r="N51" s="9"/>
@@ -5129,21 +5133,21 @@
       </c>
       <c r="H52" s="6" t="str">
         <f aca="false">A52</f>
-        <v>Fire.html</v>
+        <v>Incidentals.html</v>
       </c>
       <c r="I52" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J52" s="6" t="str">
         <f aca="false">C52</f>
-        <v>Fire &amp; Emergency Procedure</v>
+        <v>Familiarise Yourself With Guest Incidentals</v>
       </c>
       <c r="K52" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L52" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Fire.html"&gt;Fire &amp; Emergency Procedure&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Incidentals.html"&gt;Familiarise Yourself With Guest Incidentals&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M52" s="9"/>
       <c r="N52" s="9"/>
@@ -5177,40 +5181,40 @@
         <v>185</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>31</v>
+        <v>146</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>186</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F53" s="6" t="s">
         <v>187</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>188</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H53" s="6" t="str">
         <f aca="false">A53</f>
-        <v>iHMSProbs.html</v>
+        <v>LCO_B2B_RM.html</v>
       </c>
       <c r="I53" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J53" s="6" t="str">
         <f aca="false">C53</f>
-        <v>Troubleshooting iHMS Server Error</v>
+        <v>Familiarise Yourself With Late Check Outs, Back To Backs &amp; Room Moves</v>
       </c>
       <c r="K53" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L53" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="iHMSProbs.html"&gt;Troubleshooting iHMS Server Error&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="LCO_B2B_RM.html"&gt;Familiarise Yourself With Late Check Outs, Back To Backs &amp; Room Moves&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M53" s="9"/>
       <c r="N53" s="9"/>
@@ -5241,41 +5245,41 @@
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E54" s="6"/>
       <c r="F54" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G54" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H54" s="6" t="str">
         <f aca="false">A54</f>
-        <v>Walk.html</v>
+        <v>findCB.html</v>
       </c>
       <c r="I54" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J54" s="6" t="str">
         <f aca="false">C54</f>
-        <v>Floor Walk</v>
+        <v>Finding Chargebacks</v>
       </c>
       <c r="K54" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L54" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Walk.html"&gt;Floor Walk&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="findCB.html"&gt;Finding Chargebacks&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M54" s="9"/>
       <c r="N54" s="9"/>
@@ -5306,41 +5310,41 @@
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E55" s="6"/>
       <c r="F55" s="6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G55" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H55" s="6" t="str">
         <f aca="false">A55</f>
-        <v>foxtel_reboot.html</v>
+        <v>Fire.html</v>
       </c>
       <c r="I55" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J55" s="6" t="str">
         <f aca="false">C55</f>
-        <v>Foxtel Reboot Procedure</v>
+        <v>Fire &amp; Emergency Procedure</v>
       </c>
       <c r="K55" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L55" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="foxtel_reboot.html"&gt;Foxtel Reboot Procedure&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Fire.html"&gt;Fire &amp; Emergency Procedure&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M55" s="9"/>
       <c r="N55" s="9"/>
@@ -5371,41 +5375,41 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G56" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H56" s="6" t="str">
         <f aca="false">A56</f>
-        <v>resgrp.html</v>
+        <v>Walk.html</v>
       </c>
       <c r="I56" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J56" s="6" t="str">
         <f aca="false">C56</f>
-        <v>Group Reservations</v>
+        <v>Floor Walk</v>
       </c>
       <c r="K56" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L56" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="resgrp.html"&gt;Group Reservations&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Walk.html"&gt;Floor Walk&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M56" s="9"/>
       <c r="N56" s="9"/>
@@ -5436,41 +5440,41 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E57" s="6"/>
       <c r="F57" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G57" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H57" s="6" t="str">
         <f aca="false">A57</f>
-        <v>bumped_walked.html</v>
+        <v>foxtel_reboot.html</v>
       </c>
       <c r="I57" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J57" s="6" t="str">
         <f aca="false">C57</f>
-        <v>Guest Relocation Procedure (Overbooking)</v>
+        <v>Foxtel Reboot Procedure</v>
       </c>
       <c r="K57" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L57" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="bumped_walked.html"&gt;Guest Relocation Procedure (Overbooking)&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="foxtel_reboot.html"&gt;Foxtel Reboot Procedure&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M57" s="9"/>
       <c r="N57" s="9"/>
@@ -5501,39 +5505,42 @@
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E58" s="6"/>
       <c r="F58" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G58" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H58" s="6" t="str">
         <f aca="false">A58</f>
-        <v>GSA.html</v>
+        <v>resgrp.html</v>
       </c>
       <c r="I58" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J58" s="6" t="str">
         <f aca="false">C58</f>
-        <v>Guest Services Agent  SOPs</v>
+        <v>Group Reservations</v>
       </c>
       <c r="K58" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L58" s="6"/>
+      <c r="L58" s="6" t="str">
+        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="resgrp.html"&gt;Group Reservations&lt;/a&gt;&lt;/p&gt;</v>
+      </c>
       <c r="M58" s="9"/>
       <c r="N58" s="9"/>
       <c r="O58" s="9"/>
@@ -5563,41 +5570,41 @@
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D59" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E59" s="6"/>
       <c r="F59" s="6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G59" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H59" s="6" t="str">
         <f aca="false">A59</f>
-        <v>checklist.html</v>
+        <v>bumped_walked.html</v>
       </c>
       <c r="I59" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J59" s="6" t="str">
         <f aca="false">C59</f>
-        <v>Guest Services Agent (GSA) Checklists</v>
+        <v>Guest Relocation Procedure (Overbooking)</v>
       </c>
       <c r="K59" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L59" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="checklist.html"&gt;Guest Services Agent (GSA) Checklists&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="bumped_walked.html"&gt;Guest Relocation Procedure (Overbooking)&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M59" s="9"/>
       <c r="N59" s="9"/>
@@ -5628,36 +5635,34 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>177</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E60" s="6"/>
       <c r="F60" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G60" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H60" s="6" t="str">
         <f aca="false">A60</f>
-        <v>GSA_Manual.html</v>
+        <v>GSA.html</v>
       </c>
       <c r="I60" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J60" s="6" t="str">
         <f aca="false">C60</f>
-        <v>Guest Services Agent Manual</v>
+        <v>Guest Services Agent  SOPs</v>
       </c>
       <c r="K60" s="6" t="s">
         <v>19</v>
@@ -5692,41 +5697,41 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D61" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E61" s="6"/>
       <c r="F61" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G61" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H61" s="6" t="str">
         <f aca="false">A61</f>
-        <v>Handover.html</v>
+        <v>checklist.html</v>
       </c>
       <c r="I61" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J61" s="6" t="str">
         <f aca="false">C61</f>
-        <v>Handover &amp; What To Pass On To The Next Shift</v>
+        <v>Guest Services Agent (GSA) Checklists</v>
       </c>
       <c r="K61" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L61" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Handover.html"&gt;Handover &amp; What To Pass On To The Next Shift&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="checklist.html"&gt;Guest Services Agent (GSA) Checklists&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M61" s="9"/>
       <c r="N61" s="9"/>
@@ -5757,42 +5762,41 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E62" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>187</v>
+      </c>
       <c r="F62" s="6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G62" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H62" s="6" t="str">
         <f aca="false">A62</f>
-        <v>holdup_button.html</v>
+        <v>GSA_Manual.html</v>
       </c>
       <c r="I62" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J62" s="6" t="str">
         <f aca="false">C62</f>
-        <v>Hold Up Button Procedure</v>
+        <v>Guest Services Agent Manual</v>
       </c>
       <c r="K62" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L62" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="holdup_button.html"&gt;Hold Up Button Procedure&lt;/a&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="L62" s="6"/>
       <c r="M62" s="9"/>
       <c r="N62" s="9"/>
       <c r="O62" s="9"/>
@@ -5822,41 +5826,41 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D63" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E63" s="6"/>
       <c r="F63" s="6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G63" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H63" s="6" t="str">
         <f aca="false">A63</f>
-        <v>accessibility.html</v>
+        <v>Handover.html</v>
       </c>
       <c r="I63" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J63" s="6" t="str">
         <f aca="false">C63</f>
-        <v>Hotel Accessibility</v>
+        <v>Handover &amp; What To Pass On To The Next Shift</v>
       </c>
       <c r="K63" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L63" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="accessibility.html"&gt;Hotel Accessibility&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Handover.html"&gt;Handover &amp; What To Pass On To The Next Shift&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M63" s="9"/>
       <c r="N63" s="9"/>
@@ -5887,41 +5891,41 @@
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E64" s="6"/>
       <c r="F64" s="6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H64" s="6" t="str">
         <f aca="false">A64</f>
-        <v>actiontasks.html</v>
+        <v>holdup_button.html</v>
       </c>
       <c r="I64" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J64" s="6" t="str">
         <f aca="false">C64</f>
-        <v>Actioning Tasks</v>
+        <v>Hold Up Button Procedure</v>
       </c>
       <c r="K64" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L64" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="actiontasks.html"&gt;Actioning Tasks&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="holdup_button.html"&gt;Hold Up Button Procedure&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M64" s="9"/>
       <c r="N64" s="9"/>
@@ -5952,41 +5956,42 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="E65" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6" t="s">
         <v>224</v>
-      </c>
-      <c r="F65" s="6" t="s">
-        <v>225</v>
       </c>
       <c r="G65" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H65" s="6" t="str">
         <f aca="false">A65</f>
-        <v>iHMS.html</v>
+        <v>accessibility.html</v>
       </c>
       <c r="I65" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J65" s="6" t="str">
         <f aca="false">C65</f>
-        <v>iHMS Walkthrough</v>
+        <v>Hotel Accessibility</v>
       </c>
       <c r="K65" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L65" s="6"/>
+      <c r="L65" s="6" t="str">
+        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="accessibility.html"&gt;Hotel Accessibility&lt;/a&gt;&lt;/p&gt;</v>
+      </c>
       <c r="M65" s="9"/>
       <c r="N65" s="9"/>
       <c r="O65" s="9"/>
@@ -6016,44 +6021,41 @@
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C66" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="B66" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C66" s="6" t="s">
+      <c r="D66" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="D66" s="8" t="s">
-        <v>36</v>
-      </c>
       <c r="E66" s="6" t="s">
-        <v>55</v>
+        <v>228</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G66" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H66" s="6" t="str">
         <f aca="false">A66</f>
-        <v>resinb.html</v>
+        <v>iHMS.html</v>
       </c>
       <c r="I66" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J66" s="6" t="str">
         <f aca="false">C66</f>
-        <v>Inbound Reservations</v>
+        <v>iHMS Walkthrough</v>
       </c>
       <c r="K66" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L66" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="resinb.html"&gt;Inbound Reservations&lt;/a&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="L66" s="6"/>
       <c r="M66" s="9"/>
       <c r="N66" s="9"/>
       <c r="O66" s="9"/>
@@ -6083,41 +6085,43 @@
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E67" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="F67" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G67" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H67" s="6" t="str">
         <f aca="false">A67</f>
-        <v>introom.html</v>
+        <v>resinb.html</v>
       </c>
       <c r="I67" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J67" s="6" t="str">
         <f aca="false">C67</f>
-        <v>Interconnecting Rooms</v>
+        <v>Inbound Reservations</v>
       </c>
       <c r="K67" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L67" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="introom.html"&gt;Interconnecting Rooms&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="resinb.html"&gt;Inbound Reservations&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M67" s="9"/>
       <c r="N67" s="9"/>
@@ -6148,41 +6152,41 @@
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D68" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E68" s="6"/>
       <c r="F68" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G68" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H68" s="6" t="str">
         <f aca="false">A68</f>
-        <v>LCO.html</v>
+        <v>introom.html</v>
       </c>
       <c r="I68" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J68" s="6" t="str">
         <f aca="false">C68</f>
-        <v>Late Check-outs</v>
+        <v>Interconnecting Rooms</v>
       </c>
       <c r="K68" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L68" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="LCO.html"&gt;Late Check-outs&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="introom.html"&gt;Interconnecting Rooms&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M68" s="9"/>
       <c r="N68" s="9"/>
@@ -6213,20 +6217,18 @@
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>237</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E69" s="6"/>
       <c r="F69" s="6" t="s">
         <v>238</v>
       </c>
@@ -6235,21 +6237,21 @@
       </c>
       <c r="H69" s="6" t="str">
         <f aca="false">A69</f>
-        <v>dryclean.html</v>
+        <v>LCO.html</v>
       </c>
       <c r="I69" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J69" s="6" t="str">
         <f aca="false">C69</f>
-        <v>Dry Cleaning Procedure</v>
+        <v>Late Check-outs</v>
       </c>
       <c r="K69" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L69" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="dryclean.html"&gt;Dry Cleaning Procedure&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="LCO.html"&gt;Late Check-outs&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M69" s="9"/>
       <c r="N69" s="9"/>
@@ -6478,16 +6480,16 @@
         <v>248</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>133</v>
+        <v>249</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>249</v>
+        <v>187</v>
       </c>
       <c r="F73" s="6" t="s">
         <v>250</v>
@@ -6497,21 +6499,21 @@
       </c>
       <c r="H73" s="6" t="str">
         <f aca="false">A73</f>
-        <v>makeres.html</v>
+        <v>checkroomready.html</v>
       </c>
       <c r="I73" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J73" s="6" t="str">
         <f aca="false">C73</f>
-        <v>Creating A Reservation</v>
+        <v>Making Sure Rooms Are Ready By 2:00pm</v>
       </c>
       <c r="K73" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L73" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="makeres.html"&gt;Creating A Reservation&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="checkroomready.html"&gt;Making Sure Rooms Are Ready By 2:00pm&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M73" s="9"/>
       <c r="N73" s="9"/>
@@ -6545,17 +6547,15 @@
         <v>251</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>252</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E74" s="6" t="s">
-        <v>177</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E74" s="6"/>
       <c r="F74" s="6" t="s">
         <v>253</v>
       </c>
@@ -6564,21 +6564,21 @@
       </c>
       <c r="H74" s="6" t="str">
         <f aca="false">A74</f>
-        <v>checkroomready.html</v>
+        <v>Segments.html</v>
       </c>
       <c r="I74" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J74" s="6" t="str">
         <f aca="false">C74</f>
-        <v>Making Sure Rooms Are Ready By 2:00pm</v>
+        <v>Market Segments</v>
       </c>
       <c r="K74" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L74" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="checkroomready.html"&gt;Making Sure Rooms Are Ready By 2:00pm&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Segments.html"&gt;Market Segments&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M74" s="9"/>
       <c r="N74" s="9"/>
@@ -6612,15 +6612,17 @@
         <v>254</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>255</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E75" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>187</v>
+      </c>
       <c r="F75" s="6" t="s">
         <v>256</v>
       </c>
@@ -6629,21 +6631,21 @@
       </c>
       <c r="H75" s="6" t="str">
         <f aca="false">A75</f>
-        <v>Segments.html</v>
+        <v>mergeguest.html</v>
       </c>
       <c r="I75" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J75" s="6" t="str">
         <f aca="false">C75</f>
-        <v>Market Segments</v>
+        <v>Merging Guest Profiles</v>
       </c>
       <c r="K75" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L75" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Segments.html"&gt;Market Segments&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="mergeguest.html"&gt;Merging Guest Profiles&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M75" s="9"/>
       <c r="N75" s="9"/>
@@ -6677,16 +6679,16 @@
         <v>257</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>258</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>177</v>
+        <v>54</v>
       </c>
       <c r="F76" s="6" t="s">
         <v>259</v>
@@ -6696,21 +6698,21 @@
       </c>
       <c r="H76" s="6" t="str">
         <f aca="false">A76</f>
-        <v>mergeguest.html</v>
+        <v>modres.html</v>
       </c>
       <c r="I76" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J76" s="6" t="str">
         <f aca="false">C76</f>
-        <v>Merging Guest Profiles</v>
+        <v>Modifying A Reservation</v>
       </c>
       <c r="K76" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L76" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="mergeguest.html"&gt;Merging Guest Profiles&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="modres.html"&gt;Modifying A Reservation&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M76" s="9"/>
       <c r="N76" s="9"/>
@@ -6744,16 +6746,16 @@
         <v>260</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>261</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F77" s="6" t="s">
         <v>262</v>
@@ -6763,21 +6765,21 @@
       </c>
       <c r="H77" s="6" t="str">
         <f aca="false">A77</f>
-        <v>modres.html</v>
+        <v>movielink.html</v>
       </c>
       <c r="I77" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J77" s="6" t="str">
         <f aca="false">C77</f>
-        <v>Modifying A Reservation</v>
+        <v>Movielink Procedure</v>
       </c>
       <c r="K77" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L77" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="modres.html"&gt;Modifying A Reservation&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="movielink.html"&gt;Movielink Procedure&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M77" s="9"/>
       <c r="N77" s="9"/>
@@ -6811,17 +6813,15 @@
         <v>263</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>264</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E78" s="6" t="s">
-        <v>55</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E78" s="6"/>
       <c r="F78" s="6" t="s">
         <v>265</v>
       </c>
@@ -6830,22 +6830,19 @@
       </c>
       <c r="H78" s="6" t="str">
         <f aca="false">A78</f>
-        <v>movielink.html</v>
+        <v>NA.html</v>
       </c>
       <c r="I78" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J78" s="6" t="str">
         <f aca="false">C78</f>
-        <v>Movielink Procedure</v>
+        <v>Night Audit GSA SOPs</v>
       </c>
       <c r="K78" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L78" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="movielink.html"&gt;Movielink Procedure&lt;/a&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="L78" s="6"/>
       <c r="M78" s="9"/>
       <c r="N78" s="9"/>
       <c r="O78" s="9"/>
@@ -6878,31 +6875,33 @@
         <v>266</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>267</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E79" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>268</v>
+      </c>
       <c r="F79" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G79" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H79" s="6" t="str">
         <f aca="false">A79</f>
-        <v>NA.html</v>
+        <v>NA_Manual.html</v>
       </c>
       <c r="I79" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J79" s="6" t="str">
         <f aca="false">C79</f>
-        <v>Night Audit GSA SOPs</v>
+        <v>Night Audit Manual</v>
       </c>
       <c r="K79" s="6" t="s">
         <v>19</v>
@@ -6937,20 +6936,18 @@
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E80" s="6" t="s">
-        <v>271</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E80" s="6"/>
       <c r="F80" s="6" t="s">
         <v>272</v>
       </c>
@@ -6959,19 +6956,22 @@
       </c>
       <c r="H80" s="6" t="str">
         <f aca="false">A80</f>
-        <v>NA_Manual.html</v>
+        <v>Noise.html</v>
       </c>
       <c r="I80" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J80" s="6" t="str">
         <f aca="false">C80</f>
-        <v>Night Audit Manual</v>
+        <v>Noise &amp; Party Policy</v>
       </c>
       <c r="K80" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L80" s="6"/>
+      <c r="L80" s="6" t="str">
+        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Noise.html"&gt;Noise &amp; Party Policy&lt;/a&gt;&lt;/p&gt;</v>
+      </c>
       <c r="M80" s="9"/>
       <c r="N80" s="9"/>
       <c r="O80" s="9"/>
@@ -7004,17 +7004,15 @@
         <v>273</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C81" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E81" s="6" t="s">
-        <v>55</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E81" s="6"/>
       <c r="F81" s="6" t="s">
         <v>275</v>
       </c>
@@ -7023,21 +7021,21 @@
       </c>
       <c r="H81" s="6" t="str">
         <f aca="false">A81</f>
-        <v>NATips.html</v>
+        <v>BlackFolder.html</v>
       </c>
       <c r="I81" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J81" s="6" t="str">
         <f aca="false">C81</f>
-        <v>Tips for Night Auditors</v>
+        <v>Organising The Black Folder</v>
       </c>
       <c r="K81" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L81" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="NATips.html"&gt;Tips for Night Auditors&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="BlackFolder.html"&gt;Organising The Black Folder&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M81" s="9"/>
       <c r="N81" s="9"/>
@@ -7071,7 +7069,7 @@
         <v>276</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="C82" s="6" t="s">
         <v>277</v>
@@ -7088,21 +7086,21 @@
       </c>
       <c r="H82" s="6" t="str">
         <f aca="false">A82</f>
-        <v>Noise.html</v>
+        <v>DepRegCard.html</v>
       </c>
       <c r="I82" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J82" s="6" t="str">
         <f aca="false">C82</f>
-        <v>Noise &amp; Party Policy</v>
+        <v>Organising The Departed Reg Cards For Night Audit</v>
       </c>
       <c r="K82" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L82" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Noise.html"&gt;Noise &amp; Party Policy&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="DepRegCard.html"&gt;Organising The Departed Reg Cards For Night Audit&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M82" s="9"/>
       <c r="N82" s="9"/>
@@ -7136,7 +7134,7 @@
         <v>279</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>280</v>
@@ -7153,21 +7151,21 @@
       </c>
       <c r="H83" s="6" t="str">
         <f aca="false">A83</f>
-        <v>BlackFolder.html</v>
+        <v>packages.html</v>
       </c>
       <c r="I83" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J83" s="6" t="str">
         <f aca="false">C83</f>
-        <v>Organising The Black Folder</v>
+        <v>Package Logging Procedure</v>
       </c>
       <c r="K83" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L83" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="BlackFolder.html"&gt;Organising The Black Folder&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="packages.html"&gt;Package Logging Procedure&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M83" s="9"/>
       <c r="N83" s="9"/>
@@ -7201,7 +7199,7 @@
         <v>282</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>283</v>
@@ -7218,21 +7216,21 @@
       </c>
       <c r="H84" s="6" t="str">
         <f aca="false">A84</f>
-        <v>DepRegCard.html</v>
+        <v>passport.html</v>
       </c>
       <c r="I84" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J84" s="6" t="str">
         <f aca="false">C84</f>
-        <v>Organising The Departed Reg Cards For Night Audit</v>
+        <v>Passport Bonds For Shipping Companies</v>
       </c>
       <c r="K84" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L84" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="DepRegCard.html"&gt;Organising The Departed Reg Cards For Night Audit&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="passport.html"&gt;Passport Bonds For Shipping Companies&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M84" s="9"/>
       <c r="N84" s="9"/>
@@ -7283,21 +7281,21 @@
       </c>
       <c r="H85" s="6" t="str">
         <f aca="false">A85</f>
-        <v>packages.html</v>
+        <v>phoneetiquette.html</v>
       </c>
       <c r="I85" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J85" s="6" t="str">
         <f aca="false">C85</f>
-        <v>Package Logging Procedure</v>
+        <v>Phone Etiquette</v>
       </c>
       <c r="K85" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L85" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="packages.html"&gt;Package Logging Procedure&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="phoneetiquette.html"&gt;Phone Etiquette&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M85" s="9"/>
       <c r="N85" s="9"/>
@@ -7337,9 +7335,11 @@
         <v>289</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E86" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="F86" s="6" t="s">
         <v>290</v>
       </c>
@@ -7348,21 +7348,21 @@
       </c>
       <c r="H86" s="6" t="str">
         <f aca="false">A86</f>
-        <v>passport.html</v>
+        <v>Transactions.html</v>
       </c>
       <c r="I86" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J86" s="6" t="str">
         <f aca="false">C86</f>
-        <v>Passport Bonds For Shipping Companies</v>
+        <v>Posting Charges To Folios</v>
       </c>
       <c r="K86" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L86" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="passport.html"&gt;Passport Bonds For Shipping Companies&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Transactions.html"&gt;Posting Charges To Folios&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M86" s="9"/>
       <c r="N86" s="9"/>
@@ -7402,9 +7402,11 @@
         <v>292</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E87" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="F87" s="6" t="s">
         <v>293</v>
       </c>
@@ -7413,21 +7415,21 @@
       </c>
       <c r="H87" s="6" t="str">
         <f aca="false">A87</f>
-        <v>phoneetiquette.html</v>
+        <v>PreAuth.html</v>
       </c>
       <c r="I87" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J87" s="6" t="str">
         <f aca="false">C87</f>
-        <v>Phone Etiquette</v>
+        <v>Pre-Authorisations</v>
       </c>
       <c r="K87" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L87" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="phoneetiquette.html"&gt;Phone Etiquette&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="PreAuth.html"&gt;Pre-Authorisations&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M87" s="9"/>
       <c r="N87" s="9"/>
@@ -7467,10 +7469,10 @@
         <v>295</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F88" s="6" t="s">
         <v>296</v>
@@ -7480,21 +7482,21 @@
       </c>
       <c r="H88" s="6" t="str">
         <f aca="false">A88</f>
-        <v>Transactions.html</v>
+        <v>Bfast.html</v>
       </c>
       <c r="I88" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J88" s="6" t="str">
         <f aca="false">C88</f>
-        <v>Posting Charges To Folios</v>
+        <v>Pre-Order Breakfast Procedure</v>
       </c>
       <c r="K88" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L88" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Transactions.html"&gt;Posting Charges To Folios&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Bfast.html"&gt;Pre-Order Breakfast Procedure&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M88" s="9"/>
       <c r="N88" s="9"/>
@@ -7528,17 +7530,15 @@
         <v>297</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>298</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E89" s="6" t="s">
-        <v>55</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E89" s="6"/>
       <c r="F89" s="6" t="s">
         <v>299</v>
       </c>
@@ -7547,21 +7547,21 @@
       </c>
       <c r="H89" s="6" t="str">
         <f aca="false">A89</f>
-        <v>PreAuth.html</v>
+        <v>ArrRegCard.html</v>
       </c>
       <c r="I89" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J89" s="6" t="str">
         <f aca="false">C89</f>
-        <v>Pre-Authorisations</v>
+        <v>Preparing Arriving Guest Reg Cards</v>
       </c>
       <c r="K89" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L89" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="PreAuth.html"&gt;Pre-Authorisations&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="ArrRegCard.html"&gt;Preparing Arriving Guest Reg Cards&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M89" s="9"/>
       <c r="N89" s="9"/>
@@ -7601,10 +7601,10 @@
         <v>301</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F90" s="6" t="s">
         <v>302</v>
@@ -7614,21 +7614,21 @@
       </c>
       <c r="H90" s="6" t="str">
         <f aca="false">A90</f>
-        <v>Bfast.html</v>
+        <v>NextShift.html</v>
       </c>
       <c r="I90" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J90" s="6" t="str">
         <f aca="false">C90</f>
-        <v>Pre-Order Breakfast Procedure</v>
+        <v>Preparing For The Next Shift</v>
       </c>
       <c r="K90" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L90" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Bfast.html"&gt;Pre-Order Breakfast Procedure&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="NextShift.html"&gt;Preparing For The Next Shift&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M90" s="9"/>
       <c r="N90" s="9"/>
@@ -7662,17 +7662,15 @@
         <v>303</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>304</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E91" s="6" t="s">
-        <v>55</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E91" s="6"/>
       <c r="F91" s="6" t="s">
         <v>305</v>
       </c>
@@ -7681,21 +7679,21 @@
       </c>
       <c r="H91" s="6" t="str">
         <f aca="false">A91</f>
-        <v>NextShift.html</v>
+        <v>Check12.html</v>
       </c>
       <c r="I91" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J91" s="6" t="str">
         <f aca="false">C91</f>
-        <v>Preparing For The Next Shift</v>
+        <v>Printing In House Checklist 1 &amp; 2</v>
       </c>
       <c r="K91" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L91" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="NextShift.html"&gt;Preparing For The Next Shift&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Check12.html"&gt;Printing In House Checklist 1 &amp; 2&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M91" s="9"/>
       <c r="N91" s="9"/>
@@ -7729,15 +7727,17 @@
         <v>306</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="C92" s="6" t="s">
         <v>307</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E92" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="F92" s="6" t="s">
         <v>308</v>
       </c>
@@ -7746,21 +7746,21 @@
       </c>
       <c r="H92" s="6" t="str">
         <f aca="false">A92</f>
-        <v>Check12.html</v>
+        <v>prepregcard.html</v>
       </c>
       <c r="I92" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J92" s="6" t="str">
         <f aca="false">C92</f>
-        <v>Printing In House Checklist 1 &amp; 2</v>
+        <v>Printing Registration Cards For the Next Day</v>
       </c>
       <c r="K92" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L92" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Check12.html"&gt;Printing In House Checklist 1 &amp; 2&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="prepregcard.html"&gt;Printing Registration Cards For the Next Day&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M92" s="9"/>
       <c r="N92" s="9"/>
@@ -7794,16 +7794,16 @@
         <v>309</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="C93" s="6" t="s">
         <v>310</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F93" s="6" t="s">
         <v>311</v>
@@ -7813,21 +7813,21 @@
       </c>
       <c r="H93" s="6" t="str">
         <f aca="false">A93</f>
-        <v>prepregcard.html</v>
+        <v>reqpaperwork.html</v>
       </c>
       <c r="I93" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J93" s="6" t="str">
         <f aca="false">C93</f>
-        <v>Printing Registration Cards For the Next Day</v>
+        <v>Printing Required Paperwork For Arriving Reg Cards</v>
       </c>
       <c r="K93" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L93" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="prepregcard.html"&gt;Printing Registration Cards For the Next Day&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="reqpaperwork.html"&gt;Printing Required Paperwork For Arriving Reg Cards&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M93" s="9"/>
       <c r="N93" s="9"/>
@@ -7861,17 +7861,15 @@
         <v>312</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C94" s="6" t="s">
         <v>313</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E94" s="6" t="s">
-        <v>55</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E94" s="6"/>
       <c r="F94" s="6" t="s">
         <v>314</v>
       </c>
@@ -7880,21 +7878,21 @@
       </c>
       <c r="H94" s="6" t="str">
         <f aca="false">A94</f>
-        <v>reqpaperwork.html</v>
+        <v>ARPendRep.html</v>
       </c>
       <c r="I94" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J94" s="6" t="str">
         <f aca="false">C94</f>
-        <v>Printing Required Paperwork For Arriving Reg Cards</v>
+        <v>Printing The AR Pending Report</v>
       </c>
       <c r="K94" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L94" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="reqpaperwork.html"&gt;Printing Required Paperwork For Arriving Reg Cards&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="ARPendRep.html"&gt;Printing The AR Pending Report&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M94" s="9"/>
       <c r="N94" s="9"/>
@@ -7928,7 +7926,7 @@
         <v>315</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="C95" s="6" t="s">
         <v>316</v>
@@ -7945,21 +7943,21 @@
       </c>
       <c r="H95" s="6" t="str">
         <f aca="false">A95</f>
-        <v>ARPendRep.html</v>
+        <v>CashGuestList.html</v>
       </c>
       <c r="I95" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J95" s="6" t="str">
         <f aca="false">C95</f>
-        <v>Printing The AR Pending Report</v>
+        <v>Printing the Cash Guest Listing</v>
       </c>
       <c r="K95" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L95" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="ARPendRep.html"&gt;Printing The AR Pending Report&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="CashGuestList.html"&gt;Printing the Cash Guest Listing&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M95" s="9"/>
       <c r="N95" s="9"/>
@@ -7993,7 +7991,7 @@
         <v>318</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="C96" s="6" t="s">
         <v>319</v>
@@ -8010,21 +8008,21 @@
       </c>
       <c r="H96" s="6" t="str">
         <f aca="false">A96</f>
-        <v>CashGuestList.html</v>
+        <v>CBReport.html</v>
       </c>
       <c r="I96" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J96" s="6" t="str">
         <f aca="false">C96</f>
-        <v>Printing the Cash Guest Listing</v>
+        <v>Printing The Chargeback Report</v>
       </c>
       <c r="K96" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L96" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="CashGuestList.html"&gt;Printing the Cash Guest Listing&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="CBReport.html"&gt;Printing The Chargeback Report&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M96" s="9"/>
       <c r="N96" s="9"/>
@@ -8058,15 +8056,17 @@
         <v>321</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>43</v>
+        <v>146</v>
       </c>
       <c r="C97" s="6" t="s">
         <v>322</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E97" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="F97" s="6" t="s">
         <v>323</v>
       </c>
@@ -8075,21 +8075,21 @@
       </c>
       <c r="H97" s="6" t="str">
         <f aca="false">A97</f>
-        <v>CBReport.html</v>
+        <v>DepSummRep.html</v>
       </c>
       <c r="I97" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J97" s="6" t="str">
         <f aca="false">C97</f>
-        <v>Printing The Chargeback Report</v>
+        <v>Printing The Expected Departure Summary Report</v>
       </c>
       <c r="K97" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L97" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="CBReport.html"&gt;Printing The Chargeback Report&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="DepSummRep.html"&gt;Printing The Expected Departure Summary Report&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M97" s="9"/>
       <c r="N97" s="9"/>
@@ -8123,16 +8123,16 @@
         <v>324</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="C98" s="6" t="s">
         <v>325</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F98" s="6" t="s">
         <v>326</v>
@@ -8142,21 +8142,21 @@
       </c>
       <c r="H98" s="6" t="str">
         <f aca="false">A98</f>
-        <v>DepSummRep.html</v>
+        <v>FOCWater.html</v>
       </c>
       <c r="I98" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J98" s="6" t="str">
         <f aca="false">C98</f>
-        <v>Printing The Expected Departure Summary Report</v>
+        <v>Printing The FOC Water Sheet</v>
       </c>
       <c r="K98" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L98" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="DepSummRep.html"&gt;Printing The Expected Departure Summary Report&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="FOCWater.html"&gt;Printing The FOC Water Sheet&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M98" s="9"/>
       <c r="N98" s="9"/>
@@ -8190,16 +8190,16 @@
         <v>327</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>328</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F99" s="6" t="s">
         <v>329</v>
@@ -8209,21 +8209,21 @@
       </c>
       <c r="H99" s="6" t="str">
         <f aca="false">A99</f>
-        <v>FOCWater.html</v>
+        <v>SpexInstRep.html</v>
       </c>
       <c r="I99" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J99" s="6" t="str">
         <f aca="false">C99</f>
-        <v>Printing The FOC Water Sheet</v>
+        <v>Printing The Folio Special Instructions by Check Out Date Report</v>
       </c>
       <c r="K99" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L99" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="FOCWater.html"&gt;Printing The FOC Water Sheet&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="SpexInstRep.html"&gt;Printing The Folio Special Instructions by Check Out Date Report&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M99" s="9"/>
       <c r="N99" s="9"/>
@@ -8257,17 +8257,15 @@
         <v>330</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="C100" s="6" t="s">
         <v>331</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E100" s="6" t="s">
-        <v>55</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E100" s="6"/>
       <c r="F100" s="6" t="s">
         <v>332</v>
       </c>
@@ -8276,21 +8274,21 @@
       </c>
       <c r="H100" s="6" t="str">
         <f aca="false">A100</f>
-        <v>SpexInstRep.html</v>
+        <v>GstList.html</v>
       </c>
       <c r="I100" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J100" s="6" t="str">
         <f aca="false">C100</f>
-        <v>Printing The Folio Special Instructions by Check Out Date Report</v>
+        <v>Printing The In House Guest Listing</v>
       </c>
       <c r="K100" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L100" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="SpexInstRep.html"&gt;Printing The Folio Special Instructions by Check Out Date Report&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="GstList.html"&gt;Printing The In House Guest Listing&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M100" s="9"/>
       <c r="N100" s="9"/>
@@ -8324,7 +8322,7 @@
         <v>333</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="C101" s="6" t="s">
         <v>334</v>
@@ -8341,21 +8339,21 @@
       </c>
       <c r="H101" s="6" t="str">
         <f aca="false">A101</f>
-        <v>GstList.html</v>
+        <v>RateCode.html</v>
       </c>
       <c r="I101" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J101" s="6" t="str">
         <f aca="false">C101</f>
-        <v>Printing The In House Guest Listing</v>
+        <v>Rate Codes</v>
       </c>
       <c r="K101" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L101" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="GstList.html"&gt;Printing The In House Guest Listing&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="RateCode.html"&gt;Rate Codes&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M101" s="9"/>
       <c r="N101" s="9"/>
@@ -8395,10 +8393,10 @@
         <v>337</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F102" s="6" t="s">
         <v>338</v>
@@ -8408,21 +8406,21 @@
       </c>
       <c r="H102" s="6" t="str">
         <f aca="false">A102</f>
-        <v>raptor.html</v>
+        <v>Refund.html</v>
       </c>
       <c r="I102" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J102" s="6" t="str">
         <f aca="false">C102</f>
-        <v>Troubleshooting Raptor Posting Errors</v>
+        <v>Refund Procedure</v>
       </c>
       <c r="K102" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L102" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="raptor.html"&gt;Troubleshooting Raptor Posting Errors&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Refund.html"&gt;Refund Procedure&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M102" s="9"/>
       <c r="N102" s="9"/>
@@ -8456,40 +8454,40 @@
         <v>339</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="C103" s="6" t="s">
         <v>340</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>55</v>
+        <v>341</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G103" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H103" s="6" t="str">
         <f aca="false">A103</f>
-        <v>Refund.html</v>
+        <v>ResAbb.html</v>
       </c>
       <c r="I103" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J103" s="6" t="str">
         <f aca="false">C103</f>
-        <v>Refund Procedure</v>
+        <v>Reservation Abbreviations</v>
       </c>
       <c r="K103" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L103" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Refund.html"&gt;Refund Procedure&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="ResAbb.html"&gt;Reservation Abbreviations&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M103" s="9"/>
       <c r="N103" s="9"/>
@@ -8520,20 +8518,18 @@
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D104" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E104" s="6" t="s">
-        <v>344</v>
-      </c>
+      <c r="E104" s="6"/>
       <c r="F104" s="6" t="s">
         <v>345</v>
       </c>
@@ -8542,21 +8538,21 @@
       </c>
       <c r="H104" s="6" t="str">
         <f aca="false">A104</f>
-        <v>ResAbb.html</v>
+        <v>respromo.html</v>
       </c>
       <c r="I104" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J104" s="6" t="str">
         <f aca="false">C104</f>
-        <v>Reservation Abbreviations</v>
+        <v>Reservation Promotions</v>
       </c>
       <c r="K104" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L104" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="ResAbb.html"&gt;Reservation Abbreviations&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="respromo.html"&gt;Reservation Promotions&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M104" s="9"/>
       <c r="N104" s="9"/>
@@ -8590,7 +8586,7 @@
         <v>346</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C105" s="6" t="s">
         <v>347</v>
@@ -8607,22 +8603,19 @@
       </c>
       <c r="H105" s="6" t="str">
         <f aca="false">A105</f>
-        <v>respromo.html</v>
+        <v>Res_Manual.html</v>
       </c>
       <c r="I105" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J105" s="6" t="str">
         <f aca="false">C105</f>
-        <v>Reservation Promotions</v>
+        <v>Reservations Manual</v>
       </c>
       <c r="K105" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L105" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="respromo.html"&gt;Reservation Promotions&lt;/a&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="L105" s="6"/>
       <c r="M105" s="9"/>
       <c r="N105" s="9"/>
       <c r="O105" s="9"/>
@@ -8655,7 +8648,7 @@
         <v>349</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>350</v>
@@ -8672,14 +8665,14 @@
       </c>
       <c r="H106" s="6" t="str">
         <f aca="false">A106</f>
-        <v>Res_Manual.html</v>
+        <v>Res.html</v>
       </c>
       <c r="I106" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J106" s="6" t="str">
         <f aca="false">C106</f>
-        <v>Reservations Manual</v>
+        <v>Reservations SOPs</v>
       </c>
       <c r="K106" s="6" t="s">
         <v>19</v>
@@ -8717,15 +8710,17 @@
         <v>352</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="C107" s="6" t="s">
         <v>353</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E107" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="F107" s="6" t="s">
         <v>354</v>
       </c>
@@ -8734,19 +8729,22 @@
       </c>
       <c r="H107" s="6" t="str">
         <f aca="false">A107</f>
-        <v>Res.html</v>
+        <v>Reversals.html</v>
       </c>
       <c r="I107" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J107" s="6" t="str">
         <f aca="false">C107</f>
-        <v>Reservations SOPs</v>
+        <v>Reversals &amp; Error Corrections</v>
       </c>
       <c r="K107" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L107" s="6"/>
+      <c r="L107" s="6" t="str">
+        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Reversals.html"&gt;Reversals &amp; Error Corrections&lt;/a&gt;&lt;/p&gt;</v>
+      </c>
       <c r="M107" s="9"/>
       <c r="N107" s="9"/>
       <c r="O107" s="9"/>
@@ -8785,10 +8783,10 @@
         <v>356</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F108" s="6" t="s">
         <v>357</v>
@@ -8798,21 +8796,21 @@
       </c>
       <c r="H108" s="6" t="str">
         <f aca="false">A108</f>
-        <v>Reversals.html</v>
+        <v>Moves.html</v>
       </c>
       <c r="I108" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J108" s="6" t="str">
         <f aca="false">C108</f>
-        <v>Reversals &amp; Error Corrections</v>
+        <v>Room Moves</v>
       </c>
       <c r="K108" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L108" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Reversals.html"&gt;Reversals &amp; Error Corrections&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Moves.html"&gt;Room Moves&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M108" s="9"/>
       <c r="N108" s="9"/>
@@ -8846,17 +8844,15 @@
         <v>358</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>13</v>
+        <v>146</v>
       </c>
       <c r="C109" s="6" t="s">
         <v>359</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E109" s="6" t="s">
-        <v>55</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E109" s="6"/>
       <c r="F109" s="6" t="s">
         <v>360</v>
       </c>
@@ -8865,21 +8861,21 @@
       </c>
       <c r="H109" s="6" t="str">
         <f aca="false">A109</f>
-        <v>Moves.html</v>
+        <v>RNR.html</v>
       </c>
       <c r="I109" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J109" s="6" t="str">
         <f aca="false">C109</f>
-        <v>Room Moves</v>
+        <v>Room Not Ready (RNR) Procedure</v>
       </c>
       <c r="K109" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L109" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Moves.html"&gt;Room Moves&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="RNR.html"&gt;Room Not Ready (RNR) Procedure&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M109" s="9"/>
       <c r="N109" s="9"/>
@@ -8913,7 +8909,7 @@
         <v>361</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="C110" s="6" t="s">
         <v>362</v>
@@ -8930,21 +8926,21 @@
       </c>
       <c r="H110" s="6" t="str">
         <f aca="false">A110</f>
-        <v>RNR.html</v>
+        <v>Boxes.html</v>
       </c>
       <c r="I110" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J110" s="6" t="str">
         <f aca="false">C110</f>
-        <v>Room Not Ready (RNR) Procedure</v>
+        <v>Safety Deposit Box Procedure</v>
       </c>
       <c r="K110" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L110" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="RNR.html"&gt;Room Not Ready (RNR) Procedure&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Boxes.html"&gt;Safety Deposit Box Procedure&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M110" s="9"/>
       <c r="N110" s="9"/>
@@ -8978,15 +8974,17 @@
         <v>364</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="C111" s="6" t="s">
         <v>365</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E111" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="F111" s="6" t="s">
         <v>366</v>
       </c>
@@ -8995,21 +8993,21 @@
       </c>
       <c r="H111" s="6" t="str">
         <f aca="false">A111</f>
-        <v>RateCode.html</v>
+        <v>Invoices.html</v>
       </c>
       <c r="I111" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J111" s="6" t="str">
         <f aca="false">C111</f>
-        <v>Rate Codes</v>
+        <v>Saving, Printing &amp; Sending Invoices To Guests</v>
       </c>
       <c r="K111" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L111" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="RateCode.html"&gt;Rate Codes&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Invoices.html"&gt;Saving, Printing &amp; Sending Invoices To Guests&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M111" s="9"/>
       <c r="N111" s="9"/>
@@ -9049,11 +9047,9 @@
         <v>368</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E112" s="6" t="s">
-        <v>55</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E112" s="6"/>
       <c r="F112" s="6" t="s">
         <v>369</v>
       </c>
@@ -9062,21 +9058,21 @@
       </c>
       <c r="H112" s="6" t="str">
         <f aca="false">A112</f>
-        <v>Roubler.html</v>
+        <v>secondEff.html</v>
       </c>
       <c r="I112" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J112" s="6" t="str">
         <f aca="false">C112</f>
-        <v>Clocking In / Out Of Roubler</v>
+        <v>Second Effort Program</v>
       </c>
       <c r="K112" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L112" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Roubler.html"&gt;Clocking In / Out Of Roubler&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="secondEff.html"&gt;Second Effort Program&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M112" s="9"/>
       <c r="N112" s="9"/>
@@ -9127,21 +9123,21 @@
       </c>
       <c r="H113" s="6" t="str">
         <f aca="false">A113</f>
-        <v>Boxes.html</v>
+        <v>Tasks.html</v>
       </c>
       <c r="I113" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J113" s="6" t="str">
         <f aca="false">C113</f>
-        <v>Safety Deposit Box Procedure</v>
+        <v>Setting Tasks</v>
       </c>
       <c r="K113" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L113" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Boxes.html"&gt;Safety Deposit Box Procedure&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Tasks.html"&gt;Setting Tasks&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M113" s="9"/>
       <c r="N113" s="9"/>
@@ -9181,11 +9177,9 @@
         <v>374</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E114" s="6" t="s">
-        <v>55</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E114" s="6"/>
       <c r="F114" s="6" t="s">
         <v>375</v>
       </c>
@@ -9194,21 +9188,21 @@
       </c>
       <c r="H114" s="6" t="str">
         <f aca="false">A114</f>
-        <v>Invoices.html</v>
+        <v>Shipping.html</v>
       </c>
       <c r="I114" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J114" s="6" t="str">
         <f aca="false">C114</f>
-        <v>Saving, Printing &amp; Sending Invoices To Guests</v>
+        <v>Shipping Companies Procedure</v>
       </c>
       <c r="K114" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L114" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Invoices.html"&gt;Saving, Printing &amp; Sending Invoices To Guests&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Shipping.html"&gt;Shipping Companies Procedure&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M114" s="9"/>
       <c r="N114" s="9"/>
@@ -9248,9 +9242,11 @@
         <v>377</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E115" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="E115" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="F115" s="6" t="s">
         <v>378</v>
       </c>
@@ -9259,21 +9255,21 @@
       </c>
       <c r="H115" s="6" t="str">
         <f aca="false">A115</f>
-        <v>Tasks.html</v>
+        <v>Silent.html</v>
       </c>
       <c r="I115" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J115" s="6" t="str">
         <f aca="false">C115</f>
-        <v>Setting Tasks</v>
+        <v>Silent Guest Procedure</v>
       </c>
       <c r="K115" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L115" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Tasks.html"&gt;Setting Tasks&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Silent.html"&gt;Silent Guest Procedure&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M115" s="9"/>
       <c r="N115" s="9"/>
@@ -9324,21 +9320,21 @@
       </c>
       <c r="H116" s="6" t="str">
         <f aca="false">A116</f>
-        <v>Shipping.html</v>
+        <v>smoking.html</v>
       </c>
       <c r="I116" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J116" s="6" t="str">
         <f aca="false">C116</f>
-        <v>Shipping Companies Procedure</v>
+        <v>Smoking Policy</v>
       </c>
       <c r="K116" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L116" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Shipping.html"&gt;Shipping Companies Procedure&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="smoking.html"&gt;Smoking Policy&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M116" s="9"/>
       <c r="N116" s="9"/>
@@ -9378,34 +9374,34 @@
         <v>383</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>55</v>
+        <v>384</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G117" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H117" s="6" t="str">
         <f aca="false">A117</f>
-        <v>Silent.html</v>
+        <v>SpexGuide.html</v>
       </c>
       <c r="I117" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J117" s="6" t="str">
         <f aca="false">C117</f>
-        <v>Silent Guest Procedure</v>
+        <v>Special Instructions Guide</v>
       </c>
       <c r="K117" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L117" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Silent.html"&gt;Silent Guest Procedure&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="SpexGuide.html"&gt;Special Instructions Guide&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M117" s="9"/>
       <c r="N117" s="9"/>
@@ -9436,41 +9432,43 @@
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="6" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B118" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E118" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="E118" s="6" t="s">
+        <v>388</v>
+      </c>
       <c r="F118" s="6" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G118" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H118" s="6" t="str">
         <f aca="false">A118</f>
-        <v>smoking.html</v>
+        <v>StaffContacts.html</v>
       </c>
       <c r="I118" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J118" s="6" t="str">
         <f aca="false">C118</f>
-        <v>Smoking Policy</v>
+        <v>Staff Contact Details</v>
       </c>
       <c r="K118" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L118" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="smoking.html"&gt;Smoking Policy&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="StaffContacts.html"&gt;Staff Contact Details&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M118" s="9"/>
       <c r="N118" s="9"/>
@@ -9501,43 +9499,43 @@
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="6" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B119" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="G119" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H119" s="6" t="str">
         <f aca="false">A119</f>
-        <v>SpexGuide.html</v>
+        <v>StartShift.html</v>
       </c>
       <c r="I119" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J119" s="6" t="str">
         <f aca="false">C119</f>
-        <v>Special Instructions Guide</v>
+        <v>Starting Your Shift</v>
       </c>
       <c r="K119" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L119" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="SpexGuide.html"&gt;Special Instructions Guide&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="StartShift.html"&gt;Starting Your Shift&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M119" s="9"/>
       <c r="N119" s="9"/>
@@ -9568,43 +9566,41 @@
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="6" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B120" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E120" s="6" t="s">
-        <v>394</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E120" s="6"/>
       <c r="F120" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G120" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H120" s="6" t="str">
         <f aca="false">A120</f>
-        <v>StaffContacts.html</v>
+        <v>Taxis.html</v>
       </c>
       <c r="I120" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J120" s="6" t="str">
         <f aca="false">C120</f>
-        <v>Staff Contact Details</v>
+        <v>Taxi Procedure</v>
       </c>
       <c r="K120" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L120" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="StaffContacts.html"&gt;Staff Contact Details&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Taxis.html"&gt;Taxi Procedure&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M120" s="9"/>
       <c r="N120" s="9"/>
@@ -9635,19 +9631,19 @@
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>398</v>
+        <v>54</v>
       </c>
       <c r="F121" s="6" t="s">
         <v>399</v>
@@ -9657,21 +9653,21 @@
       </c>
       <c r="H121" s="6" t="str">
         <f aca="false">A121</f>
-        <v>StartShift.html</v>
+        <v>NATips.html</v>
       </c>
       <c r="I121" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J121" s="6" t="str">
         <f aca="false">C121</f>
-        <v>Starting Your Shift</v>
+        <v>Tips for Night Auditors</v>
       </c>
       <c r="K121" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L121" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="StartShift.html"&gt;Starting Your Shift&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="NATips.html"&gt;Tips for Night Auditors&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M121" s="9"/>
       <c r="N121" s="9"/>
@@ -9705,15 +9701,17 @@
         <v>400</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C122" s="6" t="s">
         <v>401</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E122" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="E122" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="F122" s="6" t="s">
         <v>402</v>
       </c>
@@ -9722,21 +9720,21 @@
       </c>
       <c r="H122" s="6" t="str">
         <f aca="false">A122</f>
-        <v>Taxis.html</v>
+        <v>TopUp.html</v>
       </c>
       <c r="I122" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J122" s="6" t="str">
         <f aca="false">C122</f>
-        <v>Taxi Procedure</v>
+        <v>Top Ups</v>
       </c>
       <c r="K122" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L122" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Taxis.html"&gt;Taxi Procedure&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="TopUp.html"&gt;Top Ups&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M122" s="9"/>
       <c r="N122" s="9"/>
@@ -9776,9 +9774,11 @@
         <v>404</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E123" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="E123" s="6" t="s">
+        <v>187</v>
+      </c>
       <c r="F123" s="6" t="s">
         <v>405</v>
       </c>
@@ -9787,21 +9787,21 @@
       </c>
       <c r="H123" s="6" t="str">
         <f aca="false">A123</f>
-        <v>secondEff.html</v>
+        <v>DBillProbs.html</v>
       </c>
       <c r="I123" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J123" s="6" t="str">
         <f aca="false">C123</f>
-        <v>Second Effort Program</v>
+        <v>Troubleshooting Direct Bill Problems</v>
       </c>
       <c r="K123" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L123" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="secondEff.html"&gt;Second Effort Program&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="DBillProbs.html"&gt;Troubleshooting Direct Bill Problems&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M123" s="9"/>
       <c r="N123" s="9"/>
@@ -9835,16 +9835,16 @@
         <v>406</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C124" s="6" t="s">
         <v>407</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F124" s="6" t="s">
         <v>408</v>
@@ -9854,21 +9854,21 @@
       </c>
       <c r="H124" s="6" t="str">
         <f aca="false">A124</f>
-        <v>TopUp.html</v>
+        <v>iHMSProbs.html</v>
       </c>
       <c r="I124" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J124" s="6" t="str">
         <f aca="false">C124</f>
-        <v>Top Ups</v>
+        <v>Troubleshooting iHMS Server Error</v>
       </c>
       <c r="K124" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L124" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="TopUp.html"&gt;Top Ups&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="iHMSProbs.html"&gt;Troubleshooting iHMS Server Error&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M124" s="9"/>
       <c r="N124" s="9"/>
@@ -9902,16 +9902,16 @@
         <v>409</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C125" s="6" t="s">
         <v>410</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>177</v>
+        <v>54</v>
       </c>
       <c r="F125" s="6" t="s">
         <v>411</v>
@@ -9921,21 +9921,21 @@
       </c>
       <c r="H125" s="6" t="str">
         <f aca="false">A125</f>
-        <v>DBillProbs.html</v>
+        <v>Maintenance.html</v>
       </c>
       <c r="I125" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J125" s="6" t="str">
         <f aca="false">C125</f>
-        <v>Troubleshooting Direct Bill Problems</v>
+        <v>Troubleshooting Maintenance Issues</v>
       </c>
       <c r="K125" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L125" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="DBillProbs.html"&gt;Troubleshooting Direct Bill Problems&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Maintenance.html"&gt;Troubleshooting Maintenance Issues&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M125" s="9"/>
       <c r="N125" s="9"/>
@@ -9969,16 +9969,16 @@
         <v>412</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C126" s="6" t="s">
         <v>413</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F126" s="6" t="s">
         <v>414</v>
@@ -9988,21 +9988,21 @@
       </c>
       <c r="H126" s="6" t="str">
         <f aca="false">A126</f>
-        <v>Maintenance.html</v>
+        <v>raptor.html</v>
       </c>
       <c r="I126" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J126" s="6" t="str">
         <f aca="false">C126</f>
-        <v>Troubleshooting Maintenance Issues</v>
+        <v>Troubleshooting Raptor Posting Errors</v>
       </c>
       <c r="K126" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L126" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Maintenance.html"&gt;Troubleshooting Maintenance Issues&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="raptor.html"&gt;Troubleshooting Raptor Posting Errors&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M126" s="9"/>
       <c r="N126" s="9"/>
@@ -10036,16 +10036,16 @@
         <v>415</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C127" s="6" t="s">
         <v>416</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F127" s="6" t="s">
         <v>417</v>
@@ -10103,7 +10103,7 @@
         <v>418</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C128" s="6" t="s">
         <v>419</v>
@@ -10168,7 +10168,7 @@
         <v>421</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C129" s="6" t="s">
         <v>422</v>
@@ -10192,14 +10192,14 @@
       </c>
       <c r="J129" s="6" t="str">
         <f aca="false">C129</f>
-        <v>Types Of Bookings</v>
+        <v>Types Of Reservation</v>
       </c>
       <c r="K129" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L129" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="restype.html"&gt;Types Of Bookings&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="restype.html"&gt;Types Of Reservation&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M129" s="9"/>
       <c r="N129" s="9"/>
@@ -10298,7 +10298,7 @@
         <v>427</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C131" s="6" t="s">
         <v>428</v>
@@ -10369,10 +10369,10 @@
         <v>431</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F132" s="6" t="s">
         <v>432</v>
@@ -10389,14 +10389,14 @@
       </c>
       <c r="J132" s="6" t="str">
         <f aca="false">C132</f>
-        <v>Updating Registration Cards</v>
+        <v>Updating Guest Registration Cards</v>
       </c>
       <c r="K132" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L132" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="UpdRegCard.html"&gt;Updating Registration Cards&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="UpdRegCard.html"&gt;Updating Guest Registration Cards&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M132" s="9"/>
       <c r="N132" s="9"/>
@@ -10436,7 +10436,7 @@
         <v>434</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E133" s="6" t="s">
         <v>435</v>
@@ -10521,14 +10521,14 @@
       </c>
       <c r="J134" s="6" t="str">
         <f aca="false">C134</f>
-        <v>VIP Codes</v>
+        <v>VIP Status Codes</v>
       </c>
       <c r="K134" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L134" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="vip.html"&gt;VIP Codes&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="vip.html"&gt;VIP Status Codes&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M134" s="9"/>
       <c r="N134" s="9"/>
@@ -10568,10 +10568,10 @@
         <v>441</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F135" s="6" t="s">
         <v>442</v>
@@ -10653,14 +10653,14 @@
       </c>
       <c r="J136" s="6" t="str">
         <f aca="false">C136</f>
-        <v>Wake Up Calls</v>
+        <v>Wake Up Call Procedure</v>
       </c>
       <c r="K136" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L136" s="6" t="str">
         <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Wake.html"&gt;Wake Up Calls&lt;/a&gt;&lt;/p&gt;</v>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Wake.html"&gt;Wake Up Call Procedure&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M136" s="9"/>
       <c r="N136" s="9"/>

--- a/notes.xlsx
+++ b/notes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="444">
   <si>
     <t xml:space="preserve">Page</t>
   </si>
@@ -437,15 +437,6 @@
     <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/CreateRes.html</t>
   </si>
   <si>
-    <t xml:space="preserve">makeres.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Need images ***CHECK IF SAME AS CREATERES***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/makeres.html</t>
-  </si>
-  <si>
     <t xml:space="preserve">CCAuthAndTransfer.html</t>
   </si>
   <si>
@@ -941,15 +932,6 @@
     <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/Check12.html</t>
   </si>
   <si>
-    <t xml:space="preserve">prepregcard.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Printing Registration Cards For the Next Day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/prepregcard.html</t>
-  </si>
-  <si>
     <t xml:space="preserve">reqpaperwork.html</t>
   </si>
   <si>
@@ -1079,6 +1061,18 @@
     <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/Res.html</t>
   </si>
   <si>
+    <t xml:space="preserve">reviews.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Responding to Online Reviews</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finish Extranet section</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/reviews.html</t>
+  </si>
+  <si>
     <t xml:space="preserve">Reversals.html</t>
   </si>
   <si>
@@ -1244,7 +1238,7 @@
     <t xml:space="preserve">iHMSProbs.html</t>
   </si>
   <si>
-    <t xml:space="preserve">Troubleshooting iHMS Server Error</t>
+    <t xml:space="preserve">Troubleshooting iHMS Server Errors</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.andrewme89.github.io/HGCM_Learning/iHMSProbs.html</t>
@@ -1368,7 +1362,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* \-_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;- _-&quot;;_-@_-"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -1376,7 +1370,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1398,7 +1391,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1406,14 +1398,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="Calibri Light"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1463,7 +1453,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1516,10 +1506,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1555,8 +1541,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L136" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:L136"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L134" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:L134"/>
   <tableColumns count="12">
     <tableColumn id="1" name="Page"/>
     <tableColumn id="2" name="Shift"/>
@@ -1617,14 +1603,14 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme>
@@ -1632,67 +1618,25 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -1711,35 +1655,11 @@
           <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-          </a:schemeClr>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="102000"/>
-                <a:tint val="93000"/>
-                <a:shade val="98000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="103000"/>
-                <a:tint val="98000"/>
-                <a:shade val="90000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
@@ -1751,10 +1671,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AL297"/>
+  <dimension ref="A1:AL1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B73" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E105" activeCellId="0" sqref="E105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1838,7 +1758,7 @@
       <c r="AK1" s="4"/>
       <c r="AL1" s="5"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
@@ -1873,7 +1793,7 @@
         <v>19</v>
       </c>
       <c r="L2" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
+        <f aca="false">CONCATENATE(sitemap!$G2,sitemap!$H2,sitemap!$I2,sitemap!$J2,sitemap!$K2)</f>
         <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="emails.html"&gt;Actioning Emails&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M2" s="9"/>
@@ -1903,7 +1823,7 @@
       <c r="AK2" s="9"/>
       <c r="AL2" s="10"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
         <v>20</v>
       </c>
@@ -1938,7 +1858,7 @@
         <v>19</v>
       </c>
       <c r="L3" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
+        <f aca="false">CONCATENATE(sitemap!$G3,sitemap!$H3,sitemap!$I3,sitemap!$J3,sitemap!$K3)</f>
         <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="RoomService.html"&gt;Actioning Room Service&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M3" s="9"/>
@@ -1968,7 +1888,7 @@
       <c r="AK3" s="9"/>
       <c r="AL3" s="10"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
         <v>23</v>
       </c>
@@ -2003,7 +1923,7 @@
         <v>19</v>
       </c>
       <c r="L4" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
+        <f aca="false">CONCATENATE(sitemap!$G4,sitemap!$H4,sitemap!$I4,sitemap!$J4,sitemap!$K4)</f>
         <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="actiontasks.html"&gt;Actioning Tasks&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M4" s="9"/>
@@ -2033,7 +1953,7 @@
       <c r="AK4" s="9"/>
       <c r="AL4" s="10"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
         <v>26</v>
       </c>
@@ -2068,7 +1988,7 @@
         <v>19</v>
       </c>
       <c r="L5" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
+        <f aca="false">CONCATENATE(sitemap!$G5,sitemap!$H5,sitemap!$I5,sitemap!$J5,sitemap!$K5)</f>
         <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="dutylog.html"&gt;Actioning The Duty Log&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M5" s="9"/>
@@ -2098,7 +2018,7 @@
       <c r="AK5" s="9"/>
       <c r="AL5" s="10"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
         <v>29</v>
       </c>
@@ -2133,7 +2053,7 @@
         <v>19</v>
       </c>
       <c r="L6" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
+        <f aca="false">CONCATENATE(sitemap!$G6,sitemap!$H6,sitemap!$I6,sitemap!$J6,sitemap!$K6)</f>
         <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="addresspend.html"&gt;Addressing Pending Arrivals&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M6" s="9"/>
@@ -2163,7 +2083,7 @@
       <c r="AK6" s="9"/>
       <c r="AL6" s="10"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
         <v>33</v>
       </c>
@@ -2198,7 +2118,7 @@
         <v>19</v>
       </c>
       <c r="L7" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
+        <f aca="false">CONCATENATE(sitemap!$G7,sitemap!$H7,sitemap!$I7,sitemap!$J7,sitemap!$K7)</f>
         <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="alarm.html"&gt;Alarm System Procedure&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M7" s="9"/>
@@ -2228,7 +2148,7 @@
       <c r="AK7" s="9"/>
       <c r="AL7" s="10"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
         <v>37</v>
       </c>
@@ -2292,7 +2212,7 @@
       <c r="AK8" s="9"/>
       <c r="AL8" s="10"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
         <v>42</v>
       </c>
@@ -2327,7 +2247,7 @@
         <v>19</v>
       </c>
       <c r="L9" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
+        <f aca="false">CONCATENATE(sitemap!$G9,sitemap!$H9,sitemap!$I9,sitemap!$J9,sitemap!$K9)</f>
         <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="allocating.html"&gt;Allocating Rooms&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M9" s="9"/>
@@ -2357,7 +2277,7 @@
       <c r="AK9" s="9"/>
       <c r="AL9" s="10"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
@@ -2392,7 +2312,7 @@
         <v>19</v>
       </c>
       <c r="L10" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
+        <f aca="false">CONCATENATE(sitemap!$G10,sitemap!$H10,sitemap!$I10,sitemap!$J10,sitemap!$K10)</f>
         <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Audit.html"&gt;Auditing Transactions for the Day&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M10" s="9"/>
@@ -2459,7 +2379,7 @@
         <v>19</v>
       </c>
       <c r="L11" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
+        <f aca="false">CONCATENATE(sitemap!$G11,sitemap!$H11,sitemap!$I11,sitemap!$J11,sitemap!$K11)</f>
         <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="B2B.html"&gt;Back To Back (B2B) Bookings&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M11" s="9"/>
@@ -2489,7 +2409,7 @@
       <c r="AK11" s="9"/>
       <c r="AL11" s="10"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
         <v>52</v>
       </c>
@@ -2526,7 +2446,7 @@
         <v>19</v>
       </c>
       <c r="L12" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
+        <f aca="false">CONCATENATE(sitemap!$G12,sitemap!$H12,sitemap!$I12,sitemap!$J12,sitemap!$K12)</f>
         <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Parking.html"&gt;Balancing VIP Parking&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M12" s="9"/>
@@ -2556,7 +2476,7 @@
       <c r="AK12" s="9"/>
       <c r="AL12" s="10"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
         <v>56</v>
       </c>
@@ -2591,7 +2511,7 @@
         <v>19</v>
       </c>
       <c r="L13" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
+        <f aca="false">CONCATENATE(sitemap!$G13,sitemap!$H13,sitemap!$I13,sitemap!$J13,sitemap!$K13)</f>
         <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="ShiftBalance.html"&gt;Balancing Your Shift&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M13" s="9"/>
@@ -2621,7 +2541,7 @@
       <c r="AK13" s="9"/>
       <c r="AL13" s="10"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
         <v>59</v>
       </c>
@@ -2656,7 +2576,7 @@
         <v>19</v>
       </c>
       <c r="L14" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
+        <f aca="false">CONCATENATE(sitemap!$G14,sitemap!$H14,sitemap!$I14,sitemap!$J14,sitemap!$K14)</f>
         <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="boiler.html"&gt;Boiler Start-up Procedure&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M14" s="9"/>
@@ -2686,7 +2606,7 @@
       <c r="AK14" s="9"/>
       <c r="AL14" s="10"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
         <v>62</v>
       </c>
@@ -2721,7 +2641,7 @@
         <v>19</v>
       </c>
       <c r="L15" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
+        <f aca="false">CONCATENATE(sitemap!$G15,sitemap!$H15,sitemap!$I15,sitemap!$J15,sitemap!$K15)</f>
         <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Bond.html"&gt;Bonds &amp; Pre-Authorisations&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M15" s="9"/>
@@ -2751,7 +2671,7 @@
       <c r="AK15" s="9"/>
       <c r="AL15" s="10"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
         <v>65</v>
       </c>
@@ -2786,7 +2706,7 @@
         <v>19</v>
       </c>
       <c r="L16" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
+        <f aca="false">CONCATENATE(sitemap!$G16,sitemap!$H16,sitemap!$I16,sitemap!$J16,sitemap!$K16)</f>
         <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="resconf.html"&gt;Booking Confirmations&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M16" s="9"/>
@@ -2816,7 +2736,7 @@
       <c r="AK16" s="9"/>
       <c r="AL16" s="10"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
         <v>69</v>
       </c>
@@ -2851,7 +2771,7 @@
         <v>19</v>
       </c>
       <c r="L17" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
+        <f aca="false">CONCATENATE(sitemap!$G17,sitemap!$H17,sitemap!$I17,sitemap!$J17,sitemap!$K17)</f>
         <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="resbtp.html"&gt;Business Travel Partner (BTP) Program&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M17" s="9"/>
@@ -2881,7 +2801,7 @@
       <c r="AK17" s="9"/>
       <c r="AL17" s="10"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
         <v>72</v>
       </c>
@@ -2916,7 +2836,7 @@
         <v>19</v>
       </c>
       <c r="L18" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
+        <f aca="false">CONCATENATE(sitemap!$G18,sitemap!$H18,sitemap!$I18,sitemap!$J18,sitemap!$K18)</f>
         <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="cxlres.html"&gt;Cancelling A Reservation&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M18" s="9"/>
@@ -2946,7 +2866,7 @@
       <c r="AK18" s="9"/>
       <c r="AL18" s="10"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
         <v>75</v>
       </c>
@@ -2983,7 +2903,7 @@
         <v>19</v>
       </c>
       <c r="L19" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
+        <f aca="false">CONCATENATE(sitemap!$G19,sitemap!$H19,sitemap!$I19,sitemap!$J19,sitemap!$K19)</f>
         <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Chargebacks.html"&gt;Chargebacks&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M19" s="9"/>
@@ -3013,7 +2933,7 @@
       <c r="AK19" s="9"/>
       <c r="AL19" s="10"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
         <v>79</v>
       </c>
@@ -3048,7 +2968,7 @@
         <v>19</v>
       </c>
       <c r="L20" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
+        <f aca="false">CONCATENATE(sitemap!$G20,sitemap!$H20,sitemap!$I20,sitemap!$J20,sitemap!$K20)</f>
         <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="rescbauth.html"&gt;Chargebacks &amp; Payment Authorisation Forms&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M20" s="9"/>
@@ -3078,7 +2998,7 @@
       <c r="AK20" s="9"/>
       <c r="AL20" s="10"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
         <v>82</v>
       </c>
@@ -3113,7 +3033,7 @@
         <v>19</v>
       </c>
       <c r="L21" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
+        <f aca="false">CONCATENATE(sitemap!$G21,sitemap!$H21,sitemap!$I21,sitemap!$J21,sitemap!$K21)</f>
         <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Check-in.html"&gt;Check-In Procedure&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M21" s="9"/>
@@ -3143,7 +3063,7 @@
       <c r="AK21" s="9"/>
       <c r="AL21" s="10"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
         <v>85</v>
       </c>
@@ -3178,7 +3098,7 @@
         <v>19</v>
       </c>
       <c r="L22" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
+        <f aca="false">CONCATENATE(sitemap!$G22,sitemap!$H22,sitemap!$I22,sitemap!$J22,sitemap!$K22)</f>
         <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Check-out.html"&gt;Check-Out Procedure&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M22" s="9"/>
@@ -3208,7 +3128,7 @@
       <c r="AK22" s="9"/>
       <c r="AL22" s="10"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
         <v>88</v>
       </c>
@@ -3243,7 +3163,7 @@
         <v>19</v>
       </c>
       <c r="L23" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
+        <f aca="false">CONCATENATE(sitemap!$G23,sitemap!$H23,sitemap!$I23,sitemap!$J23,sitemap!$K23)</f>
         <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="CorpRates.html"&gt;Checking Corporate Rates&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M23" s="9"/>
@@ -3273,7 +3193,7 @@
       <c r="AK23" s="9"/>
       <c r="AL23" s="10"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
         <v>91</v>
       </c>
@@ -3310,7 +3230,7 @@
         <v>19</v>
       </c>
       <c r="L24" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
+        <f aca="false">CONCATENATE(sitemap!$G24,sitemap!$H24,sitemap!$I24,sitemap!$J24,sitemap!$K24)</f>
         <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="CheckB2B.html"&gt;Checking For Back To Back (B2B) Bookings&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M24" s="9"/>
@@ -3340,7 +3260,7 @@
       <c r="AK24" s="9"/>
       <c r="AL24" s="10"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
         <v>95</v>
       </c>
@@ -3375,7 +3295,7 @@
         <v>19</v>
       </c>
       <c r="L25" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
+        <f aca="false">CONCATENATE(sitemap!$G25,sitemap!$H25,sitemap!$I25,sitemap!$J25,sitemap!$K25)</f>
         <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="checkpend.html"&gt;Checking Pending Arrivals, Departures &amp; Room Moves&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M25" s="9"/>
@@ -3405,7 +3325,7 @@
       <c r="AK25" s="9"/>
       <c r="AL25" s="10"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
         <v>98</v>
       </c>
@@ -3440,7 +3360,7 @@
         <v>19</v>
       </c>
       <c r="L26" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
+        <f aca="false">CONCATENATE(sitemap!$G26,sitemap!$H26,sitemap!$I26,sitemap!$J26,sitemap!$K26)</f>
         <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="ArrDepRM.html"&gt;Checking Pending Arrivals, Departures &amp; Room Moves&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M26" s="9"/>
@@ -3470,7 +3390,7 @@
       <c r="AK26" s="9"/>
       <c r="AL26" s="10"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
         <v>100</v>
       </c>
@@ -3505,7 +3425,7 @@
         <v>19</v>
       </c>
       <c r="L27" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
+        <f aca="false">CONCATENATE(sitemap!$G27,sitemap!$H27,sitemap!$I27,sitemap!$J27,sitemap!$K27)</f>
         <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="RoomStatus.html"&gt;Checking The Status Of A Room&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M27" s="9"/>
@@ -3535,7 +3455,7 @@
       <c r="AK27" s="9"/>
       <c r="AL27" s="10"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
         <v>103</v>
       </c>
@@ -3570,7 +3490,7 @@
         <v>19</v>
       </c>
       <c r="L28" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
+        <f aca="false">CONCATENATE(sitemap!$G28,sitemap!$H28,sitemap!$I28,sitemap!$J28,sitemap!$K28)</f>
         <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="chiller.html"&gt;Chiller Procedure&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M28" s="9"/>
@@ -3600,7 +3520,7 @@
       <c r="AK28" s="9"/>
       <c r="AL28" s="10"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
         <v>106</v>
       </c>
@@ -3637,7 +3557,7 @@
         <v>19</v>
       </c>
       <c r="L29" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
+        <f aca="false">CONCATENATE(sitemap!$G29,sitemap!$H29,sitemap!$I29,sitemap!$J29,sitemap!$K29)</f>
         <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Roubler.html"&gt;Clocking In / Out Of Roubler&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M29" s="9"/>
@@ -3667,7 +3587,7 @@
       <c r="AK29" s="9"/>
       <c r="AL29" s="10"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
         <v>109</v>
       </c>
@@ -3702,7 +3622,7 @@
         <v>19</v>
       </c>
       <c r="L30" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
+        <f aca="false">CONCATENATE(sitemap!$G30,sitemap!$H30,sitemap!$I30,sitemap!$J30,sitemap!$K30)</f>
         <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="DepartedRegCard.html"&gt;Collecting All Departed Reg Cards&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M30" s="9"/>
@@ -3732,7 +3652,7 @@
       <c r="AK30" s="9"/>
       <c r="AL30" s="10"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
         <v>113</v>
       </c>
@@ -3767,7 +3687,7 @@
         <v>19</v>
       </c>
       <c r="L31" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
+        <f aca="false">CONCATENATE(sitemap!$G31,sitemap!$H31,sitemap!$I31,sitemap!$J31,sitemap!$K31)</f>
         <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="commis.html"&gt;Commissions&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M31" s="9"/>
@@ -3797,7 +3717,7 @@
       <c r="AK31" s="9"/>
       <c r="AL31" s="10"/>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
         <v>116</v>
       </c>
@@ -3832,7 +3752,7 @@
         <v>19</v>
       </c>
       <c r="L32" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
+        <f aca="false">CONCATENATE(sitemap!$G32,sitemap!$H32,sitemap!$I32,sitemap!$J32,sitemap!$K32)</f>
         <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="BinChecks.html"&gt;Completing Bin Checks&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M32" s="9"/>
@@ -3862,7 +3782,7 @@
       <c r="AK32" s="9"/>
       <c r="AL32" s="10"/>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="s">
         <v>119</v>
       </c>
@@ -3899,7 +3819,7 @@
         <v>19</v>
       </c>
       <c r="L33" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
+        <f aca="false">CONCATENATE(sitemap!$G33,sitemap!$H33,sitemap!$I33,sitemap!$J33,sitemap!$K33)</f>
         <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="ContractorContacts.html"&gt;Contractor Contact Details&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M33" s="9"/>
@@ -3929,7 +3849,7 @@
       <c r="AK33" s="9"/>
       <c r="AL33" s="10"/>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="s">
         <v>123</v>
       </c>
@@ -3964,7 +3884,7 @@
         <v>19</v>
       </c>
       <c r="L34" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
+        <f aca="false">CONCATENATE(sitemap!$G34,sitemap!$H34,sitemap!$I34,sitemap!$J34,sitemap!$K34)</f>
         <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="contractor.html"&gt;Contractor Sign-in Procedure&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M34" s="9"/>
@@ -3994,7 +3914,7 @@
       <c r="AK34" s="9"/>
       <c r="AL34" s="10"/>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="s">
         <v>126</v>
       </c>
@@ -4029,7 +3949,7 @@
         <v>19</v>
       </c>
       <c r="L35" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
+        <f aca="false">CONCATENATE(sitemap!$G35,sitemap!$H35,sitemap!$I35,sitemap!$J35,sitemap!$K35)</f>
         <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Tills.html"&gt;Counting Your Till&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M35" s="9"/>
@@ -4059,7 +3979,7 @@
       <c r="AK35" s="9"/>
       <c r="AL35" s="10"/>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="s">
         <v>129</v>
       </c>
@@ -4094,7 +4014,7 @@
         <v>19</v>
       </c>
       <c r="L36" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
+        <f aca="false">CONCATENATE(sitemap!$G36,sitemap!$H36,sitemap!$I36,sitemap!$J36,sitemap!$K36)</f>
         <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="compprofile.html"&gt;Creating a Company Profile&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M36" s="9"/>
@@ -4124,7 +4044,7 @@
       <c r="AK36" s="9"/>
       <c r="AL36" s="10"/>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="s">
         <v>132</v>
       </c>
@@ -4159,7 +4079,7 @@
         <v>19</v>
       </c>
       <c r="L37" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
+        <f aca="false">CONCATENATE(sitemap!$G37,sitemap!$H37,sitemap!$I37,sitemap!$J37,sitemap!$K37)</f>
         <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="gstprofile.html"&gt;Creating a Guest Profile&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M37" s="9"/>
@@ -4189,7 +4109,7 @@
       <c r="AK37" s="9"/>
       <c r="AL37" s="10"/>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="s">
         <v>135</v>
       </c>
@@ -4224,7 +4144,7 @@
         <v>19</v>
       </c>
       <c r="L38" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
+        <f aca="false">CONCATENATE(sitemap!$G38,sitemap!$H38,sitemap!$I38,sitemap!$J38,sitemap!$K38)</f>
         <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="CreateRes.html"&gt;Creating A Reservation&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M38" s="9"/>
@@ -4254,7 +4174,7 @@
       <c r="AK38" s="9"/>
       <c r="AL38" s="10"/>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="s">
         <v>138</v>
       </c>
@@ -4262,37 +4182,37 @@
         <v>66</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>39</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H39" s="6" t="str">
         <f aca="false">A39</f>
-        <v>makeres.html</v>
+        <v>CCAuthAndTransfer.html</v>
       </c>
       <c r="I39" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J39" s="6" t="str">
         <f aca="false">C39</f>
-        <v>Creating A Reservation</v>
+        <v>Credit Card Authorisations &amp; Bank Transfers</v>
       </c>
       <c r="K39" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L39" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="makeres.html"&gt;Creating A Reservation&lt;/a&gt;&lt;/p&gt;</v>
+        <f aca="false">CONCATENATE(sitemap!$G39,sitemap!$H39,sitemap!$I39,sitemap!$J39,sitemap!$K39)</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="CCAuthAndTransfer.html"&gt;Credit Card Authorisations &amp; Bank Transfers&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M39" s="9"/>
       <c r="N39" s="9"/>
@@ -4321,45 +4241,43 @@
       <c r="AK39" s="9"/>
       <c r="AL39" s="10"/>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>66</v>
+        <v>143</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>143</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E40" s="6"/>
       <c r="F40" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H40" s="6" t="str">
         <f aca="false">A40</f>
-        <v>CCAuthAndTransfer.html</v>
+        <v>checkreg.html</v>
       </c>
       <c r="I40" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J40" s="6" t="str">
         <f aca="false">C40</f>
-        <v>Credit Card Authorisations &amp; Bank Transfers</v>
+        <v>Cross-Check Departing Reg Cards Against Expected Departure Summary</v>
       </c>
       <c r="K40" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L40" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="CCAuthAndTransfer.html"&gt;Credit Card Authorisations &amp; Bank Transfers&lt;/a&gt;&lt;/p&gt;</v>
+        <f aca="false">CONCATENATE(sitemap!$G40,sitemap!$H40,sitemap!$I40,sitemap!$J40,sitemap!$K40)</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="checkreg.html"&gt;Cross-Check Departing Reg Cards Against Expected Departure Summary&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M40" s="9"/>
       <c r="N40" s="9"/>
@@ -4388,12 +4306,12 @@
       <c r="AK40" s="9"/>
       <c r="AL40" s="10"/>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>147</v>
@@ -4401,30 +4319,32 @@
       <c r="D41" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E41" s="6"/>
+      <c r="E41" s="6" t="s">
+        <v>148</v>
+      </c>
       <c r="F41" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H41" s="6" t="str">
         <f aca="false">A41</f>
-        <v>checkreg.html</v>
+        <v>CutKey.html</v>
       </c>
       <c r="I41" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J41" s="6" t="str">
         <f aca="false">C41</f>
-        <v>Cross-Check Departing Reg Cards Against Expected Departure Summary</v>
+        <v>Cutting A Room Key</v>
       </c>
       <c r="K41" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L41" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="checkreg.html"&gt;Cross-Check Departing Reg Cards Against Expected Departure Summary&lt;/a&gt;&lt;/p&gt;</v>
+        <f aca="false">CONCATENATE(sitemap!$G41,sitemap!$H41,sitemap!$I41,sitemap!$J41,sitemap!$K41)</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="CutKey.html"&gt;Cutting A Room Key&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M41" s="9"/>
       <c r="N41" s="9"/>
@@ -4453,21 +4373,21 @@
       <c r="AK41" s="9"/>
       <c r="AL41" s="10"/>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>151</v>
+        <v>93</v>
       </c>
       <c r="F42" s="6" t="s">
         <v>152</v>
@@ -4477,21 +4397,21 @@
       </c>
       <c r="H42" s="6" t="str">
         <f aca="false">A42</f>
-        <v>CutKey.html</v>
+        <v>DBill.html</v>
       </c>
       <c r="I42" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J42" s="6" t="str">
         <f aca="false">C42</f>
-        <v>Cutting A Room Key</v>
+        <v>Direct Billing</v>
       </c>
       <c r="K42" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L42" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="CutKey.html"&gt;Cutting A Room Key&lt;/a&gt;&lt;/p&gt;</v>
+        <f aca="false">CONCATENATE(sitemap!$G42,sitemap!$H42,sitemap!$I42,sitemap!$J42,sitemap!$K42)</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="DBill.html"&gt;Direct Billing&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M42" s="9"/>
       <c r="N42" s="9"/>
@@ -4520,7 +4440,7 @@
       <c r="AK42" s="9"/>
       <c r="AL42" s="10"/>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="s">
         <v>153</v>
       </c>
@@ -4534,31 +4454,31 @@
         <v>39</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>93</v>
+        <v>155</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H43" s="6" t="str">
         <f aca="false">A43</f>
-        <v>DBill.html</v>
+        <v>dryclean.html</v>
       </c>
       <c r="I43" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J43" s="6" t="str">
         <f aca="false">C43</f>
-        <v>Direct Billing</v>
+        <v>Dry Cleaning Procedure</v>
       </c>
       <c r="K43" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L43" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="DBill.html"&gt;Direct Billing&lt;/a&gt;&lt;/p&gt;</v>
+        <f aca="false">CONCATENATE(sitemap!$G43,sitemap!$H43,sitemap!$I43,sitemap!$J43,sitemap!$K43)</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="dryclean.html"&gt;Dry Cleaning Procedure&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M43" s="9"/>
       <c r="N43" s="9"/>
@@ -4587,22 +4507,20 @@
       <c r="AK43" s="9"/>
       <c r="AL43" s="10"/>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>158</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E44" s="6"/>
       <c r="F44" s="6" t="s">
         <v>159</v>
       </c>
@@ -4611,21 +4529,21 @@
       </c>
       <c r="H44" s="6" t="str">
         <f aca="false">A44</f>
-        <v>dryclean.html</v>
+        <v>ea.html</v>
       </c>
       <c r="I44" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J44" s="6" t="str">
         <f aca="false">C44</f>
-        <v>Dry Cleaning Procedure</v>
+        <v>Early Arrival Procedure</v>
       </c>
       <c r="K44" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L44" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="dryclean.html"&gt;Dry Cleaning Procedure&lt;/a&gt;&lt;/p&gt;</v>
+        <f aca="false">CONCATENATE(sitemap!$G44,sitemap!$H44,sitemap!$I44,sitemap!$J44,sitemap!$K44)</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="ea.html"&gt;Early Arrival Procedure&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M44" s="9"/>
       <c r="N44" s="9"/>
@@ -4654,7 +4572,7 @@
       <c r="AK44" s="9"/>
       <c r="AL44" s="10"/>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="s">
         <v>160</v>
       </c>
@@ -4676,21 +4594,21 @@
       </c>
       <c r="H45" s="6" t="str">
         <f aca="false">A45</f>
-        <v>ea.html</v>
+        <v>Assistance.html</v>
       </c>
       <c r="I45" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J45" s="6" t="str">
         <f aca="false">C45</f>
-        <v>Early Arrival Procedure</v>
+        <v>Emergency Assistance Procedure</v>
       </c>
       <c r="K45" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L45" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="ea.html"&gt;Early Arrival Procedure&lt;/a&gt;&lt;/p&gt;</v>
+        <f aca="false">CONCATENATE(sitemap!$G45,sitemap!$H45,sitemap!$I45,sitemap!$J45,sitemap!$K45)</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Assistance.html"&gt;Emergency Assistance Procedure&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M45" s="9"/>
       <c r="N45" s="9"/>
@@ -4719,7 +4637,7 @@
       <c r="AK45" s="9"/>
       <c r="AL45" s="10"/>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="s">
         <v>163</v>
       </c>
@@ -4741,21 +4659,21 @@
       </c>
       <c r="H46" s="6" t="str">
         <f aca="false">A46</f>
-        <v>Assistance.html</v>
+        <v>EndShift.html</v>
       </c>
       <c r="I46" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J46" s="6" t="str">
         <f aca="false">C46</f>
-        <v>Emergency Assistance Procedure</v>
+        <v>Ending Your Shift</v>
       </c>
       <c r="K46" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L46" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Assistance.html"&gt;Emergency Assistance Procedure&lt;/a&gt;&lt;/p&gt;</v>
+        <f aca="false">CONCATENATE(sitemap!$G46,sitemap!$H46,sitemap!$I46,sitemap!$J46,sitemap!$K46)</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="EndShift.html"&gt;Ending Your Shift&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M46" s="9"/>
       <c r="N46" s="9"/>
@@ -4784,12 +4702,12 @@
       <c r="AK46" s="9"/>
       <c r="AL46" s="10"/>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="s">
         <v>166</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>13</v>
+        <v>143</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>167</v>
@@ -4806,21 +4724,21 @@
       </c>
       <c r="H47" s="6" t="str">
         <f aca="false">A47</f>
-        <v>EndShift.html</v>
+        <v>checkingcheckouts.html</v>
       </c>
       <c r="I47" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J47" s="6" t="str">
         <f aca="false">C47</f>
-        <v>Ending Your Shift</v>
+        <v>Ensure All Guests Due to Depart Have Checked Out</v>
       </c>
       <c r="K47" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L47" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="EndShift.html"&gt;Ending Your Shift&lt;/a&gt;&lt;/p&gt;</v>
+        <f aca="false">CONCATENATE(sitemap!$G47,sitemap!$H47,sitemap!$I47,sitemap!$J47,sitemap!$K47)</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="checkingcheckouts.html"&gt;Ensure All Guests Due to Depart Have Checked Out&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M47" s="9"/>
       <c r="N47" s="9"/>
@@ -4849,12 +4767,12 @@
       <c r="AK47" s="9"/>
       <c r="AL47" s="10"/>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="s">
         <v>169</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>146</v>
+        <v>66</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>170</v>
@@ -4871,21 +4789,21 @@
       </c>
       <c r="H48" s="6" t="str">
         <f aca="false">A48</f>
-        <v>checkingcheckouts.html</v>
+        <v>extres.html</v>
       </c>
       <c r="I48" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J48" s="6" t="str">
         <f aca="false">C48</f>
-        <v>Ensure All Guests Due to Depart Have Checked Out</v>
+        <v>Extending A Reservation</v>
       </c>
       <c r="K48" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L48" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="checkingcheckouts.html"&gt;Ensure All Guests Due to Depart Have Checked Out&lt;/a&gt;&lt;/p&gt;</v>
+        <f aca="false">CONCATENATE(sitemap!$G48,sitemap!$H48,sitemap!$I48,sitemap!$J48,sitemap!$K48)</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="extres.html"&gt;Extending A Reservation&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M48" s="9"/>
       <c r="N48" s="9"/>
@@ -4914,43 +4832,45 @@
       <c r="AK48" s="9"/>
       <c r="AL48" s="10"/>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="s">
         <v>172</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>173</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E49" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>174</v>
+      </c>
       <c r="F49" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G49" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H49" s="6" t="str">
         <f aca="false">A49</f>
-        <v>extres.html</v>
+        <v>Functions.html</v>
       </c>
       <c r="I49" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J49" s="6" t="str">
         <f aca="false">C49</f>
-        <v>Extending A Reservation</v>
+        <v>Familiarise Yourself With Functions</v>
       </c>
       <c r="K49" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L49" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="extres.html"&gt;Extending A Reservation&lt;/a&gt;&lt;/p&gt;</v>
+        <f aca="false">CONCATENATE(sitemap!$G49,sitemap!$H49,sitemap!$I49,sitemap!$J49,sitemap!$K49)</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Functions.html"&gt;Familiarise Yourself With Functions&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M49" s="9"/>
       <c r="N49" s="9"/>
@@ -4979,22 +4899,20 @@
       <c r="AK49" s="9"/>
       <c r="AL49" s="10"/>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>177</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E50" s="6"/>
       <c r="F50" s="6" t="s">
         <v>178</v>
       </c>
@@ -5003,21 +4921,21 @@
       </c>
       <c r="H50" s="6" t="str">
         <f aca="false">A50</f>
-        <v>Functions.html</v>
+        <v>Groups.html</v>
       </c>
       <c r="I50" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J50" s="6" t="str">
         <f aca="false">C50</f>
-        <v>Familiarise Yourself With Functions</v>
+        <v>Familiarise Yourself With Group Arrivals/Departures</v>
       </c>
       <c r="K50" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L50" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Functions.html"&gt;Familiarise Yourself With Functions&lt;/a&gt;&lt;/p&gt;</v>
+        <f aca="false">CONCATENATE(sitemap!$G50,sitemap!$H50,sitemap!$I50,sitemap!$J50,sitemap!$K50)</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Groups.html"&gt;Familiarise Yourself With Group Arrivals/Departures&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M50" s="9"/>
       <c r="N50" s="9"/>
@@ -5046,7 +4964,7 @@
       <c r="AK50" s="9"/>
       <c r="AL50" s="10"/>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="s">
         <v>179</v>
       </c>
@@ -5068,21 +4986,21 @@
       </c>
       <c r="H51" s="6" t="str">
         <f aca="false">A51</f>
-        <v>Groups.html</v>
+        <v>Incidentals.html</v>
       </c>
       <c r="I51" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J51" s="6" t="str">
         <f aca="false">C51</f>
-        <v>Familiarise Yourself With Group Arrivals/Departures</v>
+        <v>Familiarise Yourself With Guest Incidentals</v>
       </c>
       <c r="K51" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L51" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Groups.html"&gt;Familiarise Yourself With Group Arrivals/Departures&lt;/a&gt;&lt;/p&gt;</v>
+        <f aca="false">CONCATENATE(sitemap!$G51,sitemap!$H51,sitemap!$I51,sitemap!$J51,sitemap!$K51)</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Incidentals.html"&gt;Familiarise Yourself With Guest Incidentals&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M51" s="9"/>
       <c r="N51" s="9"/>
@@ -5111,43 +5029,45 @@
       <c r="AK51" s="9"/>
       <c r="AL51" s="10"/>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="s">
         <v>182</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>13</v>
+        <v>143</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>183</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E52" s="6" t="s">
         <v>184</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>185</v>
       </c>
       <c r="G52" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H52" s="6" t="str">
         <f aca="false">A52</f>
-        <v>Incidentals.html</v>
+        <v>LCO_B2B_RM.html</v>
       </c>
       <c r="I52" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J52" s="6" t="str">
         <f aca="false">C52</f>
-        <v>Familiarise Yourself With Guest Incidentals</v>
+        <v>Familiarise Yourself With Late Check Outs, Back To Backs &amp; Room Moves</v>
       </c>
       <c r="K52" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L52" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Incidentals.html"&gt;Familiarise Yourself With Guest Incidentals&lt;/a&gt;&lt;/p&gt;</v>
+        <f aca="false">CONCATENATE(sitemap!$G52,sitemap!$H52,sitemap!$I52,sitemap!$J52,sitemap!$K52)</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="LCO_B2B_RM.html"&gt;Familiarise Yourself With Late Check Outs, Back To Backs &amp; Room Moves&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M52" s="9"/>
       <c r="N52" s="9"/>
@@ -5176,23 +5096,21 @@
       <c r="AK52" s="9"/>
       <c r="AL52" s="10"/>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="F53" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6" t="s">
         <v>188</v>
       </c>
       <c r="G53" s="6" t="s">
@@ -5200,21 +5118,21 @@
       </c>
       <c r="H53" s="6" t="str">
         <f aca="false">A53</f>
-        <v>LCO_B2B_RM.html</v>
+        <v>findCB.html</v>
       </c>
       <c r="I53" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J53" s="6" t="str">
         <f aca="false">C53</f>
-        <v>Familiarise Yourself With Late Check Outs, Back To Backs &amp; Room Moves</v>
+        <v>Finding Chargebacks</v>
       </c>
       <c r="K53" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L53" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="LCO_B2B_RM.html"&gt;Familiarise Yourself With Late Check Outs, Back To Backs &amp; Room Moves&lt;/a&gt;&lt;/p&gt;</v>
+        <f aca="false">CONCATENATE(sitemap!$G53,sitemap!$H53,sitemap!$I53,sitemap!$J53,sitemap!$K53)</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="findCB.html"&gt;Finding Chargebacks&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M53" s="9"/>
       <c r="N53" s="9"/>
@@ -5243,7 +5161,7 @@
       <c r="AK53" s="9"/>
       <c r="AL53" s="10"/>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="s">
         <v>189</v>
       </c>
@@ -5265,21 +5183,21 @@
       </c>
       <c r="H54" s="6" t="str">
         <f aca="false">A54</f>
-        <v>findCB.html</v>
+        <v>Fire.html</v>
       </c>
       <c r="I54" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J54" s="6" t="str">
         <f aca="false">C54</f>
-        <v>Finding Chargebacks</v>
+        <v>Fire &amp; Emergency Procedure</v>
       </c>
       <c r="K54" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L54" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="findCB.html"&gt;Finding Chargebacks&lt;/a&gt;&lt;/p&gt;</v>
+        <f aca="false">CONCATENATE(sitemap!$G54,sitemap!$H54,sitemap!$I54,sitemap!$J54,sitemap!$K54)</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Fire.html"&gt;Fire &amp; Emergency Procedure&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M54" s="9"/>
       <c r="N54" s="9"/>
@@ -5308,12 +5226,12 @@
       <c r="AK54" s="9"/>
       <c r="AL54" s="10"/>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="s">
         <v>192</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>193</v>
@@ -5330,21 +5248,21 @@
       </c>
       <c r="H55" s="6" t="str">
         <f aca="false">A55</f>
-        <v>Fire.html</v>
+        <v>Walk.html</v>
       </c>
       <c r="I55" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J55" s="6" t="str">
         <f aca="false">C55</f>
-        <v>Fire &amp; Emergency Procedure</v>
+        <v>Floor Walk</v>
       </c>
       <c r="K55" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L55" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Fire.html"&gt;Fire &amp; Emergency Procedure&lt;/a&gt;&lt;/p&gt;</v>
+        <f aca="false">CONCATENATE(sitemap!$G55,sitemap!$H55,sitemap!$I55,sitemap!$J55,sitemap!$K55)</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Walk.html"&gt;Floor Walk&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M55" s="9"/>
       <c r="N55" s="9"/>
@@ -5373,12 +5291,12 @@
       <c r="AK55" s="9"/>
       <c r="AL55" s="10"/>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="s">
         <v>195</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>196</v>
@@ -5395,21 +5313,21 @@
       </c>
       <c r="H56" s="6" t="str">
         <f aca="false">A56</f>
-        <v>Walk.html</v>
+        <v>foxtel_reboot.html</v>
       </c>
       <c r="I56" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J56" s="6" t="str">
         <f aca="false">C56</f>
-        <v>Floor Walk</v>
+        <v>Foxtel Reboot Procedure</v>
       </c>
       <c r="K56" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L56" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Walk.html"&gt;Floor Walk&lt;/a&gt;&lt;/p&gt;</v>
+        <f aca="false">CONCATENATE(sitemap!$G56,sitemap!$H56,sitemap!$I56,sitemap!$J56,sitemap!$K56)</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="foxtel_reboot.html"&gt;Foxtel Reboot Procedure&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M56" s="9"/>
       <c r="N56" s="9"/>
@@ -5438,12 +5356,12 @@
       <c r="AK56" s="9"/>
       <c r="AL56" s="10"/>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="s">
         <v>198</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>199</v>
@@ -5460,21 +5378,21 @@
       </c>
       <c r="H57" s="6" t="str">
         <f aca="false">A57</f>
-        <v>foxtel_reboot.html</v>
+        <v>resgrp.html</v>
       </c>
       <c r="I57" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J57" s="6" t="str">
         <f aca="false">C57</f>
-        <v>Foxtel Reboot Procedure</v>
+        <v>Group Reservations</v>
       </c>
       <c r="K57" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L57" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="foxtel_reboot.html"&gt;Foxtel Reboot Procedure&lt;/a&gt;&lt;/p&gt;</v>
+        <f aca="false">CONCATENATE(sitemap!$G57,sitemap!$H57,sitemap!$I57,sitemap!$J57,sitemap!$K57)</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="resgrp.html"&gt;Group Reservations&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M57" s="9"/>
       <c r="N57" s="9"/>
@@ -5503,12 +5421,12 @@
       <c r="AK57" s="9"/>
       <c r="AL57" s="10"/>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="s">
         <v>201</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>202</v>
@@ -5525,21 +5443,21 @@
       </c>
       <c r="H58" s="6" t="str">
         <f aca="false">A58</f>
-        <v>resgrp.html</v>
+        <v>bumped_walked.html</v>
       </c>
       <c r="I58" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J58" s="6" t="str">
         <f aca="false">C58</f>
-        <v>Group Reservations</v>
+        <v>Guest Relocation Procedure (Overbooking)</v>
       </c>
       <c r="K58" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L58" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="resgrp.html"&gt;Group Reservations&lt;/a&gt;&lt;/p&gt;</v>
+        <f aca="false">CONCATENATE(sitemap!$G58,sitemap!$H58,sitemap!$I58,sitemap!$J58,sitemap!$K58)</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="bumped_walked.html"&gt;Guest Relocation Procedure (Overbooking)&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M58" s="9"/>
       <c r="N58" s="9"/>
@@ -5568,12 +5486,12 @@
       <c r="AK58" s="9"/>
       <c r="AL58" s="10"/>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="s">
         <v>204</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>205</v>
@@ -5590,22 +5508,19 @@
       </c>
       <c r="H59" s="6" t="str">
         <f aca="false">A59</f>
-        <v>bumped_walked.html</v>
+        <v>GSA.html</v>
       </c>
       <c r="I59" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J59" s="6" t="str">
         <f aca="false">C59</f>
-        <v>Guest Relocation Procedure (Overbooking)</v>
+        <v>Guest Services Agent  SOPs</v>
       </c>
       <c r="K59" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L59" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="bumped_walked.html"&gt;Guest Relocation Procedure (Overbooking)&lt;/a&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="L59" s="6"/>
       <c r="M59" s="9"/>
       <c r="N59" s="9"/>
       <c r="O59" s="9"/>
@@ -5633,7 +5548,7 @@
       <c r="AK59" s="9"/>
       <c r="AL59" s="10"/>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="s">
         <v>207</v>
       </c>
@@ -5655,19 +5570,22 @@
       </c>
       <c r="H60" s="6" t="str">
         <f aca="false">A60</f>
-        <v>GSA.html</v>
+        <v>checklist.html</v>
       </c>
       <c r="I60" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J60" s="6" t="str">
         <f aca="false">C60</f>
-        <v>Guest Services Agent  SOPs</v>
+        <v>Guest Services Agent (GSA) Checklists</v>
       </c>
       <c r="K60" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L60" s="6"/>
+      <c r="L60" s="6" t="str">
+        <f aca="false">CONCATENATE(sitemap!$G60,sitemap!$H60,sitemap!$I60,sitemap!$J60,sitemap!$K60)</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="checklist.html"&gt;Guest Services Agent (GSA) Checklists&lt;/a&gt;&lt;/p&gt;</v>
+      </c>
       <c r="M60" s="9"/>
       <c r="N60" s="9"/>
       <c r="O60" s="9"/>
@@ -5695,7 +5613,7 @@
       <c r="AK60" s="9"/>
       <c r="AL60" s="10"/>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="s">
         <v>210</v>
       </c>
@@ -5706,9 +5624,11 @@
         <v>211</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E61" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>184</v>
+      </c>
       <c r="F61" s="6" t="s">
         <v>212</v>
       </c>
@@ -5717,22 +5637,19 @@
       </c>
       <c r="H61" s="6" t="str">
         <f aca="false">A61</f>
-        <v>checklist.html</v>
+        <v>GSA_Manual.html</v>
       </c>
       <c r="I61" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J61" s="6" t="str">
         <f aca="false">C61</f>
-        <v>Guest Services Agent (GSA) Checklists</v>
+        <v>Guest Services Agent Manual</v>
       </c>
       <c r="K61" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L61" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="checklist.html"&gt;Guest Services Agent (GSA) Checklists&lt;/a&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="L61" s="6"/>
       <c r="M61" s="9"/>
       <c r="N61" s="9"/>
       <c r="O61" s="9"/>
@@ -5760,7 +5677,7 @@
       <c r="AK61" s="9"/>
       <c r="AL61" s="10"/>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="s">
         <v>213</v>
       </c>
@@ -5771,11 +5688,9 @@
         <v>214</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E62" s="6" t="s">
-        <v>187</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E62" s="6"/>
       <c r="F62" s="6" t="s">
         <v>215</v>
       </c>
@@ -5784,19 +5699,22 @@
       </c>
       <c r="H62" s="6" t="str">
         <f aca="false">A62</f>
-        <v>GSA_Manual.html</v>
+        <v>Handover.html</v>
       </c>
       <c r="I62" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J62" s="6" t="str">
         <f aca="false">C62</f>
-        <v>Guest Services Agent Manual</v>
+        <v>Handover &amp; What To Pass On To The Next Shift</v>
       </c>
       <c r="K62" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L62" s="6"/>
+      <c r="L62" s="6" t="str">
+        <f aca="false">CONCATENATE(sitemap!$G62,sitemap!$H62,sitemap!$I62,sitemap!$J62,sitemap!$K62)</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Handover.html"&gt;Handover &amp; What To Pass On To The Next Shift&lt;/a&gt;&lt;/p&gt;</v>
+      </c>
       <c r="M62" s="9"/>
       <c r="N62" s="9"/>
       <c r="O62" s="9"/>
@@ -5824,7 +5742,7 @@
       <c r="AK62" s="9"/>
       <c r="AL62" s="10"/>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="s">
         <v>216</v>
       </c>
@@ -5846,21 +5764,21 @@
       </c>
       <c r="H63" s="6" t="str">
         <f aca="false">A63</f>
-        <v>Handover.html</v>
+        <v>holdup_button.html</v>
       </c>
       <c r="I63" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J63" s="6" t="str">
         <f aca="false">C63</f>
-        <v>Handover &amp; What To Pass On To The Next Shift</v>
+        <v>Hold Up Button Procedure</v>
       </c>
       <c r="K63" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L63" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Handover.html"&gt;Handover &amp; What To Pass On To The Next Shift&lt;/a&gt;&lt;/p&gt;</v>
+        <f aca="false">CONCATENATE(sitemap!$G63,sitemap!$H63,sitemap!$I63,sitemap!$J63,sitemap!$K63)</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="holdup_button.html"&gt;Hold Up Button Procedure&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M63" s="9"/>
       <c r="N63" s="9"/>
@@ -5889,7 +5807,7 @@
       <c r="AK63" s="9"/>
       <c r="AL63" s="10"/>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="s">
         <v>219</v>
       </c>
@@ -5911,21 +5829,21 @@
       </c>
       <c r="H64" s="6" t="str">
         <f aca="false">A64</f>
-        <v>holdup_button.html</v>
+        <v>accessibility.html</v>
       </c>
       <c r="I64" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J64" s="6" t="str">
         <f aca="false">C64</f>
-        <v>Hold Up Button Procedure</v>
+        <v>Hotel Accessibility</v>
       </c>
       <c r="K64" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L64" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="holdup_button.html"&gt;Hold Up Button Procedure&lt;/a&gt;&lt;/p&gt;</v>
+        <f aca="false">CONCATENATE(sitemap!$G64,sitemap!$H64,sitemap!$I64,sitemap!$J64,sitemap!$K64)</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="accessibility.html"&gt;Hotel Accessibility&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M64" s="9"/>
       <c r="N64" s="9"/>
@@ -5954,7 +5872,7 @@
       <c r="AK64" s="9"/>
       <c r="AL64" s="10"/>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="s">
         <v>222</v>
       </c>
@@ -5965,33 +5883,32 @@
         <v>223</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E65" s="6"/>
+        <v>224</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>225</v>
+      </c>
       <c r="F65" s="6" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G65" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H65" s="6" t="str">
         <f aca="false">A65</f>
-        <v>accessibility.html</v>
+        <v>iHMS.html</v>
       </c>
       <c r="I65" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J65" s="6" t="str">
         <f aca="false">C65</f>
-        <v>Hotel Accessibility</v>
+        <v>iHMS Walkthrough</v>
       </c>
       <c r="K65" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L65" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="accessibility.html"&gt;Hotel Accessibility&lt;/a&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="L65" s="6"/>
       <c r="M65" s="9"/>
       <c r="N65" s="9"/>
       <c r="O65" s="9"/>
@@ -6019,21 +5936,21 @@
       <c r="AK65" s="9"/>
       <c r="AL65" s="10"/>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>227</v>
+        <v>39</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>228</v>
+        <v>54</v>
       </c>
       <c r="F66" s="6" t="s">
         <v>229</v>
@@ -6043,19 +5960,22 @@
       </c>
       <c r="H66" s="6" t="str">
         <f aca="false">A66</f>
-        <v>iHMS.html</v>
+        <v>resinb.html</v>
       </c>
       <c r="I66" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J66" s="6" t="str">
         <f aca="false">C66</f>
-        <v>iHMS Walkthrough</v>
+        <v>Inbound Reservations</v>
       </c>
       <c r="K66" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L66" s="6"/>
+      <c r="L66" s="6" t="str">
+        <f aca="false">CONCATENATE(sitemap!$G66,sitemap!$H66,sitemap!$I66,sitemap!$J66,sitemap!$K66)</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="resinb.html"&gt;Inbound Reservations&lt;/a&gt;&lt;/p&gt;</v>
+      </c>
       <c r="M66" s="9"/>
       <c r="N66" s="9"/>
       <c r="O66" s="9"/>
@@ -6083,22 +6003,20 @@
       <c r="AK66" s="9"/>
       <c r="AL66" s="10"/>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="s">
         <v>230</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>231</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>54</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E67" s="6"/>
       <c r="F67" s="6" t="s">
         <v>232</v>
       </c>
@@ -6107,21 +6025,21 @@
       </c>
       <c r="H67" s="6" t="str">
         <f aca="false">A67</f>
-        <v>resinb.html</v>
+        <v>introom.html</v>
       </c>
       <c r="I67" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J67" s="6" t="str">
         <f aca="false">C67</f>
-        <v>Inbound Reservations</v>
+        <v>Interconnecting Rooms</v>
       </c>
       <c r="K67" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L67" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="resinb.html"&gt;Inbound Reservations&lt;/a&gt;&lt;/p&gt;</v>
+        <f aca="false">CONCATENATE(sitemap!$G67,sitemap!$H67,sitemap!$I67,sitemap!$J67,sitemap!$K67)</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="introom.html"&gt;Interconnecting Rooms&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M67" s="9"/>
       <c r="N67" s="9"/>
@@ -6150,7 +6068,7 @@
       <c r="AK67" s="9"/>
       <c r="AL67" s="10"/>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="s">
         <v>233</v>
       </c>
@@ -6172,21 +6090,21 @@
       </c>
       <c r="H68" s="6" t="str">
         <f aca="false">A68</f>
-        <v>introom.html</v>
+        <v>LCO.html</v>
       </c>
       <c r="I68" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J68" s="6" t="str">
         <f aca="false">C68</f>
-        <v>Interconnecting Rooms</v>
+        <v>Late Check-outs</v>
       </c>
       <c r="K68" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L68" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="introom.html"&gt;Interconnecting Rooms&lt;/a&gt;&lt;/p&gt;</v>
+        <f aca="false">CONCATENATE(sitemap!$G68,sitemap!$H68,sitemap!$I68,sitemap!$J68,sitemap!$K68)</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="LCO.html"&gt;Late Check-outs&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M68" s="9"/>
       <c r="N68" s="9"/>
@@ -6215,7 +6133,7 @@
       <c r="AK68" s="9"/>
       <c r="AL68" s="10"/>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="s">
         <v>236</v>
       </c>
@@ -6237,21 +6155,21 @@
       </c>
       <c r="H69" s="6" t="str">
         <f aca="false">A69</f>
-        <v>LCO.html</v>
+        <v>MaintainX.html</v>
       </c>
       <c r="I69" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J69" s="6" t="str">
         <f aca="false">C69</f>
-        <v>Late Check-outs</v>
+        <v>Logging Maintenance Jobs in MaintainX</v>
       </c>
       <c r="K69" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L69" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="LCO.html"&gt;Late Check-outs&lt;/a&gt;&lt;/p&gt;</v>
+        <f aca="false">CONCATENATE(sitemap!$G69,sitemap!$H69,sitemap!$I69,sitemap!$J69,sitemap!$K69)</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="MaintainX.html"&gt;Logging Maintenance Jobs in MaintainX&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M69" s="9"/>
       <c r="N69" s="9"/>
@@ -6280,7 +6198,7 @@
       <c r="AK69" s="9"/>
       <c r="AL69" s="10"/>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="s">
         <v>239</v>
       </c>
@@ -6302,21 +6220,21 @@
       </c>
       <c r="H70" s="6" t="str">
         <f aca="false">A70</f>
-        <v>MaintainX.html</v>
+        <v>Lost.html</v>
       </c>
       <c r="I70" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J70" s="6" t="str">
         <f aca="false">C70</f>
-        <v>Logging Maintenance Jobs in MaintainX</v>
+        <v>Lost Property Procedure</v>
       </c>
       <c r="K70" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L70" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="MaintainX.html"&gt;Logging Maintenance Jobs in MaintainX&lt;/a&gt;&lt;/p&gt;</v>
+        <f aca="false">CONCATENATE(sitemap!$G70,sitemap!$H70,sitemap!$I70,sitemap!$J70,sitemap!$K70)</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Lost.html"&gt;Lost Property Procedure&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M70" s="9"/>
       <c r="N70" s="9"/>
@@ -6345,7 +6263,7 @@
       <c r="AK70" s="9"/>
       <c r="AL70" s="10"/>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="s">
         <v>242</v>
       </c>
@@ -6367,21 +6285,21 @@
       </c>
       <c r="H71" s="6" t="str">
         <f aca="false">A71</f>
-        <v>Lost.html</v>
+        <v>Storage.html</v>
       </c>
       <c r="I71" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J71" s="6" t="str">
         <f aca="false">C71</f>
-        <v>Lost Property Procedure</v>
+        <v>Luggage Storage Procedure</v>
       </c>
       <c r="K71" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L71" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Lost.html"&gt;Lost Property Procedure&lt;/a&gt;&lt;/p&gt;</v>
+        <f aca="false">CONCATENATE(sitemap!$G71,sitemap!$H71,sitemap!$I71,sitemap!$J71,sitemap!$K71)</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Storage.html"&gt;Luggage Storage Procedure&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M71" s="9"/>
       <c r="N71" s="9"/>
@@ -6410,20 +6328,22 @@
       <c r="AK71" s="9"/>
       <c r="AL71" s="10"/>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="s">
         <v>245</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>246</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E72" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>184</v>
+      </c>
       <c r="F72" s="6" t="s">
         <v>247</v>
       </c>
@@ -6432,21 +6352,21 @@
       </c>
       <c r="H72" s="6" t="str">
         <f aca="false">A72</f>
-        <v>Storage.html</v>
+        <v>checkroomready.html</v>
       </c>
       <c r="I72" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J72" s="6" t="str">
         <f aca="false">C72</f>
-        <v>Luggage Storage Procedure</v>
+        <v>Making Sure Rooms Are Ready By 2:00pm</v>
       </c>
       <c r="K72" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L72" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Storage.html"&gt;Luggage Storage Procedure&lt;/a&gt;&lt;/p&gt;</v>
+        <f aca="false">CONCATENATE(sitemap!$G72,sitemap!$H72,sitemap!$I72,sitemap!$J72,sitemap!$K72)</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="checkroomready.html"&gt;Making Sure Rooms Are Ready By 2:00pm&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M72" s="9"/>
       <c r="N72" s="9"/>
@@ -6475,22 +6395,20 @@
       <c r="AK72" s="9"/>
       <c r="AL72" s="10"/>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="s">
         <v>248</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>249</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>187</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E73" s="6"/>
       <c r="F73" s="6" t="s">
         <v>250</v>
       </c>
@@ -6499,21 +6417,21 @@
       </c>
       <c r="H73" s="6" t="str">
         <f aca="false">A73</f>
-        <v>checkroomready.html</v>
+        <v>Segments.html</v>
       </c>
       <c r="I73" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J73" s="6" t="str">
         <f aca="false">C73</f>
-        <v>Making Sure Rooms Are Ready By 2:00pm</v>
+        <v>Market Segments</v>
       </c>
       <c r="K73" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L73" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="checkroomready.html"&gt;Making Sure Rooms Are Ready By 2:00pm&lt;/a&gt;&lt;/p&gt;</v>
+        <f aca="false">CONCATENATE(sitemap!$G73,sitemap!$H73,sitemap!$I73,sitemap!$J73,sitemap!$K73)</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Segments.html"&gt;Market Segments&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M73" s="9"/>
       <c r="N73" s="9"/>
@@ -6542,20 +6460,22 @@
       <c r="AK73" s="9"/>
       <c r="AL73" s="10"/>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="s">
         <v>251</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>252</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E74" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>184</v>
+      </c>
       <c r="F74" s="6" t="s">
         <v>253</v>
       </c>
@@ -6564,21 +6484,21 @@
       </c>
       <c r="H74" s="6" t="str">
         <f aca="false">A74</f>
-        <v>Segments.html</v>
+        <v>mergeguest.html</v>
       </c>
       <c r="I74" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J74" s="6" t="str">
         <f aca="false">C74</f>
-        <v>Market Segments</v>
+        <v>Merging Guest Profiles</v>
       </c>
       <c r="K74" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L74" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Segments.html"&gt;Market Segments&lt;/a&gt;&lt;/p&gt;</v>
+        <f aca="false">CONCATENATE(sitemap!$G74,sitemap!$H74,sitemap!$I74,sitemap!$J74,sitemap!$K74)</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="mergeguest.html"&gt;Merging Guest Profiles&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M74" s="9"/>
       <c r="N74" s="9"/>
@@ -6607,12 +6527,12 @@
       <c r="AK74" s="9"/>
       <c r="AL74" s="10"/>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="s">
         <v>254</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>255</v>
@@ -6621,7 +6541,7 @@
         <v>39</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>187</v>
+        <v>54</v>
       </c>
       <c r="F75" s="6" t="s">
         <v>256</v>
@@ -6631,21 +6551,21 @@
       </c>
       <c r="H75" s="6" t="str">
         <f aca="false">A75</f>
-        <v>mergeguest.html</v>
+        <v>modres.html</v>
       </c>
       <c r="I75" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J75" s="6" t="str">
         <f aca="false">C75</f>
-        <v>Merging Guest Profiles</v>
+        <v>Modifying A Reservation</v>
       </c>
       <c r="K75" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L75" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="mergeguest.html"&gt;Merging Guest Profiles&lt;/a&gt;&lt;/p&gt;</v>
+        <f aca="false">CONCATENATE(sitemap!$G75,sitemap!$H75,sitemap!$I75,sitemap!$J75,sitemap!$K75)</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="modres.html"&gt;Modifying A Reservation&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M75" s="9"/>
       <c r="N75" s="9"/>
@@ -6674,12 +6594,12 @@
       <c r="AK75" s="9"/>
       <c r="AL75" s="10"/>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="6" t="s">
         <v>257</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>258</v>
@@ -6698,21 +6618,21 @@
       </c>
       <c r="H76" s="6" t="str">
         <f aca="false">A76</f>
-        <v>modres.html</v>
+        <v>movielink.html</v>
       </c>
       <c r="I76" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J76" s="6" t="str">
         <f aca="false">C76</f>
-        <v>Modifying A Reservation</v>
+        <v>Movielink Procedure</v>
       </c>
       <c r="K76" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L76" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="modres.html"&gt;Modifying A Reservation&lt;/a&gt;&lt;/p&gt;</v>
+        <f aca="false">CONCATENATE(sitemap!$G76,sitemap!$H76,sitemap!$I76,sitemap!$J76,sitemap!$K76)</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="movielink.html"&gt;Movielink Procedure&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M76" s="9"/>
       <c r="N76" s="9"/>
@@ -6741,22 +6661,20 @@
       <c r="AK76" s="9"/>
       <c r="AL76" s="10"/>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="6" t="s">
         <v>260</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>261</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E77" s="6" t="s">
-        <v>54</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E77" s="6"/>
       <c r="F77" s="6" t="s">
         <v>262</v>
       </c>
@@ -6765,22 +6683,19 @@
       </c>
       <c r="H77" s="6" t="str">
         <f aca="false">A77</f>
-        <v>movielink.html</v>
+        <v>NA.html</v>
       </c>
       <c r="I77" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J77" s="6" t="str">
         <f aca="false">C77</f>
-        <v>Movielink Procedure</v>
+        <v>Night Audit GSA SOPs</v>
       </c>
       <c r="K77" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L77" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="movielink.html"&gt;Movielink Procedure&lt;/a&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="L77" s="6"/>
       <c r="M77" s="9"/>
       <c r="N77" s="9"/>
       <c r="O77" s="9"/>
@@ -6808,7 +6723,7 @@
       <c r="AK77" s="9"/>
       <c r="AL77" s="10"/>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="s">
         <v>263</v>
       </c>
@@ -6819,25 +6734,27 @@
         <v>264</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E78" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>265</v>
+      </c>
       <c r="F78" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G78" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H78" s="6" t="str">
         <f aca="false">A78</f>
-        <v>NA.html</v>
+        <v>NA_Manual.html</v>
       </c>
       <c r="I78" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J78" s="6" t="str">
         <f aca="false">C78</f>
-        <v>Night Audit GSA SOPs</v>
+        <v>Night Audit Manual</v>
       </c>
       <c r="K78" s="6" t="s">
         <v>19</v>
@@ -6870,22 +6787,20 @@
       <c r="AK78" s="9"/>
       <c r="AL78" s="10"/>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>268</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E79" s="6"/>
       <c r="F79" s="6" t="s">
         <v>269</v>
       </c>
@@ -6894,19 +6809,22 @@
       </c>
       <c r="H79" s="6" t="str">
         <f aca="false">A79</f>
-        <v>NA_Manual.html</v>
+        <v>Noise.html</v>
       </c>
       <c r="I79" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J79" s="6" t="str">
         <f aca="false">C79</f>
-        <v>Night Audit Manual</v>
+        <v>Noise &amp; Party Policy</v>
       </c>
       <c r="K79" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L79" s="6"/>
+      <c r="L79" s="6" t="str">
+        <f aca="false">CONCATENATE(sitemap!$G79,sitemap!$H79,sitemap!$I79,sitemap!$J79,sitemap!$K79)</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Noise.html"&gt;Noise &amp; Party Policy&lt;/a&gt;&lt;/p&gt;</v>
+      </c>
       <c r="M79" s="9"/>
       <c r="N79" s="9"/>
       <c r="O79" s="9"/>
@@ -6934,12 +6852,12 @@
       <c r="AK79" s="9"/>
       <c r="AL79" s="10"/>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="6" t="s">
         <v>270</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C80" s="6" t="s">
         <v>271</v>
@@ -6956,21 +6874,21 @@
       </c>
       <c r="H80" s="6" t="str">
         <f aca="false">A80</f>
-        <v>Noise.html</v>
+        <v>BlackFolder.html</v>
       </c>
       <c r="I80" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J80" s="6" t="str">
         <f aca="false">C80</f>
-        <v>Noise &amp; Party Policy</v>
+        <v>Organising The Black Folder</v>
       </c>
       <c r="K80" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L80" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Noise.html"&gt;Noise &amp; Party Policy&lt;/a&gt;&lt;/p&gt;</v>
+        <f aca="false">CONCATENATE(sitemap!$G80,sitemap!$H80,sitemap!$I80,sitemap!$J80,sitemap!$K80)</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="BlackFolder.html"&gt;Organising The Black Folder&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M80" s="9"/>
       <c r="N80" s="9"/>
@@ -6999,12 +6917,12 @@
       <c r="AK80" s="9"/>
       <c r="AL80" s="10"/>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="6" t="s">
         <v>273</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="C81" s="6" t="s">
         <v>274</v>
@@ -7021,21 +6939,21 @@
       </c>
       <c r="H81" s="6" t="str">
         <f aca="false">A81</f>
-        <v>BlackFolder.html</v>
+        <v>DepRegCard.html</v>
       </c>
       <c r="I81" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J81" s="6" t="str">
         <f aca="false">C81</f>
-        <v>Organising The Black Folder</v>
+        <v>Organising The Departed Reg Cards For Night Audit</v>
       </c>
       <c r="K81" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L81" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="BlackFolder.html"&gt;Organising The Black Folder&lt;/a&gt;&lt;/p&gt;</v>
+        <f aca="false">CONCATENATE(sitemap!$G81,sitemap!$H81,sitemap!$I81,sitemap!$J81,sitemap!$K81)</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="DepRegCard.html"&gt;Organising The Departed Reg Cards For Night Audit&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M81" s="9"/>
       <c r="N81" s="9"/>
@@ -7064,12 +6982,12 @@
       <c r="AK81" s="9"/>
       <c r="AL81" s="10"/>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="6" t="s">
         <v>276</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="C82" s="6" t="s">
         <v>277</v>
@@ -7086,21 +7004,21 @@
       </c>
       <c r="H82" s="6" t="str">
         <f aca="false">A82</f>
-        <v>DepRegCard.html</v>
+        <v>packages.html</v>
       </c>
       <c r="I82" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J82" s="6" t="str">
         <f aca="false">C82</f>
-        <v>Organising The Departed Reg Cards For Night Audit</v>
+        <v>Package Logging Procedure</v>
       </c>
       <c r="K82" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L82" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="DepRegCard.html"&gt;Organising The Departed Reg Cards For Night Audit&lt;/a&gt;&lt;/p&gt;</v>
+        <f aca="false">CONCATENATE(sitemap!$G82,sitemap!$H82,sitemap!$I82,sitemap!$J82,sitemap!$K82)</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="packages.html"&gt;Package Logging Procedure&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M82" s="9"/>
       <c r="N82" s="9"/>
@@ -7129,7 +7047,7 @@
       <c r="AK82" s="9"/>
       <c r="AL82" s="10"/>
     </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="6" t="s">
         <v>279</v>
       </c>
@@ -7151,21 +7069,21 @@
       </c>
       <c r="H83" s="6" t="str">
         <f aca="false">A83</f>
-        <v>packages.html</v>
+        <v>passport.html</v>
       </c>
       <c r="I83" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J83" s="6" t="str">
         <f aca="false">C83</f>
-        <v>Package Logging Procedure</v>
+        <v>Passport Bonds For Shipping Companies</v>
       </c>
       <c r="K83" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L83" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="packages.html"&gt;Package Logging Procedure&lt;/a&gt;&lt;/p&gt;</v>
+        <f aca="false">CONCATENATE(sitemap!$G83,sitemap!$H83,sitemap!$I83,sitemap!$J83,sitemap!$K83)</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="passport.html"&gt;Passport Bonds For Shipping Companies&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M83" s="9"/>
       <c r="N83" s="9"/>
@@ -7194,7 +7112,7 @@
       <c r="AK83" s="9"/>
       <c r="AL83" s="10"/>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="6" t="s">
         <v>282</v>
       </c>
@@ -7216,21 +7134,21 @@
       </c>
       <c r="H84" s="6" t="str">
         <f aca="false">A84</f>
-        <v>passport.html</v>
+        <v>phoneetiquette.html</v>
       </c>
       <c r="I84" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J84" s="6" t="str">
         <f aca="false">C84</f>
-        <v>Passport Bonds For Shipping Companies</v>
+        <v>Phone Etiquette</v>
       </c>
       <c r="K84" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L84" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="passport.html"&gt;Passport Bonds For Shipping Companies&lt;/a&gt;&lt;/p&gt;</v>
+        <f aca="false">CONCATENATE(sitemap!$G84,sitemap!$H84,sitemap!$I84,sitemap!$J84,sitemap!$K84)</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="phoneetiquette.html"&gt;Phone Etiquette&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M84" s="9"/>
       <c r="N84" s="9"/>
@@ -7259,7 +7177,7 @@
       <c r="AK84" s="9"/>
       <c r="AL84" s="10"/>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="6" t="s">
         <v>285</v>
       </c>
@@ -7270,9 +7188,11 @@
         <v>286</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E85" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="F85" s="6" t="s">
         <v>287</v>
       </c>
@@ -7281,21 +7201,21 @@
       </c>
       <c r="H85" s="6" t="str">
         <f aca="false">A85</f>
-        <v>phoneetiquette.html</v>
+        <v>Transactions.html</v>
       </c>
       <c r="I85" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J85" s="6" t="str">
         <f aca="false">C85</f>
-        <v>Phone Etiquette</v>
+        <v>Posting Charges To Folios</v>
       </c>
       <c r="K85" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L85" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="phoneetiquette.html"&gt;Phone Etiquette&lt;/a&gt;&lt;/p&gt;</v>
+        <f aca="false">CONCATENATE(sitemap!$G85,sitemap!$H85,sitemap!$I85,sitemap!$J85,sitemap!$K85)</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Transactions.html"&gt;Posting Charges To Folios&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M85" s="9"/>
       <c r="N85" s="9"/>
@@ -7324,7 +7244,7 @@
       <c r="AK85" s="9"/>
       <c r="AL85" s="10"/>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="6" t="s">
         <v>288</v>
       </c>
@@ -7348,21 +7268,21 @@
       </c>
       <c r="H86" s="6" t="str">
         <f aca="false">A86</f>
-        <v>Transactions.html</v>
+        <v>PreAuth.html</v>
       </c>
       <c r="I86" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J86" s="6" t="str">
         <f aca="false">C86</f>
-        <v>Posting Charges To Folios</v>
+        <v>Pre-Authorisations</v>
       </c>
       <c r="K86" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L86" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Transactions.html"&gt;Posting Charges To Folios&lt;/a&gt;&lt;/p&gt;</v>
+        <f aca="false">CONCATENATE(sitemap!$G86,sitemap!$H86,sitemap!$I86,sitemap!$J86,sitemap!$K86)</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="PreAuth.html"&gt;Pre-Authorisations&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M86" s="9"/>
       <c r="N86" s="9"/>
@@ -7391,7 +7311,7 @@
       <c r="AK86" s="9"/>
       <c r="AL86" s="10"/>
     </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="6" t="s">
         <v>291</v>
       </c>
@@ -7415,21 +7335,21 @@
       </c>
       <c r="H87" s="6" t="str">
         <f aca="false">A87</f>
-        <v>PreAuth.html</v>
+        <v>Bfast.html</v>
       </c>
       <c r="I87" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J87" s="6" t="str">
         <f aca="false">C87</f>
-        <v>Pre-Authorisations</v>
+        <v>Pre-Order Breakfast Procedure</v>
       </c>
       <c r="K87" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L87" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="PreAuth.html"&gt;Pre-Authorisations&lt;/a&gt;&lt;/p&gt;</v>
+        <f aca="false">CONCATENATE(sitemap!$G87,sitemap!$H87,sitemap!$I87,sitemap!$J87,sitemap!$K87)</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Bfast.html"&gt;Pre-Order Breakfast Procedure&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M87" s="9"/>
       <c r="N87" s="9"/>
@@ -7458,22 +7378,20 @@
       <c r="AK87" s="9"/>
       <c r="AL87" s="10"/>
     </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="6" t="s">
         <v>294</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>295</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E88" s="6" t="s">
-        <v>54</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E88" s="6"/>
       <c r="F88" s="6" t="s">
         <v>296</v>
       </c>
@@ -7482,21 +7400,21 @@
       </c>
       <c r="H88" s="6" t="str">
         <f aca="false">A88</f>
-        <v>Bfast.html</v>
+        <v>ArrRegCard.html</v>
       </c>
       <c r="I88" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J88" s="6" t="str">
         <f aca="false">C88</f>
-        <v>Pre-Order Breakfast Procedure</v>
+        <v>Preparing Arriving Guest Reg Cards</v>
       </c>
       <c r="K88" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L88" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Bfast.html"&gt;Pre-Order Breakfast Procedure&lt;/a&gt;&lt;/p&gt;</v>
+        <f aca="false">CONCATENATE(sitemap!$G88,sitemap!$H88,sitemap!$I88,sitemap!$J88,sitemap!$K88)</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="ArrRegCard.html"&gt;Preparing Arriving Guest Reg Cards&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M88" s="9"/>
       <c r="N88" s="9"/>
@@ -7525,20 +7443,22 @@
       <c r="AK88" s="9"/>
       <c r="AL88" s="10"/>
     </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="6" t="s">
         <v>297</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>298</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E89" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="F89" s="6" t="s">
         <v>299</v>
       </c>
@@ -7547,21 +7467,21 @@
       </c>
       <c r="H89" s="6" t="str">
         <f aca="false">A89</f>
-        <v>ArrRegCard.html</v>
+        <v>NextShift.html</v>
       </c>
       <c r="I89" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J89" s="6" t="str">
         <f aca="false">C89</f>
-        <v>Preparing Arriving Guest Reg Cards</v>
+        <v>Preparing For The Next Shift</v>
       </c>
       <c r="K89" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L89" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="ArrRegCard.html"&gt;Preparing Arriving Guest Reg Cards&lt;/a&gt;&lt;/p&gt;</v>
+        <f aca="false">CONCATENATE(sitemap!$G89,sitemap!$H89,sitemap!$I89,sitemap!$J89,sitemap!$K89)</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="NextShift.html"&gt;Preparing For The Next Shift&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M89" s="9"/>
       <c r="N89" s="9"/>
@@ -7590,22 +7510,20 @@
       <c r="AK89" s="9"/>
       <c r="AL89" s="10"/>
     </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="6" t="s">
         <v>300</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>301</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E90" s="6" t="s">
-        <v>54</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E90" s="6"/>
       <c r="F90" s="6" t="s">
         <v>302</v>
       </c>
@@ -7614,21 +7532,21 @@
       </c>
       <c r="H90" s="6" t="str">
         <f aca="false">A90</f>
-        <v>NextShift.html</v>
+        <v>Check12.html</v>
       </c>
       <c r="I90" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J90" s="6" t="str">
         <f aca="false">C90</f>
-        <v>Preparing For The Next Shift</v>
+        <v>Printing In House Checklist 1 &amp; 2</v>
       </c>
       <c r="K90" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L90" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="NextShift.html"&gt;Preparing For The Next Shift&lt;/a&gt;&lt;/p&gt;</v>
+        <f aca="false">CONCATENATE(sitemap!$G90,sitemap!$H90,sitemap!$I90,sitemap!$J90,sitemap!$K90)</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Check12.html"&gt;Printing In House Checklist 1 &amp; 2&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M90" s="9"/>
       <c r="N90" s="9"/>
@@ -7657,20 +7575,22 @@
       <c r="AK90" s="9"/>
       <c r="AL90" s="10"/>
     </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="6" t="s">
         <v>303</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>304</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E91" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="F91" s="6" t="s">
         <v>305</v>
       </c>
@@ -7679,21 +7599,21 @@
       </c>
       <c r="H91" s="6" t="str">
         <f aca="false">A91</f>
-        <v>Check12.html</v>
+        <v>reqpaperwork.html</v>
       </c>
       <c r="I91" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J91" s="6" t="str">
         <f aca="false">C91</f>
-        <v>Printing In House Checklist 1 &amp; 2</v>
+        <v>Printing Required Paperwork For Arriving Reg Cards</v>
       </c>
       <c r="K91" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L91" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Check12.html"&gt;Printing In House Checklist 1 &amp; 2&lt;/a&gt;&lt;/p&gt;</v>
+        <f aca="false">CONCATENATE(sitemap!$G91,sitemap!$H91,sitemap!$I91,sitemap!$J91,sitemap!$K91)</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="reqpaperwork.html"&gt;Printing Required Paperwork For Arriving Reg Cards&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M91" s="9"/>
       <c r="N91" s="9"/>
@@ -7722,22 +7642,20 @@
       <c r="AK91" s="9"/>
       <c r="AL91" s="10"/>
     </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="6" t="s">
         <v>306</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="C92" s="6" t="s">
         <v>307</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E92" s="6" t="s">
-        <v>54</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E92" s="6"/>
       <c r="F92" s="6" t="s">
         <v>308</v>
       </c>
@@ -7746,21 +7664,21 @@
       </c>
       <c r="H92" s="6" t="str">
         <f aca="false">A92</f>
-        <v>prepregcard.html</v>
+        <v>ARPendRep.html</v>
       </c>
       <c r="I92" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J92" s="6" t="str">
         <f aca="false">C92</f>
-        <v>Printing Registration Cards For the Next Day</v>
+        <v>Printing The AR Pending Report</v>
       </c>
       <c r="K92" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L92" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="prepregcard.html"&gt;Printing Registration Cards For the Next Day&lt;/a&gt;&lt;/p&gt;</v>
+        <f aca="false">CONCATENATE(sitemap!$G92,sitemap!$H92,sitemap!$I92,sitemap!$J92,sitemap!$K92)</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="ARPendRep.html"&gt;Printing The AR Pending Report&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M92" s="9"/>
       <c r="N92" s="9"/>
@@ -7789,7 +7707,7 @@
       <c r="AK92" s="9"/>
       <c r="AL92" s="10"/>
     </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="6" t="s">
         <v>309</v>
       </c>
@@ -7800,11 +7718,9 @@
         <v>310</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E93" s="6" t="s">
-        <v>54</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E93" s="6"/>
       <c r="F93" s="6" t="s">
         <v>311</v>
       </c>
@@ -7813,21 +7729,21 @@
       </c>
       <c r="H93" s="6" t="str">
         <f aca="false">A93</f>
-        <v>reqpaperwork.html</v>
+        <v>CashGuestList.html</v>
       </c>
       <c r="I93" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J93" s="6" t="str">
         <f aca="false">C93</f>
-        <v>Printing Required Paperwork For Arriving Reg Cards</v>
+        <v>Printing the Cash Guest Listing</v>
       </c>
       <c r="K93" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L93" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="reqpaperwork.html"&gt;Printing Required Paperwork For Arriving Reg Cards&lt;/a&gt;&lt;/p&gt;</v>
+        <f aca="false">CONCATENATE(sitemap!$G93,sitemap!$H93,sitemap!$I93,sitemap!$J93,sitemap!$K93)</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="CashGuestList.html"&gt;Printing the Cash Guest Listing&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M93" s="9"/>
       <c r="N93" s="9"/>
@@ -7856,12 +7772,12 @@
       <c r="AK93" s="9"/>
       <c r="AL93" s="10"/>
     </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="6" t="s">
         <v>312</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="C94" s="6" t="s">
         <v>313</v>
@@ -7878,21 +7794,21 @@
       </c>
       <c r="H94" s="6" t="str">
         <f aca="false">A94</f>
-        <v>ARPendRep.html</v>
+        <v>CBReport.html</v>
       </c>
       <c r="I94" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J94" s="6" t="str">
         <f aca="false">C94</f>
-        <v>Printing The AR Pending Report</v>
+        <v>Printing The Chargeback Report</v>
       </c>
       <c r="K94" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L94" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="ARPendRep.html"&gt;Printing The AR Pending Report&lt;/a&gt;&lt;/p&gt;</v>
+        <f aca="false">CONCATENATE(sitemap!$G94,sitemap!$H94,sitemap!$I94,sitemap!$J94,sitemap!$K94)</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="CBReport.html"&gt;Printing The Chargeback Report&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M94" s="9"/>
       <c r="N94" s="9"/>
@@ -7921,20 +7837,22 @@
       <c r="AK94" s="9"/>
       <c r="AL94" s="10"/>
     </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="6" t="s">
         <v>315</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="C95" s="6" t="s">
         <v>316</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E95" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="F95" s="6" t="s">
         <v>317</v>
       </c>
@@ -7943,21 +7861,21 @@
       </c>
       <c r="H95" s="6" t="str">
         <f aca="false">A95</f>
-        <v>CashGuestList.html</v>
+        <v>DepSummRep.html</v>
       </c>
       <c r="I95" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J95" s="6" t="str">
         <f aca="false">C95</f>
-        <v>Printing the Cash Guest Listing</v>
+        <v>Printing The Expected Departure Summary Report</v>
       </c>
       <c r="K95" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L95" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="CashGuestList.html"&gt;Printing the Cash Guest Listing&lt;/a&gt;&lt;/p&gt;</v>
+        <f aca="false">CONCATENATE(sitemap!$G95,sitemap!$H95,sitemap!$I95,sitemap!$J95,sitemap!$K95)</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="DepSummRep.html"&gt;Printing The Expected Departure Summary Report&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M95" s="9"/>
       <c r="N95" s="9"/>
@@ -7986,20 +7904,22 @@
       <c r="AK95" s="9"/>
       <c r="AL95" s="10"/>
     </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="6" t="s">
         <v>318</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="C96" s="6" t="s">
         <v>319</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E96" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="F96" s="6" t="s">
         <v>320</v>
       </c>
@@ -8008,21 +7928,21 @@
       </c>
       <c r="H96" s="6" t="str">
         <f aca="false">A96</f>
-        <v>CBReport.html</v>
+        <v>FOCWater.html</v>
       </c>
       <c r="I96" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J96" s="6" t="str">
         <f aca="false">C96</f>
-        <v>Printing The Chargeback Report</v>
+        <v>Printing The FOC Water Sheet</v>
       </c>
       <c r="K96" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L96" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="CBReport.html"&gt;Printing The Chargeback Report&lt;/a&gt;&lt;/p&gt;</v>
+        <f aca="false">CONCATENATE(sitemap!$G96,sitemap!$H96,sitemap!$I96,sitemap!$J96,sitemap!$K96)</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="FOCWater.html"&gt;Printing The FOC Water Sheet&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M96" s="9"/>
       <c r="N96" s="9"/>
@@ -8051,12 +7971,12 @@
       <c r="AK96" s="9"/>
       <c r="AL96" s="10"/>
     </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="6" t="s">
         <v>321</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>146</v>
+        <v>30</v>
       </c>
       <c r="C97" s="6" t="s">
         <v>322</v>
@@ -8075,21 +7995,21 @@
       </c>
       <c r="H97" s="6" t="str">
         <f aca="false">A97</f>
-        <v>DepSummRep.html</v>
+        <v>SpexInstRep.html</v>
       </c>
       <c r="I97" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J97" s="6" t="str">
         <f aca="false">C97</f>
-        <v>Printing The Expected Departure Summary Report</v>
+        <v>Printing The Folio Special Instructions by Check Out Date Report</v>
       </c>
       <c r="K97" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L97" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="DepSummRep.html"&gt;Printing The Expected Departure Summary Report&lt;/a&gt;&lt;/p&gt;</v>
+        <f aca="false">CONCATENATE(sitemap!$G97,sitemap!$H97,sitemap!$I97,sitemap!$J97,sitemap!$K97)</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="SpexInstRep.html"&gt;Printing The Folio Special Instructions by Check Out Date Report&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M97" s="9"/>
       <c r="N97" s="9"/>
@@ -8118,22 +8038,20 @@
       <c r="AK97" s="9"/>
       <c r="AL97" s="10"/>
     </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="6" t="s">
         <v>324</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="C98" s="6" t="s">
         <v>325</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E98" s="6" t="s">
-        <v>54</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E98" s="6"/>
       <c r="F98" s="6" t="s">
         <v>326</v>
       </c>
@@ -8142,21 +8060,21 @@
       </c>
       <c r="H98" s="6" t="str">
         <f aca="false">A98</f>
-        <v>FOCWater.html</v>
+        <v>GstList.html</v>
       </c>
       <c r="I98" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J98" s="6" t="str">
         <f aca="false">C98</f>
-        <v>Printing The FOC Water Sheet</v>
+        <v>Printing The In House Guest Listing</v>
       </c>
       <c r="K98" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L98" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="FOCWater.html"&gt;Printing The FOC Water Sheet&lt;/a&gt;&lt;/p&gt;</v>
+        <f aca="false">CONCATENATE(sitemap!$G98,sitemap!$H98,sitemap!$I98,sitemap!$J98,sitemap!$K98)</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="GstList.html"&gt;Printing The In House Guest Listing&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M98" s="9"/>
       <c r="N98" s="9"/>
@@ -8185,22 +8103,20 @@
       <c r="AK98" s="9"/>
       <c r="AL98" s="10"/>
     </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="6" t="s">
         <v>327</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>328</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E99" s="6" t="s">
-        <v>54</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E99" s="6"/>
       <c r="F99" s="6" t="s">
         <v>329</v>
       </c>
@@ -8209,21 +8125,21 @@
       </c>
       <c r="H99" s="6" t="str">
         <f aca="false">A99</f>
-        <v>SpexInstRep.html</v>
+        <v>RateCode.html</v>
       </c>
       <c r="I99" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J99" s="6" t="str">
         <f aca="false">C99</f>
-        <v>Printing The Folio Special Instructions by Check Out Date Report</v>
+        <v>Rate Codes</v>
       </c>
       <c r="K99" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L99" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="SpexInstRep.html"&gt;Printing The Folio Special Instructions by Check Out Date Report&lt;/a&gt;&lt;/p&gt;</v>
+        <f aca="false">CONCATENATE(sitemap!$G99,sitemap!$H99,sitemap!$I99,sitemap!$J99,sitemap!$K99)</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="RateCode.html"&gt;Rate Codes&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M99" s="9"/>
       <c r="N99" s="9"/>
@@ -8252,20 +8168,22 @@
       <c r="AK99" s="9"/>
       <c r="AL99" s="10"/>
     </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="6" t="s">
         <v>330</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="C100" s="6" t="s">
         <v>331</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E100" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="F100" s="6" t="s">
         <v>332</v>
       </c>
@@ -8274,21 +8192,21 @@
       </c>
       <c r="H100" s="6" t="str">
         <f aca="false">A100</f>
-        <v>GstList.html</v>
+        <v>Refund.html</v>
       </c>
       <c r="I100" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J100" s="6" t="str">
         <f aca="false">C100</f>
-        <v>Printing The In House Guest Listing</v>
+        <v>Refund Procedure</v>
       </c>
       <c r="K100" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L100" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="GstList.html"&gt;Printing The In House Guest Listing&lt;/a&gt;&lt;/p&gt;</v>
+        <f aca="false">CONCATENATE(sitemap!$G100,sitemap!$H100,sitemap!$I100,sitemap!$J100,sitemap!$K100)</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Refund.html"&gt;Refund Procedure&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M100" s="9"/>
       <c r="N100" s="9"/>
@@ -8317,7 +8235,7 @@
       <c r="AK100" s="9"/>
       <c r="AL100" s="10"/>
     </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="6" t="s">
         <v>333</v>
       </c>
@@ -8330,30 +8248,32 @@
       <c r="D101" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E101" s="6"/>
+      <c r="E101" s="6" t="s">
+        <v>335</v>
+      </c>
       <c r="F101" s="6" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G101" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H101" s="6" t="str">
         <f aca="false">A101</f>
-        <v>RateCode.html</v>
+        <v>ResAbb.html</v>
       </c>
       <c r="I101" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J101" s="6" t="str">
         <f aca="false">C101</f>
-        <v>Rate Codes</v>
+        <v>Reservation Abbreviations</v>
       </c>
       <c r="K101" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L101" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="RateCode.html"&gt;Rate Codes&lt;/a&gt;&lt;/p&gt;</v>
+        <f aca="false">CONCATENATE(sitemap!$G101,sitemap!$H101,sitemap!$I101,sitemap!$J101,sitemap!$K101)</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="ResAbb.html"&gt;Reservation Abbreviations&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M101" s="9"/>
       <c r="N101" s="9"/>
@@ -8382,45 +8302,43 @@
       <c r="AK101" s="9"/>
       <c r="AL101" s="10"/>
     </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="6" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E102" s="6" t="s">
-        <v>54</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E102" s="6"/>
       <c r="F102" s="6" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G102" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H102" s="6" t="str">
         <f aca="false">A102</f>
-        <v>Refund.html</v>
+        <v>respromo.html</v>
       </c>
       <c r="I102" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J102" s="6" t="str">
         <f aca="false">C102</f>
-        <v>Refund Procedure</v>
+        <v>Reservation Promotions</v>
       </c>
       <c r="K102" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L102" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Refund.html"&gt;Refund Procedure&lt;/a&gt;&lt;/p&gt;</v>
+        <f aca="false">CONCATENATE(sitemap!$G102,sitemap!$H102,sitemap!$I102,sitemap!$J102,sitemap!$K102)</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="respromo.html"&gt;Reservation Promotions&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M102" s="9"/>
       <c r="N102" s="9"/>
@@ -8449,22 +8367,20 @@
       <c r="AK102" s="9"/>
       <c r="AL102" s="10"/>
     </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="6" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B103" s="7" t="s">
         <v>66</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D103" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E103" s="6" t="s">
-        <v>341</v>
-      </c>
+      <c r="E103" s="6"/>
       <c r="F103" s="6" t="s">
         <v>342</v>
       </c>
@@ -8473,22 +8389,19 @@
       </c>
       <c r="H103" s="6" t="str">
         <f aca="false">A103</f>
-        <v>ResAbb.html</v>
+        <v>Res_Manual.html</v>
       </c>
       <c r="I103" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J103" s="6" t="str">
         <f aca="false">C103</f>
-        <v>Reservation Abbreviations</v>
+        <v>Reservations Manual</v>
       </c>
       <c r="K103" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L103" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="ResAbb.html"&gt;Reservation Abbreviations&lt;/a&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="L103" s="6"/>
       <c r="M103" s="9"/>
       <c r="N103" s="9"/>
       <c r="O103" s="9"/>
@@ -8516,7 +8429,7 @@
       <c r="AK103" s="9"/>
       <c r="AL103" s="10"/>
     </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="6" t="s">
         <v>343</v>
       </c>
@@ -8538,22 +8451,19 @@
       </c>
       <c r="H104" s="6" t="str">
         <f aca="false">A104</f>
-        <v>respromo.html</v>
+        <v>Res.html</v>
       </c>
       <c r="I104" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J104" s="6" t="str">
         <f aca="false">C104</f>
-        <v>Reservation Promotions</v>
+        <v>Reservations SOPs</v>
       </c>
       <c r="K104" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L104" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="respromo.html"&gt;Reservation Promotions&lt;/a&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="L104" s="6"/>
       <c r="M104" s="9"/>
       <c r="N104" s="9"/>
       <c r="O104" s="9"/>
@@ -8581,41 +8491,46 @@
       <c r="AK104" s="9"/>
       <c r="AL104" s="10"/>
     </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="6" t="s">
         <v>346</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="C105" s="6" t="s">
         <v>347</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E105" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="E105" s="6" t="s">
+        <v>348</v>
+      </c>
       <c r="F105" s="6" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G105" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H105" s="6" t="str">
         <f aca="false">A105</f>
-        <v>Res_Manual.html</v>
+        <v>reviews.html</v>
       </c>
       <c r="I105" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J105" s="6" t="str">
         <f aca="false">C105</f>
-        <v>Reservations Manual</v>
+        <v>Responding to Online Reviews</v>
       </c>
       <c r="K105" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L105" s="6"/>
+      <c r="L105" s="6" t="str">
+        <f aca="false">CONCATENATE(sitemap!$G105,sitemap!$H105,sitemap!$I105,sitemap!$J105,sitemap!$K105)</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="reviews.html"&gt;Responding to Online Reviews&lt;/a&gt;&lt;/p&gt;</v>
+      </c>
       <c r="M105" s="9"/>
       <c r="N105" s="9"/>
       <c r="O105" s="9"/>
@@ -8643,41 +8558,46 @@
       <c r="AK105" s="9"/>
       <c r="AL105" s="10"/>
     </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E106" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="F106" s="6" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G106" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H106" s="6" t="str">
         <f aca="false">A106</f>
-        <v>Res.html</v>
+        <v>Reversals.html</v>
       </c>
       <c r="I106" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J106" s="6" t="str">
         <f aca="false">C106</f>
-        <v>Reservations SOPs</v>
+        <v>Reversals &amp; Error Corrections</v>
       </c>
       <c r="K106" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L106" s="6"/>
+      <c r="L106" s="6" t="str">
+        <f aca="false">CONCATENATE(sitemap!$G106,sitemap!$H106,sitemap!$I106,sitemap!$J106,sitemap!$K106)</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Reversals.html"&gt;Reversals &amp; Error Corrections&lt;/a&gt;&lt;/p&gt;</v>
+      </c>
       <c r="M106" s="9"/>
       <c r="N106" s="9"/>
       <c r="O106" s="9"/>
@@ -8705,15 +8625,15 @@
       <c r="AK106" s="9"/>
       <c r="AL106" s="10"/>
     </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="6" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B107" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D107" s="8" t="s">
         <v>39</v>
@@ -8722,28 +8642,28 @@
         <v>54</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G107" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H107" s="6" t="str">
         <f aca="false">A107</f>
-        <v>Reversals.html</v>
+        <v>Moves.html</v>
       </c>
       <c r="I107" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J107" s="6" t="str">
         <f aca="false">C107</f>
-        <v>Reversals &amp; Error Corrections</v>
+        <v>Room Moves</v>
       </c>
       <c r="K107" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L107" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Reversals.html"&gt;Reversals &amp; Error Corrections&lt;/a&gt;&lt;/p&gt;</v>
+        <f aca="false">CONCATENATE(sitemap!$G107,sitemap!$H107,sitemap!$I107,sitemap!$J107,sitemap!$K107)</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Moves.html"&gt;Room Moves&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M107" s="9"/>
       <c r="N107" s="9"/>
@@ -8772,45 +8692,43 @@
       <c r="AK107" s="9"/>
       <c r="AL107" s="10"/>
     </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>13</v>
+        <v>143</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E108" s="6" t="s">
-        <v>54</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E108" s="6"/>
       <c r="F108" s="6" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G108" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H108" s="6" t="str">
         <f aca="false">A108</f>
-        <v>Moves.html</v>
+        <v>RNR.html</v>
       </c>
       <c r="I108" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J108" s="6" t="str">
         <f aca="false">C108</f>
-        <v>Room Moves</v>
+        <v>Room Not Ready (RNR) Procedure</v>
       </c>
       <c r="K108" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L108" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Moves.html"&gt;Room Moves&lt;/a&gt;&lt;/p&gt;</v>
+        <f aca="false">CONCATENATE(sitemap!$G108,sitemap!$H108,sitemap!$I108,sitemap!$J108,sitemap!$K108)</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="RNR.html"&gt;Room Not Ready (RNR) Procedure&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M108" s="9"/>
       <c r="N108" s="9"/>
@@ -8839,43 +8757,43 @@
       <c r="AK108" s="9"/>
       <c r="AL108" s="10"/>
     </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="6" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D109" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E109" s="6"/>
       <c r="F109" s="6" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G109" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H109" s="6" t="str">
         <f aca="false">A109</f>
-        <v>RNR.html</v>
+        <v>Boxes.html</v>
       </c>
       <c r="I109" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J109" s="6" t="str">
         <f aca="false">C109</f>
-        <v>Room Not Ready (RNR) Procedure</v>
+        <v>Safety Deposit Box Procedure</v>
       </c>
       <c r="K109" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L109" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="RNR.html"&gt;Room Not Ready (RNR) Procedure&lt;/a&gt;&lt;/p&gt;</v>
+        <f aca="false">CONCATENATE(sitemap!$G109,sitemap!$H109,sitemap!$I109,sitemap!$J109,sitemap!$K109)</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Boxes.html"&gt;Safety Deposit Box Procedure&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M109" s="9"/>
       <c r="N109" s="9"/>
@@ -8904,43 +8822,45 @@
       <c r="AK109" s="9"/>
       <c r="AL109" s="10"/>
     </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="6" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B110" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E110" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="E110" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="F110" s="6" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G110" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H110" s="6" t="str">
         <f aca="false">A110</f>
-        <v>Boxes.html</v>
+        <v>Invoices.html</v>
       </c>
       <c r="I110" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J110" s="6" t="str">
         <f aca="false">C110</f>
-        <v>Safety Deposit Box Procedure</v>
+        <v>Saving, Printing &amp; Sending Invoices To Guests</v>
       </c>
       <c r="K110" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L110" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Boxes.html"&gt;Safety Deposit Box Procedure&lt;/a&gt;&lt;/p&gt;</v>
+        <f aca="false">CONCATENATE(sitemap!$G110,sitemap!$H110,sitemap!$I110,sitemap!$J110,sitemap!$K110)</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Invoices.html"&gt;Saving, Printing &amp; Sending Invoices To Guests&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M110" s="9"/>
       <c r="N110" s="9"/>
@@ -8969,45 +8889,43 @@
       <c r="AK110" s="9"/>
       <c r="AL110" s="10"/>
     </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="6" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B111" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E111" s="6" t="s">
-        <v>54</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E111" s="6"/>
       <c r="F111" s="6" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G111" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H111" s="6" t="str">
         <f aca="false">A111</f>
-        <v>Invoices.html</v>
+        <v>secondEff.html</v>
       </c>
       <c r="I111" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J111" s="6" t="str">
         <f aca="false">C111</f>
-        <v>Saving, Printing &amp; Sending Invoices To Guests</v>
+        <v>Second Effort Program</v>
       </c>
       <c r="K111" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L111" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Invoices.html"&gt;Saving, Printing &amp; Sending Invoices To Guests&lt;/a&gt;&lt;/p&gt;</v>
+        <f aca="false">CONCATENATE(sitemap!$G111,sitemap!$H111,sitemap!$I111,sitemap!$J111,sitemap!$K111)</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="secondEff.html"&gt;Second Effort Program&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M111" s="9"/>
       <c r="N111" s="9"/>
@@ -9036,43 +8954,43 @@
       <c r="AK111" s="9"/>
       <c r="AL111" s="10"/>
     </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="6" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B112" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D112" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E112" s="6"/>
       <c r="F112" s="6" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G112" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H112" s="6" t="str">
         <f aca="false">A112</f>
-        <v>secondEff.html</v>
+        <v>Tasks.html</v>
       </c>
       <c r="I112" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J112" s="6" t="str">
         <f aca="false">C112</f>
-        <v>Second Effort Program</v>
+        <v>Setting Tasks</v>
       </c>
       <c r="K112" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L112" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="secondEff.html"&gt;Second Effort Program&lt;/a&gt;&lt;/p&gt;</v>
+        <f aca="false">CONCATENATE(sitemap!$G112,sitemap!$H112,sitemap!$I112,sitemap!$J112,sitemap!$K112)</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Tasks.html"&gt;Setting Tasks&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M112" s="9"/>
       <c r="N112" s="9"/>
@@ -9101,43 +9019,43 @@
       <c r="AK112" s="9"/>
       <c r="AL112" s="10"/>
     </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="6" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B113" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D113" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E113" s="6"/>
       <c r="F113" s="6" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G113" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H113" s="6" t="str">
         <f aca="false">A113</f>
-        <v>Tasks.html</v>
+        <v>Shipping.html</v>
       </c>
       <c r="I113" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J113" s="6" t="str">
         <f aca="false">C113</f>
-        <v>Setting Tasks</v>
+        <v>Shipping Companies Procedure</v>
       </c>
       <c r="K113" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L113" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Tasks.html"&gt;Setting Tasks&lt;/a&gt;&lt;/p&gt;</v>
+        <f aca="false">CONCATENATE(sitemap!$G113,sitemap!$H113,sitemap!$I113,sitemap!$J113,sitemap!$K113)</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Shipping.html"&gt;Shipping Companies Procedure&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M113" s="9"/>
       <c r="N113" s="9"/>
@@ -9166,43 +9084,45 @@
       <c r="AK113" s="9"/>
       <c r="AL113" s="10"/>
     </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="6" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B114" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E114" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="E114" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="F114" s="6" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G114" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H114" s="6" t="str">
         <f aca="false">A114</f>
-        <v>Shipping.html</v>
+        <v>Silent.html</v>
       </c>
       <c r="I114" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J114" s="6" t="str">
         <f aca="false">C114</f>
-        <v>Shipping Companies Procedure</v>
+        <v>Silent Guest Procedure</v>
       </c>
       <c r="K114" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L114" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Shipping.html"&gt;Shipping Companies Procedure&lt;/a&gt;&lt;/p&gt;</v>
+        <f aca="false">CONCATENATE(sitemap!$G114,sitemap!$H114,sitemap!$I114,sitemap!$J114,sitemap!$K114)</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Silent.html"&gt;Silent Guest Procedure&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M114" s="9"/>
       <c r="N114" s="9"/>
@@ -9231,45 +9151,43 @@
       <c r="AK114" s="9"/>
       <c r="AL114" s="10"/>
     </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="6" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B115" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E115" s="6" t="s">
-        <v>54</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E115" s="6"/>
       <c r="F115" s="6" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G115" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H115" s="6" t="str">
         <f aca="false">A115</f>
-        <v>Silent.html</v>
+        <v>smoking.html</v>
       </c>
       <c r="I115" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J115" s="6" t="str">
         <f aca="false">C115</f>
-        <v>Silent Guest Procedure</v>
+        <v>Smoking Policy</v>
       </c>
       <c r="K115" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L115" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Silent.html"&gt;Silent Guest Procedure&lt;/a&gt;&lt;/p&gt;</v>
+        <f aca="false">CONCATENATE(sitemap!$G115,sitemap!$H115,sitemap!$I115,sitemap!$J115,sitemap!$K115)</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="smoking.html"&gt;Smoking Policy&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M115" s="9"/>
       <c r="N115" s="9"/>
@@ -9298,43 +9216,45 @@
       <c r="AK115" s="9"/>
       <c r="AL115" s="10"/>
     </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B116" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E116" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="E116" s="6" t="s">
+        <v>382</v>
+      </c>
       <c r="F116" s="6" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G116" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H116" s="6" t="str">
         <f aca="false">A116</f>
-        <v>smoking.html</v>
+        <v>SpexGuide.html</v>
       </c>
       <c r="I116" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J116" s="6" t="str">
         <f aca="false">C116</f>
-        <v>Smoking Policy</v>
+        <v>Special Instructions Guide</v>
       </c>
       <c r="K116" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L116" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="smoking.html"&gt;Smoking Policy&lt;/a&gt;&lt;/p&gt;</v>
+        <f aca="false">CONCATENATE(sitemap!$G116,sitemap!$H116,sitemap!$I116,sitemap!$J116,sitemap!$K116)</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="SpexGuide.html"&gt;Special Instructions Guide&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M116" s="9"/>
       <c r="N116" s="9"/>
@@ -9363,45 +9283,45 @@
       <c r="AK116" s="9"/>
       <c r="AL116" s="10"/>
     </row>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="6" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B117" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D117" s="8" t="s">
         <v>39</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="G117" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H117" s="6" t="str">
         <f aca="false">A117</f>
-        <v>SpexGuide.html</v>
+        <v>StaffContacts.html</v>
       </c>
       <c r="I117" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J117" s="6" t="str">
         <f aca="false">C117</f>
-        <v>Special Instructions Guide</v>
+        <v>Staff Contact Details</v>
       </c>
       <c r="K117" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L117" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="SpexGuide.html"&gt;Special Instructions Guide&lt;/a&gt;&lt;/p&gt;</v>
+        <f aca="false">CONCATENATE(sitemap!$G117,sitemap!$H117,sitemap!$I117,sitemap!$J117,sitemap!$K117)</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="StaffContacts.html"&gt;Staff Contact Details&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M117" s="9"/>
       <c r="N117" s="9"/>
@@ -9430,45 +9350,45 @@
       <c r="AK117" s="9"/>
       <c r="AL117" s="10"/>
     </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="6" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B118" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D118" s="8" t="s">
         <v>39</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="G118" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H118" s="6" t="str">
         <f aca="false">A118</f>
-        <v>StaffContacts.html</v>
+        <v>StartShift.html</v>
       </c>
       <c r="I118" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J118" s="6" t="str">
         <f aca="false">C118</f>
-        <v>Staff Contact Details</v>
+        <v>Starting Your Shift</v>
       </c>
       <c r="K118" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L118" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="StaffContacts.html"&gt;Staff Contact Details&lt;/a&gt;&lt;/p&gt;</v>
+        <f aca="false">CONCATENATE(sitemap!$G118,sitemap!$H118,sitemap!$I118,sitemap!$J118,sitemap!$K118)</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="StartShift.html"&gt;Starting Your Shift&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M118" s="9"/>
       <c r="N118" s="9"/>
@@ -9497,45 +9417,43 @@
       <c r="AK118" s="9"/>
       <c r="AL118" s="10"/>
     </row>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="6" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B119" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E119" s="6" t="s">
-        <v>392</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E119" s="6"/>
       <c r="F119" s="6" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G119" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H119" s="6" t="str">
         <f aca="false">A119</f>
-        <v>StartShift.html</v>
+        <v>Taxis.html</v>
       </c>
       <c r="I119" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J119" s="6" t="str">
         <f aca="false">C119</f>
-        <v>Starting Your Shift</v>
+        <v>Taxi Procedure</v>
       </c>
       <c r="K119" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L119" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="StartShift.html"&gt;Starting Your Shift&lt;/a&gt;&lt;/p&gt;</v>
+        <f aca="false">CONCATENATE(sitemap!$G119,sitemap!$H119,sitemap!$I119,sitemap!$J119,sitemap!$K119)</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Taxis.html"&gt;Taxi Procedure&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M119" s="9"/>
       <c r="N119" s="9"/>
@@ -9564,43 +9482,45 @@
       <c r="AK119" s="9"/>
       <c r="AL119" s="10"/>
     </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E120" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="E120" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="F120" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="G120" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H120" s="6" t="str">
         <f aca="false">A120</f>
-        <v>Taxis.html</v>
+        <v>NATips.html</v>
       </c>
       <c r="I120" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J120" s="6" t="str">
         <f aca="false">C120</f>
-        <v>Taxi Procedure</v>
+        <v>Tips for Night Auditors</v>
       </c>
       <c r="K120" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L120" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Taxis.html"&gt;Taxi Procedure&lt;/a&gt;&lt;/p&gt;</v>
+        <f aca="false">CONCATENATE(sitemap!$G120,sitemap!$H120,sitemap!$I120,sitemap!$J120,sitemap!$K120)</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="NATips.html"&gt;Tips for Night Auditors&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M120" s="9"/>
       <c r="N120" s="9"/>
@@ -9629,15 +9549,15 @@
       <c r="AK120" s="9"/>
       <c r="AL120" s="10"/>
     </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B121" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D121" s="8" t="s">
         <v>39</v>
@@ -9646,28 +9566,28 @@
         <v>54</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G121" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H121" s="6" t="str">
         <f aca="false">A121</f>
-        <v>NATips.html</v>
+        <v>TopUp.html</v>
       </c>
       <c r="I121" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J121" s="6" t="str">
         <f aca="false">C121</f>
-        <v>Tips for Night Auditors</v>
+        <v>Top Ups</v>
       </c>
       <c r="K121" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L121" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="NATips.html"&gt;Tips for Night Auditors&lt;/a&gt;&lt;/p&gt;</v>
+        <f aca="false">CONCATENATE(sitemap!$G121,sitemap!$H121,sitemap!$I121,sitemap!$J121,sitemap!$K121)</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="TopUp.html"&gt;Top Ups&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M121" s="9"/>
       <c r="N121" s="9"/>
@@ -9696,45 +9616,45 @@
       <c r="AK121" s="9"/>
       <c r="AL121" s="10"/>
     </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="6" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D122" s="8" t="s">
         <v>39</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>54</v>
+        <v>184</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="G122" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H122" s="6" t="str">
         <f aca="false">A122</f>
-        <v>TopUp.html</v>
+        <v>DBillProbs.html</v>
       </c>
       <c r="I122" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J122" s="6" t="str">
         <f aca="false">C122</f>
-        <v>Top Ups</v>
+        <v>Troubleshooting Direct Bill Problems</v>
       </c>
       <c r="K122" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L122" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="TopUp.html"&gt;Top Ups&lt;/a&gt;&lt;/p&gt;</v>
+        <f aca="false">CONCATENATE(sitemap!$G122,sitemap!$H122,sitemap!$I122,sitemap!$J122,sitemap!$K122)</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="DBillProbs.html"&gt;Troubleshooting Direct Bill Problems&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M122" s="9"/>
       <c r="N122" s="9"/>
@@ -9763,45 +9683,45 @@
       <c r="AK122" s="9"/>
       <c r="AL122" s="10"/>
     </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D123" s="8" t="s">
         <v>39</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>187</v>
+        <v>54</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="G123" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H123" s="6" t="str">
         <f aca="false">A123</f>
-        <v>DBillProbs.html</v>
+        <v>iHMSProbs.html</v>
       </c>
       <c r="I123" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J123" s="6" t="str">
         <f aca="false">C123</f>
-        <v>Troubleshooting Direct Bill Problems</v>
+        <v>Troubleshooting iHMS Server Errors</v>
       </c>
       <c r="K123" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L123" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="DBillProbs.html"&gt;Troubleshooting Direct Bill Problems&lt;/a&gt;&lt;/p&gt;</v>
+        <f aca="false">CONCATENATE(sitemap!$G123,sitemap!$H123,sitemap!$I123,sitemap!$J123,sitemap!$K123)</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="iHMSProbs.html"&gt;Troubleshooting iHMS Server Errors&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M123" s="9"/>
       <c r="N123" s="9"/>
@@ -9830,15 +9750,15 @@
       <c r="AK123" s="9"/>
       <c r="AL123" s="10"/>
     </row>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="6" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B124" s="7" t="s">
         <v>34</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D124" s="8" t="s">
         <v>39</v>
@@ -9847,28 +9767,28 @@
         <v>54</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="G124" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H124" s="6" t="str">
         <f aca="false">A124</f>
-        <v>iHMSProbs.html</v>
+        <v>Maintenance.html</v>
       </c>
       <c r="I124" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J124" s="6" t="str">
         <f aca="false">C124</f>
-        <v>Troubleshooting iHMS Server Error</v>
+        <v>Troubleshooting Maintenance Issues</v>
       </c>
       <c r="K124" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L124" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="iHMSProbs.html"&gt;Troubleshooting iHMS Server Error&lt;/a&gt;&lt;/p&gt;</v>
+        <f aca="false">CONCATENATE(sitemap!$G124,sitemap!$H124,sitemap!$I124,sitemap!$J124,sitemap!$K124)</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Maintenance.html"&gt;Troubleshooting Maintenance Issues&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M124" s="9"/>
       <c r="N124" s="9"/>
@@ -9897,15 +9817,15 @@
       <c r="AK124" s="9"/>
       <c r="AL124" s="10"/>
     </row>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="6" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D125" s="8" t="s">
         <v>39</v>
@@ -9914,28 +9834,28 @@
         <v>54</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G125" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H125" s="6" t="str">
         <f aca="false">A125</f>
-        <v>Maintenance.html</v>
+        <v>raptor.html</v>
       </c>
       <c r="I125" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J125" s="6" t="str">
         <f aca="false">C125</f>
-        <v>Troubleshooting Maintenance Issues</v>
+        <v>Troubleshooting Raptor Posting Errors</v>
       </c>
       <c r="K125" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L125" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Maintenance.html"&gt;Troubleshooting Maintenance Issues&lt;/a&gt;&lt;/p&gt;</v>
+        <f aca="false">CONCATENATE(sitemap!$G125,sitemap!$H125,sitemap!$I125,sitemap!$J125,sitemap!$K125)</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="raptor.html"&gt;Troubleshooting Raptor Posting Errors&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M125" s="9"/>
       <c r="N125" s="9"/>
@@ -9964,15 +9884,15 @@
       <c r="AK125" s="9"/>
       <c r="AL125" s="10"/>
     </row>
-    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="6" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D126" s="8" t="s">
         <v>39</v>
@@ -9981,28 +9901,28 @@
         <v>54</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G126" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H126" s="6" t="str">
         <f aca="false">A126</f>
-        <v>raptor.html</v>
+        <v>saflokprobs.html</v>
       </c>
       <c r="I126" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J126" s="6" t="str">
         <f aca="false">C126</f>
-        <v>Troubleshooting Raptor Posting Errors</v>
+        <v>Troubleshooting Saflok (Ambiance) Issues</v>
       </c>
       <c r="K126" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L126" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="raptor.html"&gt;Troubleshooting Raptor Posting Errors&lt;/a&gt;&lt;/p&gt;</v>
+        <f aca="false">CONCATENATE(sitemap!$G126,sitemap!$H126,sitemap!$I126,sitemap!$J126,sitemap!$K126)</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="saflokprobs.html"&gt;Troubleshooting Saflok (Ambiance) Issues&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M126" s="9"/>
       <c r="N126" s="9"/>
@@ -10031,45 +9951,43 @@
       <c r="AK126" s="9"/>
       <c r="AL126" s="10"/>
     </row>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="6" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E127" s="6" t="s">
-        <v>54</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E127" s="6"/>
       <c r="F127" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G127" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H127" s="6" t="str">
         <f aca="false">A127</f>
-        <v>saflokprobs.html</v>
+        <v>Buffet.html</v>
       </c>
       <c r="I127" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J127" s="6" t="str">
         <f aca="false">C127</f>
-        <v>Troubleshooting Saflok (Ambiance) Issues</v>
+        <v>Turning On The Buffet</v>
       </c>
       <c r="K127" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L127" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="saflokprobs.html"&gt;Troubleshooting Saflok (Ambiance) Issues&lt;/a&gt;&lt;/p&gt;</v>
+        <f aca="false">CONCATENATE(sitemap!$G127,sitemap!$H127,sitemap!$I127,sitemap!$J127,sitemap!$K127)</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Buffet.html"&gt;Turning On The Buffet&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M127" s="9"/>
       <c r="N127" s="9"/>
@@ -10098,43 +10016,43 @@
       <c r="AK127" s="9"/>
       <c r="AL127" s="10"/>
     </row>
-    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="6" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D128" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E128" s="6"/>
       <c r="F128" s="6" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G128" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H128" s="6" t="str">
         <f aca="false">A128</f>
-        <v>Buffet.html</v>
+        <v>restype.html</v>
       </c>
       <c r="I128" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J128" s="6" t="str">
         <f aca="false">C128</f>
-        <v>Turning On The Buffet</v>
+        <v>Types Of Reservation</v>
       </c>
       <c r="K128" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L128" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Buffet.html"&gt;Turning On The Buffet&lt;/a&gt;&lt;/p&gt;</v>
+        <f aca="false">CONCATENATE(sitemap!$G128,sitemap!$H128,sitemap!$I128,sitemap!$J128,sitemap!$K128)</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="restype.html"&gt;Types Of Reservation&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M128" s="9"/>
       <c r="N128" s="9"/>
@@ -10163,43 +10081,43 @@
       <c r="AK128" s="9"/>
       <c r="AL128" s="10"/>
     </row>
-    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="6" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D129" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E129" s="6"/>
       <c r="F129" s="6" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G129" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H129" s="6" t="str">
         <f aca="false">A129</f>
-        <v>restype.html</v>
+        <v>RoomTypes.html</v>
       </c>
       <c r="I129" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J129" s="6" t="str">
         <f aca="false">C129</f>
-        <v>Types Of Reservation</v>
+        <v>Types Of Rooms</v>
       </c>
       <c r="K129" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L129" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="restype.html"&gt;Types Of Reservation&lt;/a&gt;&lt;/p&gt;</v>
+        <f aca="false">CONCATENATE(sitemap!$G129,sitemap!$H129,sitemap!$I129,sitemap!$J129,sitemap!$K129)</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="RoomTypes.html"&gt;Types Of Rooms&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M129" s="9"/>
       <c r="N129" s="9"/>
@@ -10228,43 +10146,43 @@
       <c r="AK129" s="9"/>
       <c r="AL129" s="10"/>
     </row>
-    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="6" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D130" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E130" s="6"/>
       <c r="F130" s="6" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G130" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H130" s="6" t="str">
         <f aca="false">A130</f>
-        <v>RoomTypes.html</v>
+        <v>function_signs.html</v>
       </c>
       <c r="I130" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J130" s="6" t="str">
         <f aca="false">C130</f>
-        <v>Types Of Rooms</v>
+        <v>Updating Function Signage</v>
       </c>
       <c r="K130" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L130" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="RoomTypes.html"&gt;Types Of Rooms&lt;/a&gt;&lt;/p&gt;</v>
+        <f aca="false">CONCATENATE(sitemap!$G130,sitemap!$H130,sitemap!$I130,sitemap!$J130,sitemap!$K130)</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="function_signs.html"&gt;Updating Function Signage&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M130" s="9"/>
       <c r="N130" s="9"/>
@@ -10293,43 +10211,45 @@
       <c r="AK130" s="9"/>
       <c r="AL130" s="10"/>
     </row>
-    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="6" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E131" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="E131" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="F131" s="6" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G131" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H131" s="6" t="str">
         <f aca="false">A131</f>
-        <v>function_signs.html</v>
+        <v>UpdRegCard.html</v>
       </c>
       <c r="I131" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J131" s="6" t="str">
         <f aca="false">C131</f>
-        <v>Updating Function Signage</v>
+        <v>Updating Guest Registration Cards</v>
       </c>
       <c r="K131" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L131" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="function_signs.html"&gt;Updating Function Signage&lt;/a&gt;&lt;/p&gt;</v>
+        <f aca="false">CONCATENATE(sitemap!$G131,sitemap!$H131,sitemap!$I131,sitemap!$J131,sitemap!$K131)</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="UpdRegCard.html"&gt;Updating Guest Registration Cards&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M131" s="9"/>
       <c r="N131" s="9"/>
@@ -10358,45 +10278,45 @@
       <c r="AK131" s="9"/>
       <c r="AL131" s="10"/>
     </row>
-    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="6" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B132" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D132" s="8" t="s">
         <v>39</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>54</v>
+        <v>433</v>
       </c>
       <c r="F132" s="6" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="G132" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H132" s="6" t="str">
         <f aca="false">A132</f>
-        <v>UpdRegCard.html</v>
+        <v>Upsell.html</v>
       </c>
       <c r="I132" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J132" s="6" t="str">
         <f aca="false">C132</f>
-        <v>Updating Guest Registration Cards</v>
+        <v>Upselling Rooms &amp; Pricing</v>
       </c>
       <c r="K132" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L132" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="UpdRegCard.html"&gt;Updating Guest Registration Cards&lt;/a&gt;&lt;/p&gt;</v>
+        <f aca="false">CONCATENATE(sitemap!$G132,sitemap!$H132,sitemap!$I132,sitemap!$J132,sitemap!$K132)</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Upsell.html"&gt;Upselling Rooms &amp; Pricing&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M132" s="9"/>
       <c r="N132" s="9"/>
@@ -10425,45 +10345,43 @@
       <c r="AK132" s="9"/>
       <c r="AL132" s="10"/>
     </row>
-    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="6" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B133" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E133" s="6" t="s">
-        <v>435</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E133" s="6"/>
       <c r="F133" s="6" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="G133" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H133" s="6" t="str">
         <f aca="false">A133</f>
-        <v>Upsell.html</v>
+        <v>vip.html</v>
       </c>
       <c r="I133" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J133" s="6" t="str">
         <f aca="false">C133</f>
-        <v>Upselling Rooms &amp; Pricing</v>
+        <v>VIP Status Codes</v>
       </c>
       <c r="K133" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L133" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Upsell.html"&gt;Upselling Rooms &amp; Pricing&lt;/a&gt;&lt;/p&gt;</v>
+        <f aca="false">CONCATENATE(sitemap!$G133,sitemap!$H133,sitemap!$I133,sitemap!$J133,sitemap!$K133)</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="vip.html"&gt;VIP Status Codes&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M133" s="9"/>
       <c r="N133" s="9"/>
@@ -10492,43 +10410,45 @@
       <c r="AK133" s="9"/>
       <c r="AL133" s="10"/>
     </row>
-    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="6" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B134" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E134" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="E134" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="F134" s="6" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G134" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H134" s="6" t="str">
         <f aca="false">A134</f>
-        <v>vip.html</v>
+        <v>Virt.html</v>
       </c>
       <c r="I134" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J134" s="6" t="str">
         <f aca="false">C134</f>
-        <v>VIP Status Codes</v>
+        <v>Virtual Folios</v>
       </c>
       <c r="K134" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L134" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="vip.html"&gt;VIP Status Codes&lt;/a&gt;&lt;/p&gt;</v>
+        <f aca="false">CONCATENATE(sitemap!$G134,sitemap!$H134,sitemap!$I134,sitemap!$J134,sitemap!$K134)</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Virt.html"&gt;Virtual Folios&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M134" s="9"/>
       <c r="N134" s="9"/>
@@ -10557,57 +10477,55 @@
       <c r="AK134" s="9"/>
       <c r="AL134" s="10"/>
     </row>
-    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="6" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B135" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E135" s="6" t="s">
-        <v>54</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E135" s="6"/>
       <c r="F135" s="6" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G135" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H135" s="6" t="str">
         <f aca="false">A135</f>
-        <v>Virt.html</v>
+        <v>Wake.html</v>
       </c>
       <c r="I135" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J135" s="6" t="str">
         <f aca="false">C135</f>
-        <v>Virtual Folios</v>
+        <v>Wake Up Call Procedure</v>
       </c>
       <c r="K135" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L135" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Virt.html"&gt;Virtual Folios&lt;/a&gt;&lt;/p&gt;</v>
+        <f aca="false">CONCATENATE(sitemap!$G135,sitemap!$H135,sitemap!$I135,sitemap!$J135,sitemap!$K135)</f>
+        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Wake.html"&gt;Wake Up Call Procedure&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="M135" s="9"/>
       <c r="N135" s="9"/>
-      <c r="O135" s="9"/>
-      <c r="P135" s="9"/>
-      <c r="Q135" s="9"/>
-      <c r="R135" s="9"/>
-      <c r="S135" s="9"/>
-      <c r="T135" s="9"/>
-      <c r="U135" s="9"/>
-      <c r="V135" s="9"/>
-      <c r="W135" s="9"/>
+      <c r="O135" s="6"/>
+      <c r="P135" s="7"/>
+      <c r="Q135" s="6"/>
+      <c r="R135" s="8"/>
+      <c r="S135" s="6"/>
+      <c r="T135" s="6"/>
+      <c r="U135" s="6"/>
+      <c r="V135" s="6"/>
+      <c r="W135" s="6"/>
       <c r="X135" s="9"/>
       <c r="Y135" s="9"/>
       <c r="Z135" s="9"/>
@@ -10624,149 +10542,61 @@
       <c r="AK135" s="9"/>
       <c r="AL135" s="10"/>
     </row>
-    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="B136" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C136" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="D136" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E136" s="6"/>
-      <c r="F136" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="G136" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H136" s="6" t="str">
-        <f aca="false">A136</f>
-        <v>Wake.html</v>
-      </c>
-      <c r="I136" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J136" s="6" t="str">
-        <f aca="false">C136</f>
-        <v>Wake Up Call Procedure</v>
-      </c>
-      <c r="K136" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L136" s="6" t="str">
-        <f aca="false">CONCATENATE(Table1[[#This Row],[General Page Links]],Table1[[#This Row],[Column1]],Table1[[#This Row],[Column2]],Table1[[#This Row],[Column3]],Table1[[#This Row],[Column4]])</f>
-        <v>&lt;p class="mb-4"&gt;&lt;i class="fa fa-arrow-right text-primary me-2"&gt;&lt;/i&gt;&lt;a href="Wake.html"&gt;Wake Up Call Procedure&lt;/a&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="M136" s="9"/>
-      <c r="N136" s="9"/>
-      <c r="O136" s="9"/>
-      <c r="P136" s="9"/>
-      <c r="Q136" s="9"/>
-      <c r="R136" s="9"/>
-      <c r="S136" s="9"/>
-      <c r="T136" s="9"/>
-      <c r="U136" s="9"/>
-      <c r="V136" s="9"/>
-      <c r="W136" s="9"/>
-      <c r="X136" s="9"/>
-      <c r="Y136" s="9"/>
-      <c r="Z136" s="9"/>
-      <c r="AA136" s="9"/>
-      <c r="AB136" s="9"/>
-      <c r="AC136" s="9"/>
-      <c r="AD136" s="9"/>
-      <c r="AE136" s="9"/>
-      <c r="AF136" s="9"/>
-      <c r="AG136" s="9"/>
-      <c r="AH136" s="9"/>
-      <c r="AI136" s="9"/>
-      <c r="AJ136" s="9"/>
-      <c r="AK136" s="9"/>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="10"/>
+      <c r="B136" s="13"/>
+      <c r="C136" s="10"/>
+      <c r="D136" s="13"/>
+      <c r="E136" s="10"/>
+      <c r="F136" s="10"/>
+      <c r="G136" s="9"/>
+      <c r="H136" s="9"/>
+      <c r="I136" s="9"/>
+      <c r="J136" s="9"/>
+      <c r="K136" s="9"/>
+      <c r="L136" s="9"/>
+      <c r="M136" s="10"/>
+      <c r="N136" s="10"/>
+      <c r="O136" s="10"/>
+      <c r="P136" s="10"/>
+      <c r="Q136" s="10"/>
+      <c r="R136" s="10"/>
+      <c r="S136" s="10"/>
+      <c r="T136" s="10"/>
+      <c r="U136" s="10"/>
+      <c r="V136" s="10"/>
+      <c r="W136" s="10"/>
+      <c r="X136" s="10"/>
+      <c r="Y136" s="10"/>
+      <c r="Z136" s="10"/>
+      <c r="AA136" s="10"/>
+      <c r="AB136" s="10"/>
+      <c r="AC136" s="10"/>
+      <c r="AD136" s="10"/>
+      <c r="AE136" s="10"/>
+      <c r="AF136" s="10"/>
+      <c r="AG136" s="10"/>
+      <c r="AH136" s="10"/>
+      <c r="AI136" s="10"/>
+      <c r="AJ136" s="10"/>
+      <c r="AK136" s="10"/>
       <c r="AL136" s="10"/>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="9"/>
-      <c r="B137" s="13"/>
-      <c r="C137" s="9"/>
-      <c r="E137" s="9"/>
-      <c r="F137" s="9"/>
       <c r="G137" s="9"/>
       <c r="H137" s="9"/>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
       <c r="K137" s="9"/>
       <c r="L137" s="9"/>
-      <c r="M137" s="9"/>
-      <c r="N137" s="9"/>
-      <c r="O137" s="9"/>
-      <c r="P137" s="9"/>
-      <c r="Q137" s="9"/>
-      <c r="R137" s="9"/>
-      <c r="S137" s="9"/>
-      <c r="T137" s="9"/>
-      <c r="U137" s="9"/>
-      <c r="V137" s="9"/>
-      <c r="W137" s="9"/>
-      <c r="X137" s="9"/>
-      <c r="Y137" s="9"/>
-      <c r="Z137" s="9"/>
-      <c r="AA137" s="9"/>
-      <c r="AB137" s="9"/>
-      <c r="AC137" s="9"/>
-      <c r="AD137" s="9"/>
-      <c r="AE137" s="9"/>
-      <c r="AF137" s="9"/>
-      <c r="AG137" s="9"/>
-      <c r="AH137" s="9"/>
-      <c r="AI137" s="9"/>
-      <c r="AJ137" s="9"/>
-      <c r="AK137" s="9"/>
-      <c r="AL137" s="10"/>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="10"/>
-      <c r="B138" s="14"/>
-      <c r="C138" s="10"/>
-      <c r="D138" s="14"/>
-      <c r="E138" s="10"/>
-      <c r="F138" s="10"/>
       <c r="G138" s="9"/>
       <c r="H138" s="9"/>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
       <c r="K138" s="9"/>
       <c r="L138" s="9"/>
-      <c r="M138" s="10"/>
-      <c r="N138" s="10"/>
-      <c r="O138" s="10"/>
-      <c r="P138" s="10"/>
-      <c r="Q138" s="10"/>
-      <c r="R138" s="10"/>
-      <c r="S138" s="10"/>
-      <c r="T138" s="10"/>
-      <c r="U138" s="10"/>
-      <c r="V138" s="10"/>
-      <c r="W138" s="10"/>
-      <c r="X138" s="10"/>
-      <c r="Y138" s="10"/>
-      <c r="Z138" s="10"/>
-      <c r="AA138" s="10"/>
-      <c r="AB138" s="10"/>
-      <c r="AC138" s="10"/>
-      <c r="AD138" s="10"/>
-      <c r="AE138" s="10"/>
-      <c r="AF138" s="10"/>
-      <c r="AG138" s="10"/>
-      <c r="AH138" s="10"/>
-      <c r="AI138" s="10"/>
-      <c r="AJ138" s="10"/>
-      <c r="AK138" s="10"/>
-      <c r="AL138" s="10"/>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G139" s="9"/>
@@ -12024,22 +11854,8 @@
       <c r="K295" s="9"/>
       <c r="L295" s="9"/>
     </row>
-    <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G296" s="9"/>
-      <c r="H296" s="9"/>
-      <c r="I296" s="9"/>
-      <c r="J296" s="9"/>
-      <c r="K296" s="9"/>
-      <c r="L296" s="9"/>
-    </row>
-    <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G297" s="9"/>
-      <c r="H297" s="9"/>
-      <c r="I297" s="9"/>
-      <c r="J297" s="9"/>
-      <c r="K297" s="9"/>
-      <c r="L297" s="9"/>
-    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
